--- a/data/processed/X_train_con_outliers.xlsx
+++ b/data/processed/X_train_con_outliers.xlsx
@@ -446,7 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>charges</t>
+          <t>age</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
@@ -473,7 +473,7 @@
         <v>2</v>
       </c>
       <c r="C2" t="n">
-        <v>9193.8385</v>
+        <v>46</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -493,7 +493,7 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>8534.6718</v>
+        <v>47</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -513,7 +513,7 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>27117.99378</v>
+        <v>52</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -533,7 +533,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="n">
-        <v>8596.827799999999</v>
+        <v>39</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="n">
-        <v>12475.3513</v>
+        <v>54</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -573,7 +573,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>13405.3903</v>
+        <v>63</v>
       </c>
       <c r="D7" t="n">
         <v>1</v>
@@ -593,7 +593,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>2150.469</v>
+        <v>22</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -613,7 +613,7 @@
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>13747.87235</v>
+        <v>18</v>
       </c>
       <c r="D9" t="n">
         <v>1</v>
@@ -633,7 +633,7 @@
         <v>1</v>
       </c>
       <c r="C10" t="n">
-        <v>6610.1097</v>
+        <v>40</v>
       </c>
       <c r="D10" t="n">
         <v>1</v>
@@ -653,7 +653,7 @@
         <v>1</v>
       </c>
       <c r="C11" t="n">
-        <v>39047.285</v>
+        <v>37</v>
       </c>
       <c r="D11" t="n">
         <v>1</v>
@@ -673,7 +673,7 @@
         <v>2</v>
       </c>
       <c r="C12" t="n">
-        <v>27375.90478</v>
+        <v>34</v>
       </c>
       <c r="D12" t="n">
         <v>1</v>
@@ -693,7 +693,7 @@
         <v>1</v>
       </c>
       <c r="C13" t="n">
-        <v>9048.0273</v>
+        <v>50</v>
       </c>
       <c r="D13" t="n">
         <v>1</v>
@@ -713,7 +713,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>8988.158750000001</v>
+        <v>49</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -733,7 +733,7 @@
         <v>0</v>
       </c>
       <c r="C15" t="n">
-        <v>14901.5167</v>
+        <v>64</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -753,7 +753,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>10096.97</v>
+        <v>46</v>
       </c>
       <c r="D16" t="n">
         <v>1</v>
@@ -773,7 +773,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>8835.264950000001</v>
+        <v>50</v>
       </c>
       <c r="D17" t="n">
         <v>1</v>
@@ -793,7 +793,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>38415.474</v>
+        <v>36</v>
       </c>
       <c r="D18" t="n">
         <v>1</v>
@@ -813,7 +813,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>2721.3208</v>
+        <v>25</v>
       </c>
       <c r="D19" t="n">
         <v>1</v>
@@ -833,7 +833,7 @@
         <v>1</v>
       </c>
       <c r="C20" t="n">
-        <v>9877.6077</v>
+        <v>51</v>
       </c>
       <c r="D20" t="n">
         <v>0</v>
@@ -853,7 +853,7 @@
         <v>2</v>
       </c>
       <c r="C21" t="n">
-        <v>47269.854</v>
+        <v>52</v>
       </c>
       <c r="D21" t="n">
         <v>1</v>
@@ -873,7 +873,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>4237.12655</v>
+        <v>30</v>
       </c>
       <c r="D22" t="n">
         <v>1</v>
@@ -893,7 +893,7 @@
         <v>0</v>
       </c>
       <c r="C23" t="n">
-        <v>2534.39375</v>
+        <v>25</v>
       </c>
       <c r="D23" t="n">
         <v>1</v>
@@ -913,7 +913,7 @@
         <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>2205.9808</v>
+        <v>18</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -933,7 +933,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>10965.446</v>
+        <v>57</v>
       </c>
       <c r="D25" t="n">
         <v>1</v>
@@ -953,7 +953,7 @@
         <v>2</v>
       </c>
       <c r="C26" t="n">
-        <v>15006.57945</v>
+        <v>27</v>
       </c>
       <c r="D26" t="n">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>4</v>
       </c>
       <c r="C27" t="n">
-        <v>10736.87075</v>
+        <v>48</v>
       </c>
       <c r="D27" t="n">
         <v>1</v>
@@ -993,7 +993,7 @@
         <v>5</v>
       </c>
       <c r="C28" t="n">
-        <v>9788.865900000001</v>
+        <v>45</v>
       </c>
       <c r="D28" t="n">
         <v>1</v>
@@ -1013,7 +1013,7 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>10422.91665</v>
+        <v>54</v>
       </c>
       <c r="D29" t="n">
         <v>1</v>
@@ -1033,7 +1033,7 @@
         <v>2</v>
       </c>
       <c r="C30" t="n">
-        <v>9304.7019</v>
+        <v>49</v>
       </c>
       <c r="D30" t="n">
         <v>1</v>
@@ -1053,7 +1053,7 @@
         <v>1</v>
       </c>
       <c r="C31" t="n">
-        <v>3378.91</v>
+        <v>26</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>0</v>
       </c>
       <c r="C32" t="n">
-        <v>2155.6815</v>
+        <v>22</v>
       </c>
       <c r="D32" t="n">
         <v>0</v>
@@ -1093,7 +1093,7 @@
         <v>0</v>
       </c>
       <c r="C33" t="n">
-        <v>38126.2465</v>
+        <v>24</v>
       </c>
       <c r="D33" t="n">
         <v>1</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>35491.64</v>
+        <v>34</v>
       </c>
       <c r="D34" t="n">
         <v>1</v>
@@ -1133,7 +1133,7 @@
         <v>2</v>
       </c>
       <c r="C35" t="n">
-        <v>6356.2707</v>
+        <v>39</v>
       </c>
       <c r="D35" t="n">
         <v>1</v>
@@ -1153,7 +1153,7 @@
         <v>2</v>
       </c>
       <c r="C36" t="n">
-        <v>24059.68019</v>
+        <v>19</v>
       </c>
       <c r="D36" t="n">
         <v>0</v>
@@ -1173,7 +1173,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>16450.8947</v>
+        <v>19</v>
       </c>
       <c r="D37" t="n">
         <v>1</v>
@@ -1193,7 +1193,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>12925.886</v>
+        <v>59</v>
       </c>
       <c r="D38" t="n">
         <v>1</v>
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="C39" t="n">
-        <v>36950.2567</v>
+        <v>30</v>
       </c>
       <c r="D39" t="n">
         <v>1</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>2459.7201</v>
+        <v>20</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>46889.2612</v>
+        <v>64</v>
       </c>
       <c r="D41" t="n">
         <v>1</v>
@@ -1273,7 +1273,7 @@
         <v>2</v>
       </c>
       <c r="C42" t="n">
-        <v>5124.1887</v>
+        <v>34</v>
       </c>
       <c r="D42" t="n">
         <v>1</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>14133.03775</v>
+        <v>18</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -1313,7 +1313,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>6414.178</v>
+        <v>35</v>
       </c>
       <c r="D44" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>1</v>
       </c>
       <c r="C45" t="n">
-        <v>1720.3537</v>
+        <v>18</v>
       </c>
       <c r="D45" t="n">
         <v>1</v>
@@ -1353,7 +1353,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>15817.9857</v>
+        <v>25</v>
       </c>
       <c r="D46" t="n">
         <v>1</v>
@@ -1373,7 +1373,7 @@
         <v>0</v>
       </c>
       <c r="C47" t="n">
-        <v>13462.52</v>
+        <v>62</v>
       </c>
       <c r="D47" t="n">
         <v>0</v>
@@ -1393,7 +1393,7 @@
         <v>1</v>
       </c>
       <c r="C48" t="n">
-        <v>2103.08</v>
+        <v>21</v>
       </c>
       <c r="D48" t="n">
         <v>1</v>
@@ -1413,7 +1413,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>12105.32</v>
+        <v>54</v>
       </c>
       <c r="D49" t="n">
         <v>0</v>
@@ -1433,7 +1433,7 @@
         <v>0</v>
       </c>
       <c r="C50" t="n">
-        <v>20781.48892</v>
+        <v>55</v>
       </c>
       <c r="D50" t="n">
         <v>1</v>
@@ -1453,7 +1453,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="n">
-        <v>12235.8392</v>
+        <v>58</v>
       </c>
       <c r="D51" t="n">
         <v>0</v>
@@ -1473,7 +1473,7 @@
         <v>3</v>
       </c>
       <c r="C52" t="n">
-        <v>41949.2441</v>
+        <v>38</v>
       </c>
       <c r="D52" t="n">
         <v>1</v>
@@ -1493,7 +1493,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>12643.3778</v>
+        <v>56</v>
       </c>
       <c r="D53" t="n">
         <v>0</v>
@@ -1513,7 +1513,7 @@
         <v>0</v>
       </c>
       <c r="C54" t="n">
-        <v>21223.6758</v>
+        <v>48</v>
       </c>
       <c r="D54" t="n">
         <v>1</v>
@@ -1533,7 +1533,7 @@
         <v>3</v>
       </c>
       <c r="C55" t="n">
-        <v>7954.517</v>
+        <v>41</v>
       </c>
       <c r="D55" t="n">
         <v>0</v>
@@ -1553,7 +1553,7 @@
         <v>3</v>
       </c>
       <c r="C56" t="n">
-        <v>15170.069</v>
+        <v>63</v>
       </c>
       <c r="D56" t="n">
         <v>1</v>
@@ -1573,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>3659.346</v>
+        <v>30</v>
       </c>
       <c r="D57" t="n">
         <v>1</v>
@@ -1593,7 +1593,7 @@
         <v>1</v>
       </c>
       <c r="C58" t="n">
-        <v>8232.638800000001</v>
+        <v>46</v>
       </c>
       <c r="D58" t="n">
         <v>0</v>
@@ -1613,7 +1613,7 @@
         <v>2</v>
       </c>
       <c r="C59" t="n">
-        <v>8027.968</v>
+        <v>45</v>
       </c>
       <c r="D59" t="n">
         <v>1</v>
@@ -1633,7 +1633,7 @@
         <v>3</v>
       </c>
       <c r="C60" t="n">
-        <v>13919.8229</v>
+        <v>60</v>
       </c>
       <c r="D60" t="n">
         <v>1</v>
@@ -1653,7 +1653,7 @@
         <v>1</v>
       </c>
       <c r="C61" t="n">
-        <v>10791.96</v>
+        <v>55</v>
       </c>
       <c r="D61" t="n">
         <v>1</v>
@@ -1673,7 +1673,7 @@
         <v>0</v>
       </c>
       <c r="C62" t="n">
-        <v>17878.90068</v>
+        <v>25</v>
       </c>
       <c r="D62" t="n">
         <v>0</v>
@@ -1693,7 +1693,7 @@
         <v>0</v>
       </c>
       <c r="C63" t="n">
-        <v>10601.412</v>
+        <v>56</v>
       </c>
       <c r="D63" t="n">
         <v>1</v>
@@ -1713,7 +1713,7 @@
         <v>0</v>
       </c>
       <c r="C64" t="n">
-        <v>13217.0945</v>
+        <v>60</v>
       </c>
       <c r="D64" t="n">
         <v>0</v>
@@ -1733,7 +1733,7 @@
         <v>0</v>
       </c>
       <c r="C65" t="n">
-        <v>11944.59435</v>
+        <v>58</v>
       </c>
       <c r="D65" t="n">
         <v>1</v>
@@ -1753,7 +1753,7 @@
         <v>1</v>
       </c>
       <c r="C66" t="n">
-        <v>14358.36437</v>
+        <v>34</v>
       </c>
       <c r="D66" t="n">
         <v>1</v>
@@ -1773,7 +1773,7 @@
         <v>0</v>
       </c>
       <c r="C67" t="n">
-        <v>32548.3405</v>
+        <v>19</v>
       </c>
       <c r="D67" t="n">
         <v>1</v>
@@ -1793,7 +1793,7 @@
         <v>0</v>
       </c>
       <c r="C68" t="n">
-        <v>5699.8375</v>
+        <v>41</v>
       </c>
       <c r="D68" t="n">
         <v>1</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="C69" t="n">
-        <v>2352.96845</v>
+        <v>24</v>
       </c>
       <c r="D69" t="n">
         <v>1</v>
@@ -1833,7 +1833,7 @@
         <v>2</v>
       </c>
       <c r="C70" t="n">
-        <v>4340.4409</v>
+        <v>28</v>
       </c>
       <c r="D70" t="n">
         <v>0</v>
@@ -1853,7 +1853,7 @@
         <v>1</v>
       </c>
       <c r="C71" t="n">
-        <v>9391.346</v>
+        <v>51</v>
       </c>
       <c r="D71" t="n">
         <v>1</v>
@@ -1873,7 +1873,7 @@
         <v>1</v>
       </c>
       <c r="C72" t="n">
-        <v>42211.1382</v>
+        <v>47</v>
       </c>
       <c r="D72" t="n">
         <v>1</v>
@@ -1893,7 +1893,7 @@
         <v>2</v>
       </c>
       <c r="C73" t="n">
-        <v>8823.279</v>
+        <v>46</v>
       </c>
       <c r="D73" t="n">
         <v>0</v>
@@ -1913,7 +1913,7 @@
         <v>0</v>
       </c>
       <c r="C74" t="n">
-        <v>14256.1928</v>
+        <v>63</v>
       </c>
       <c r="D74" t="n">
         <v>0</v>
@@ -1933,7 +1933,7 @@
         <v>2</v>
       </c>
       <c r="C75" t="n">
-        <v>7133.9025</v>
+        <v>38</v>
       </c>
       <c r="D75" t="n">
         <v>0</v>
@@ -1953,7 +1953,7 @@
         <v>3</v>
       </c>
       <c r="C76" t="n">
-        <v>5312.16985</v>
+        <v>28</v>
       </c>
       <c r="D76" t="n">
         <v>0</v>
@@ -1973,7 +1973,7 @@
         <v>3</v>
       </c>
       <c r="C77" t="n">
-        <v>3906.127</v>
+        <v>25</v>
       </c>
       <c r="D77" t="n">
         <v>1</v>
@@ -1993,7 +1993,7 @@
         <v>0</v>
       </c>
       <c r="C78" t="n">
-        <v>2203.47185</v>
+        <v>18</v>
       </c>
       <c r="D78" t="n">
         <v>0</v>
@@ -2013,7 +2013,7 @@
         <v>1</v>
       </c>
       <c r="C79" t="n">
-        <v>28340.18885</v>
+        <v>45</v>
       </c>
       <c r="D79" t="n">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>1</v>
       </c>
       <c r="C80" t="n">
-        <v>5484.4673</v>
+        <v>38</v>
       </c>
       <c r="D80" t="n">
         <v>1</v>
@@ -2053,7 +2053,7 @@
         <v>0</v>
       </c>
       <c r="C81" t="n">
-        <v>1622.1885</v>
+        <v>18</v>
       </c>
       <c r="D81" t="n">
         <v>0</v>
@@ -2073,7 +2073,7 @@
         <v>4</v>
       </c>
       <c r="C82" t="n">
-        <v>11299.343</v>
+        <v>50</v>
       </c>
       <c r="D82" t="n">
         <v>0</v>
@@ -2093,7 +2093,7 @@
         <v>0</v>
       </c>
       <c r="C83" t="n">
-        <v>8026.6666</v>
+        <v>46</v>
       </c>
       <c r="D83" t="n">
         <v>0</v>
@@ -2113,7 +2113,7 @@
         <v>2</v>
       </c>
       <c r="C84" t="n">
-        <v>11737.84884</v>
+        <v>34</v>
       </c>
       <c r="D84" t="n">
         <v>1</v>
@@ -2133,7 +2133,7 @@
         <v>2</v>
       </c>
       <c r="C85" t="n">
-        <v>2913.569</v>
+        <v>19</v>
       </c>
       <c r="D85" t="n">
         <v>0</v>
@@ -2153,7 +2153,7 @@
         <v>1</v>
       </c>
       <c r="C86" t="n">
-        <v>9861.025</v>
+        <v>51</v>
       </c>
       <c r="D86" t="n">
         <v>0</v>
@@ -2173,7 +2173,7 @@
         <v>0</v>
       </c>
       <c r="C87" t="n">
-        <v>2473.3341</v>
+        <v>24</v>
       </c>
       <c r="D87" t="n">
         <v>0</v>
@@ -2193,7 +2193,7 @@
         <v>3</v>
       </c>
       <c r="C88" t="n">
-        <v>39983.42595</v>
+        <v>35</v>
       </c>
       <c r="D88" t="n">
         <v>0</v>
@@ -2213,7 +2213,7 @@
         <v>0</v>
       </c>
       <c r="C89" t="n">
-        <v>36307.7983</v>
+        <v>18</v>
       </c>
       <c r="D89" t="n">
         <v>1</v>
@@ -2233,7 +2233,7 @@
         <v>0</v>
       </c>
       <c r="C90" t="n">
-        <v>44400.4064</v>
+        <v>51</v>
       </c>
       <c r="D90" t="n">
         <v>0</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="C91" t="n">
-        <v>3172.018</v>
+        <v>28</v>
       </c>
       <c r="D91" t="n">
         <v>0</v>
@@ -2273,7 +2273,7 @@
         <v>1</v>
       </c>
       <c r="C92" t="n">
-        <v>7742.1098</v>
+        <v>46</v>
       </c>
       <c r="D92" t="n">
         <v>1</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="C93" t="n">
-        <v>6185.3208</v>
+        <v>41</v>
       </c>
       <c r="D93" t="n">
         <v>0</v>
@@ -2313,7 +2313,7 @@
         <v>0</v>
       </c>
       <c r="C94" t="n">
-        <v>1880.487</v>
+        <v>20</v>
       </c>
       <c r="D94" t="n">
         <v>0</v>
@@ -2333,7 +2333,7 @@
         <v>1</v>
       </c>
       <c r="C95" t="n">
-        <v>21771.3423</v>
+        <v>43</v>
       </c>
       <c r="D95" t="n">
         <v>0</v>
@@ -2353,7 +2353,7 @@
         <v>1</v>
       </c>
       <c r="C96" t="n">
-        <v>6858.4796</v>
+        <v>41</v>
       </c>
       <c r="D96" t="n">
         <v>1</v>
@@ -2373,7 +2373,7 @@
         <v>1</v>
       </c>
       <c r="C97" t="n">
-        <v>17179.522</v>
+        <v>40</v>
       </c>
       <c r="D97" t="n">
         <v>1</v>
@@ -2393,7 +2393,7 @@
         <v>2</v>
       </c>
       <c r="C98" t="n">
-        <v>42760.5022</v>
+        <v>45</v>
       </c>
       <c r="D98" t="n">
         <v>1</v>
@@ -2413,7 +2413,7 @@
         <v>1</v>
       </c>
       <c r="C99" t="n">
-        <v>5478.0368</v>
+        <v>36</v>
       </c>
       <c r="D99" t="n">
         <v>0</v>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
       <c r="C100" t="n">
-        <v>12638.195</v>
+        <v>60</v>
       </c>
       <c r="D100" t="n">
         <v>0</v>
@@ -2453,7 +2453,7 @@
         <v>2</v>
       </c>
       <c r="C101" t="n">
-        <v>5989.52365</v>
+        <v>34</v>
       </c>
       <c r="D101" t="n">
         <v>0</v>
@@ -2473,7 +2473,7 @@
         <v>1</v>
       </c>
       <c r="C102" t="n">
-        <v>9566.990900000001</v>
+        <v>49</v>
       </c>
       <c r="D102" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>2</v>
       </c>
       <c r="C103" t="n">
-        <v>10370.91255</v>
+        <v>49</v>
       </c>
       <c r="D103" t="n">
         <v>0</v>
@@ -2513,7 +2513,7 @@
         <v>1</v>
       </c>
       <c r="C104" t="n">
-        <v>19594.80965</v>
+        <v>44</v>
       </c>
       <c r="D104" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>1</v>
       </c>
       <c r="C105" t="n">
-        <v>11576.13</v>
+        <v>57</v>
       </c>
       <c r="D105" t="n">
         <v>1</v>
@@ -2553,7 +2553,7 @@
         <v>3</v>
       </c>
       <c r="C106" t="n">
-        <v>6360.9936</v>
+        <v>33</v>
       </c>
       <c r="D106" t="n">
         <v>0</v>
@@ -2573,7 +2573,7 @@
         <v>1</v>
       </c>
       <c r="C107" t="n">
-        <v>4032.2407</v>
+        <v>30</v>
       </c>
       <c r="D107" t="n">
         <v>1</v>
@@ -2593,7 +2593,7 @@
         <v>1</v>
       </c>
       <c r="C108" t="n">
-        <v>2585.269</v>
+        <v>21</v>
       </c>
       <c r="D108" t="n">
         <v>0</v>
@@ -2613,7 +2613,7 @@
         <v>0</v>
       </c>
       <c r="C109" t="n">
-        <v>11658.37915</v>
+        <v>56</v>
       </c>
       <c r="D109" t="n">
         <v>0</v>
@@ -2633,7 +2633,7 @@
         <v>1</v>
       </c>
       <c r="C110" t="n">
-        <v>21082.16</v>
+        <v>39</v>
       </c>
       <c r="D110" t="n">
         <v>1</v>
@@ -2653,7 +2653,7 @@
         <v>1</v>
       </c>
       <c r="C111" t="n">
-        <v>10807.4863</v>
+        <v>55</v>
       </c>
       <c r="D111" t="n">
         <v>1</v>
@@ -2673,7 +2673,7 @@
         <v>1</v>
       </c>
       <c r="C112" t="n">
-        <v>9724.530000000001</v>
+        <v>52</v>
       </c>
       <c r="D112" t="n">
         <v>1</v>
@@ -2693,7 +2693,7 @@
         <v>0</v>
       </c>
       <c r="C113" t="n">
-        <v>3201.24515</v>
+        <v>26</v>
       </c>
       <c r="D113" t="n">
         <v>0</v>
@@ -2713,7 +2713,7 @@
         <v>1</v>
       </c>
       <c r="C114" t="n">
-        <v>3309.7926</v>
+        <v>25</v>
       </c>
       <c r="D114" t="n">
         <v>1</v>
@@ -2733,7 +2733,7 @@
         <v>0</v>
       </c>
       <c r="C115" t="n">
-        <v>5969.723</v>
+        <v>42</v>
       </c>
       <c r="D115" t="n">
         <v>1</v>
@@ -2753,7 +2753,7 @@
         <v>0</v>
       </c>
       <c r="C116" t="n">
-        <v>8269.044</v>
+        <v>48</v>
       </c>
       <c r="D116" t="n">
         <v>0</v>
@@ -2773,7 +2773,7 @@
         <v>3</v>
       </c>
       <c r="C117" t="n">
-        <v>9414.92</v>
+        <v>46</v>
       </c>
       <c r="D117" t="n">
         <v>0</v>
@@ -2793,7 +2793,7 @@
         <v>2</v>
       </c>
       <c r="C118" t="n">
-        <v>23967.38305</v>
+        <v>51</v>
       </c>
       <c r="D118" t="n">
         <v>1</v>
@@ -2813,7 +2813,7 @@
         <v>1</v>
       </c>
       <c r="C119" t="n">
-        <v>47928.03</v>
+        <v>64</v>
       </c>
       <c r="D119" t="n">
         <v>0</v>
@@ -2833,7 +2833,7 @@
         <v>0</v>
       </c>
       <c r="C120" t="n">
-        <v>11842.442</v>
+        <v>58</v>
       </c>
       <c r="D120" t="n">
         <v>0</v>
@@ -2853,7 +2853,7 @@
         <v>0</v>
       </c>
       <c r="C121" t="n">
-        <v>7421.19455</v>
+        <v>44</v>
       </c>
       <c r="D121" t="n">
         <v>0</v>
@@ -2873,7 +2873,7 @@
         <v>0</v>
       </c>
       <c r="C122" t="n">
-        <v>12950.0712</v>
+        <v>61</v>
       </c>
       <c r="D122" t="n">
         <v>1</v>
@@ -2893,7 +2893,7 @@
         <v>4</v>
       </c>
       <c r="C123" t="n">
-        <v>11033.6617</v>
+        <v>48</v>
       </c>
       <c r="D123" t="n">
         <v>0</v>
@@ -2913,7 +2913,7 @@
         <v>2</v>
       </c>
       <c r="C124" t="n">
-        <v>6082.405</v>
+        <v>38</v>
       </c>
       <c r="D124" t="n">
         <v>1</v>
@@ -2933,7 +2933,7 @@
         <v>0</v>
       </c>
       <c r="C125" t="n">
-        <v>3989.841</v>
+        <v>32</v>
       </c>
       <c r="D125" t="n">
         <v>0</v>
@@ -2953,7 +2953,7 @@
         <v>3</v>
       </c>
       <c r="C126" t="n">
-        <v>7537.1639</v>
+        <v>38</v>
       </c>
       <c r="D126" t="n">
         <v>0</v>
@@ -2973,7 +2973,7 @@
         <v>2</v>
       </c>
       <c r="C127" t="n">
-        <v>3484.331</v>
+        <v>26</v>
       </c>
       <c r="D127" t="n">
         <v>1</v>
@@ -2993,7 +2993,7 @@
         <v>0</v>
       </c>
       <c r="C128" t="n">
-        <v>8116.68</v>
+        <v>49</v>
       </c>
       <c r="D128" t="n">
         <v>1</v>
@@ -3013,7 +3013,7 @@
         <v>1</v>
       </c>
       <c r="C129" t="n">
-        <v>17626.23951</v>
+        <v>32</v>
       </c>
       <c r="D129" t="n">
         <v>0</v>
@@ -3033,7 +3033,7 @@
         <v>0</v>
       </c>
       <c r="C130" t="n">
-        <v>11837.16</v>
+        <v>58</v>
       </c>
       <c r="D130" t="n">
         <v>0</v>
@@ -3053,7 +3053,7 @@
         <v>0</v>
       </c>
       <c r="C131" t="n">
-        <v>9541.69555</v>
+        <v>50</v>
       </c>
       <c r="D131" t="n">
         <v>0</v>
@@ -3073,7 +3073,7 @@
         <v>0</v>
       </c>
       <c r="C132" t="n">
-        <v>4399.731</v>
+        <v>36</v>
       </c>
       <c r="D132" t="n">
         <v>1</v>
@@ -3093,7 +3093,7 @@
         <v>0</v>
       </c>
       <c r="C133" t="n">
-        <v>2200.83085</v>
+        <v>18</v>
       </c>
       <c r="D133" t="n">
         <v>0</v>
@@ -3113,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="C134" t="n">
-        <v>11363.2832</v>
+        <v>58</v>
       </c>
       <c r="D134" t="n">
         <v>1</v>
@@ -3133,7 +3133,7 @@
         <v>1</v>
       </c>
       <c r="C135" t="n">
-        <v>1964.78</v>
+        <v>20</v>
       </c>
       <c r="D135" t="n">
         <v>1</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="C136" t="n">
-        <v>13429.0354</v>
+        <v>61</v>
       </c>
       <c r="D136" t="n">
         <v>0</v>
@@ -3173,7 +3173,7 @@
         <v>0</v>
       </c>
       <c r="C137" t="n">
-        <v>24603.04837</v>
+        <v>46</v>
       </c>
       <c r="D137" t="n">
         <v>1</v>
@@ -3193,7 +3193,7 @@
         <v>3</v>
       </c>
       <c r="C138" t="n">
-        <v>27322.73386</v>
+        <v>54</v>
       </c>
       <c r="D138" t="n">
         <v>0</v>
@@ -3213,7 +3213,7 @@
         <v>0</v>
       </c>
       <c r="C139" t="n">
-        <v>42303.69215</v>
+        <v>55</v>
       </c>
       <c r="D139" t="n">
         <v>1</v>
@@ -3233,7 +3233,7 @@
         <v>2</v>
       </c>
       <c r="C140" t="n">
-        <v>42112.2356</v>
+        <v>25</v>
       </c>
       <c r="D140" t="n">
         <v>1</v>
@@ -3253,7 +3253,7 @@
         <v>0</v>
       </c>
       <c r="C141" t="n">
-        <v>41676.0811</v>
+        <v>47</v>
       </c>
       <c r="D141" t="n">
         <v>1</v>
@@ -3273,7 +3273,7 @@
         <v>1</v>
       </c>
       <c r="C142" t="n">
-        <v>4562.8421</v>
+        <v>32</v>
       </c>
       <c r="D142" t="n">
         <v>0</v>
@@ -3293,7 +3293,7 @@
         <v>1</v>
       </c>
       <c r="C143" t="n">
-        <v>3490.5491</v>
+        <v>26</v>
       </c>
       <c r="D143" t="n">
         <v>1</v>
@@ -3313,7 +3313,7 @@
         <v>3</v>
       </c>
       <c r="C144" t="n">
-        <v>12485.8009</v>
+        <v>55</v>
       </c>
       <c r="D144" t="n">
         <v>0</v>
@@ -3333,7 +3333,7 @@
         <v>3</v>
       </c>
       <c r="C145" t="n">
-        <v>6748.5912</v>
+        <v>36</v>
       </c>
       <c r="D145" t="n">
         <v>1</v>
@@ -3353,7 +3353,7 @@
         <v>0</v>
       </c>
       <c r="C146" t="n">
-        <v>45863.205</v>
+        <v>43</v>
       </c>
       <c r="D146" t="n">
         <v>0</v>
@@ -3373,7 +3373,7 @@
         <v>0</v>
       </c>
       <c r="C147" t="n">
-        <v>2166.732</v>
+        <v>22</v>
       </c>
       <c r="D147" t="n">
         <v>0</v>
@@ -3393,7 +3393,7 @@
         <v>2</v>
       </c>
       <c r="C148" t="n">
-        <v>6457.8434</v>
+        <v>38</v>
       </c>
       <c r="D148" t="n">
         <v>1</v>
@@ -3413,7 +3413,7 @@
         <v>3</v>
       </c>
       <c r="C149" t="n">
-        <v>12094.478</v>
+        <v>54</v>
       </c>
       <c r="D149" t="n">
         <v>0</v>
@@ -3433,7 +3433,7 @@
         <v>0</v>
       </c>
       <c r="C150" t="n">
-        <v>19515.5416</v>
+        <v>42</v>
       </c>
       <c r="D150" t="n">
         <v>1</v>
@@ -3453,7 +3453,7 @@
         <v>5</v>
       </c>
       <c r="C151" t="n">
-        <v>4915.05985</v>
+        <v>20</v>
       </c>
       <c r="D151" t="n">
         <v>1</v>
@@ -3473,7 +3473,7 @@
         <v>0</v>
       </c>
       <c r="C152" t="n">
-        <v>2523.1695</v>
+        <v>25</v>
       </c>
       <c r="D152" t="n">
         <v>1</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="C153" t="n">
-        <v>11566.30055</v>
+        <v>57</v>
       </c>
       <c r="D153" t="n">
         <v>1</v>
@@ -3513,7 +3513,7 @@
         <v>2</v>
       </c>
       <c r="C154" t="n">
-        <v>23241.47453</v>
+        <v>25</v>
       </c>
       <c r="D154" t="n">
         <v>1</v>
@@ -3533,7 +3533,7 @@
         <v>1</v>
       </c>
       <c r="C155" t="n">
-        <v>4074.4537</v>
+        <v>32</v>
       </c>
       <c r="D155" t="n">
         <v>1</v>
@@ -3553,7 +3553,7 @@
         <v>1</v>
       </c>
       <c r="C156" t="n">
-        <v>6600.20595</v>
+        <v>40</v>
       </c>
       <c r="D156" t="n">
         <v>1</v>
@@ -3573,7 +3573,7 @@
         <v>0</v>
       </c>
       <c r="C157" t="n">
-        <v>1242.816</v>
+        <v>19</v>
       </c>
       <c r="D157" t="n">
         <v>1</v>
@@ -3593,7 +3593,7 @@
         <v>3</v>
       </c>
       <c r="C158" t="n">
-        <v>19361.9988</v>
+        <v>35</v>
       </c>
       <c r="D158" t="n">
         <v>1</v>
@@ -3613,7 +3613,7 @@
         <v>2</v>
       </c>
       <c r="C159" t="n">
-        <v>8603.823399999999</v>
+        <v>45</v>
       </c>
       <c r="D159" t="n">
         <v>1</v>
@@ -3633,7 +3633,7 @@
         <v>3</v>
       </c>
       <c r="C160" t="n">
-        <v>5972.378</v>
+        <v>33</v>
       </c>
       <c r="D160" t="n">
         <v>0</v>
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="C161" t="n">
-        <v>3171.6149</v>
+        <v>28</v>
       </c>
       <c r="D161" t="n">
         <v>0</v>
@@ -3673,7 +3673,7 @@
         <v>2</v>
       </c>
       <c r="C162" t="n">
-        <v>5375.038</v>
+        <v>33</v>
       </c>
       <c r="D162" t="n">
         <v>0</v>
@@ -3693,7 +3693,7 @@
         <v>2</v>
       </c>
       <c r="C163" t="n">
-        <v>12629.1656</v>
+        <v>57</v>
       </c>
       <c r="D163" t="n">
         <v>0</v>
@@ -3713,7 +3713,7 @@
         <v>1</v>
       </c>
       <c r="C164" t="n">
-        <v>19040.876</v>
+        <v>33</v>
       </c>
       <c r="D164" t="n">
         <v>1</v>
@@ -3733,7 +3733,7 @@
         <v>2</v>
       </c>
       <c r="C165" t="n">
-        <v>8219.2039</v>
+        <v>44</v>
       </c>
       <c r="D165" t="n">
         <v>0</v>
@@ -3753,7 +3753,7 @@
         <v>0</v>
       </c>
       <c r="C166" t="n">
-        <v>7348.142</v>
+        <v>45</v>
       </c>
       <c r="D166" t="n">
         <v>0</v>
@@ -3773,7 +3773,7 @@
         <v>0</v>
       </c>
       <c r="C167" t="n">
-        <v>4347.02335</v>
+        <v>31</v>
       </c>
       <c r="D167" t="n">
         <v>0</v>
@@ -3793,7 +3793,7 @@
         <v>3</v>
       </c>
       <c r="C168" t="n">
-        <v>6753.038</v>
+        <v>34</v>
       </c>
       <c r="D168" t="n">
         <v>0</v>
@@ -3813,7 +3813,7 @@
         <v>0</v>
       </c>
       <c r="C169" t="n">
-        <v>2457.502</v>
+        <v>24</v>
       </c>
       <c r="D169" t="n">
         <v>0</v>
@@ -3833,7 +3833,7 @@
         <v>1</v>
       </c>
       <c r="C170" t="n">
-        <v>5976.8311</v>
+        <v>38</v>
       </c>
       <c r="D170" t="n">
         <v>0</v>
@@ -3853,7 +3853,7 @@
         <v>2</v>
       </c>
       <c r="C171" t="n">
-        <v>18806.14547</v>
+        <v>43</v>
       </c>
       <c r="D171" t="n">
         <v>1</v>
@@ -3873,7 +3873,7 @@
         <v>0</v>
       </c>
       <c r="C172" t="n">
-        <v>11070.535</v>
+        <v>56</v>
       </c>
       <c r="D172" t="n">
         <v>0</v>
@@ -3893,7 +3893,7 @@
         <v>1</v>
       </c>
       <c r="C173" t="n">
-        <v>10065.413</v>
+        <v>53</v>
       </c>
       <c r="D173" t="n">
         <v>1</v>
@@ -3913,7 +3913,7 @@
         <v>4</v>
       </c>
       <c r="C174" t="n">
-        <v>24671.66334</v>
+        <v>26</v>
       </c>
       <c r="D174" t="n">
         <v>0</v>
@@ -3933,7 +3933,7 @@
         <v>0</v>
       </c>
       <c r="C175" t="n">
-        <v>1824.2854</v>
+        <v>23</v>
       </c>
       <c r="D175" t="n">
         <v>1</v>
@@ -3953,7 +3953,7 @@
         <v>0</v>
       </c>
       <c r="C176" t="n">
-        <v>7325.0482</v>
+        <v>43</v>
       </c>
       <c r="D176" t="n">
         <v>0</v>
@@ -3973,7 +3973,7 @@
         <v>2</v>
       </c>
       <c r="C177" t="n">
-        <v>40103.89</v>
+        <v>39</v>
       </c>
       <c r="D177" t="n">
         <v>1</v>
@@ -3993,7 +3993,7 @@
         <v>1</v>
       </c>
       <c r="C178" t="n">
-        <v>39725.51805</v>
+        <v>45</v>
       </c>
       <c r="D178" t="n">
         <v>0</v>
@@ -4013,7 +4013,7 @@
         <v>0</v>
       </c>
       <c r="C179" t="n">
-        <v>1748.774</v>
+        <v>19</v>
       </c>
       <c r="D179" t="n">
         <v>0</v>
@@ -4033,7 +4033,7 @@
         <v>0</v>
       </c>
       <c r="C180" t="n">
-        <v>48173.361</v>
+        <v>60</v>
       </c>
       <c r="D180" t="n">
         <v>1</v>
@@ -4053,7 +4053,7 @@
         <v>0</v>
       </c>
       <c r="C181" t="n">
-        <v>35585.576</v>
+        <v>22</v>
       </c>
       <c r="D181" t="n">
         <v>1</v>
@@ -4073,7 +4073,7 @@
         <v>1</v>
       </c>
       <c r="C182" t="n">
-        <v>35160.13457</v>
+        <v>55</v>
       </c>
       <c r="D182" t="n">
         <v>0</v>
@@ -4093,7 +4093,7 @@
         <v>0</v>
       </c>
       <c r="C183" t="n">
-        <v>1263.249</v>
+        <v>19</v>
       </c>
       <c r="D183" t="n">
         <v>1</v>
@@ -4113,7 +4113,7 @@
         <v>0</v>
       </c>
       <c r="C184" t="n">
-        <v>12982.8747</v>
+        <v>62</v>
       </c>
       <c r="D184" t="n">
         <v>1</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="C185" t="n">
-        <v>1261.442</v>
+        <v>19</v>
       </c>
       <c r="D185" t="n">
         <v>1</v>
@@ -4153,7 +4153,7 @@
         <v>0</v>
       </c>
       <c r="C186" t="n">
-        <v>8444.474</v>
+        <v>50</v>
       </c>
       <c r="D186" t="n">
         <v>1</v>
@@ -4173,7 +4173,7 @@
         <v>2</v>
       </c>
       <c r="C187" t="n">
-        <v>36124.5737</v>
+        <v>25</v>
       </c>
       <c r="D187" t="n">
         <v>1</v>
@@ -4193,7 +4193,7 @@
         <v>3</v>
       </c>
       <c r="C188" t="n">
-        <v>15161.5344</v>
+        <v>63</v>
       </c>
       <c r="D188" t="n">
         <v>1</v>
@@ -4213,7 +4213,7 @@
         <v>3</v>
       </c>
       <c r="C189" t="n">
-        <v>10600.5483</v>
+        <v>50</v>
       </c>
       <c r="D189" t="n">
         <v>1</v>
@@ -4233,7 +4233,7 @@
         <v>1</v>
       </c>
       <c r="C190" t="n">
-        <v>6393.60345</v>
+        <v>40</v>
       </c>
       <c r="D190" t="n">
         <v>1</v>
@@ -4253,7 +4253,7 @@
         <v>0</v>
       </c>
       <c r="C191" t="n">
-        <v>12129.61415</v>
+        <v>59</v>
       </c>
       <c r="D191" t="n">
         <v>1</v>
@@ -4273,7 +4273,7 @@
         <v>2</v>
       </c>
       <c r="C192" t="n">
-        <v>22395.74424</v>
+        <v>23</v>
       </c>
       <c r="D192" t="n">
         <v>0</v>
@@ -4293,7 +4293,7 @@
         <v>2</v>
       </c>
       <c r="C193" t="n">
-        <v>8733.22925</v>
+        <v>46</v>
       </c>
       <c r="D193" t="n">
         <v>1</v>
@@ -4313,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="C194" t="n">
-        <v>21984.47061</v>
+        <v>33</v>
       </c>
       <c r="D194" t="n">
         <v>1</v>
@@ -4333,7 +4333,7 @@
         <v>2</v>
       </c>
       <c r="C195" t="n">
-        <v>11881.358</v>
+        <v>55</v>
       </c>
       <c r="D195" t="n">
         <v>0</v>
@@ -4353,7 +4353,7 @@
         <v>1</v>
       </c>
       <c r="C196" t="n">
-        <v>9910.359850000001</v>
+        <v>50</v>
       </c>
       <c r="D196" t="n">
         <v>0</v>
@@ -4373,7 +4373,7 @@
         <v>3</v>
       </c>
       <c r="C197" t="n">
-        <v>7228.21565</v>
+        <v>36</v>
       </c>
       <c r="D197" t="n">
         <v>0</v>
@@ -4393,7 +4393,7 @@
         <v>1</v>
       </c>
       <c r="C198" t="n">
-        <v>2438.0552</v>
+        <v>23</v>
       </c>
       <c r="D198" t="n">
         <v>1</v>
@@ -4413,7 +4413,7 @@
         <v>0</v>
       </c>
       <c r="C199" t="n">
-        <v>4357.04365</v>
+        <v>32</v>
       </c>
       <c r="D199" t="n">
         <v>0</v>
@@ -4433,7 +4433,7 @@
         <v>3</v>
       </c>
       <c r="C200" t="n">
-        <v>8410.046850000001</v>
+        <v>43</v>
       </c>
       <c r="D200" t="n">
         <v>1</v>
@@ -4453,7 +4453,7 @@
         <v>1</v>
       </c>
       <c r="C201" t="n">
-        <v>5488.262</v>
+        <v>38</v>
       </c>
       <c r="D201" t="n">
         <v>1</v>
@@ -4473,7 +4473,7 @@
         <v>3</v>
       </c>
       <c r="C202" t="n">
-        <v>21659.9301</v>
+        <v>39</v>
       </c>
       <c r="D202" t="n">
         <v>0</v>
@@ -4493,7 +4493,7 @@
         <v>2</v>
       </c>
       <c r="C203" t="n">
-        <v>12269.68865</v>
+        <v>55</v>
       </c>
       <c r="D203" t="n">
         <v>0</v>
@@ -4513,7 +4513,7 @@
         <v>0</v>
       </c>
       <c r="C204" t="n">
-        <v>1769.53165</v>
+        <v>20</v>
       </c>
       <c r="D204" t="n">
         <v>1</v>
@@ -4533,7 +4533,7 @@
         <v>3</v>
       </c>
       <c r="C205" t="n">
-        <v>39597.4072</v>
+        <v>41</v>
       </c>
       <c r="D205" t="n">
         <v>1</v>
@@ -4553,7 +4553,7 @@
         <v>0</v>
       </c>
       <c r="C206" t="n">
-        <v>34838.873</v>
+        <v>27</v>
       </c>
       <c r="D206" t="n">
         <v>0</v>
@@ -4573,7 +4573,7 @@
         <v>0</v>
       </c>
       <c r="C207" t="n">
-        <v>2897.3235</v>
+        <v>26</v>
       </c>
       <c r="D207" t="n">
         <v>1</v>
@@ -4593,7 +4593,7 @@
         <v>0</v>
       </c>
       <c r="C208" t="n">
-        <v>1149.3959</v>
+        <v>18</v>
       </c>
       <c r="D208" t="n">
         <v>1</v>
@@ -4613,7 +4613,7 @@
         <v>5</v>
       </c>
       <c r="C209" t="n">
-        <v>19023.26</v>
+        <v>39</v>
       </c>
       <c r="D209" t="n">
         <v>0</v>
@@ -4633,7 +4633,7 @@
         <v>1</v>
       </c>
       <c r="C210" t="n">
-        <v>4667.60765</v>
+        <v>32</v>
       </c>
       <c r="D210" t="n">
         <v>1</v>
@@ -4653,7 +4653,7 @@
         <v>1</v>
       </c>
       <c r="C211" t="n">
-        <v>11945.1327</v>
+        <v>57</v>
       </c>
       <c r="D211" t="n">
         <v>1</v>
@@ -4673,7 +4673,7 @@
         <v>3</v>
       </c>
       <c r="C212" t="n">
-        <v>12479.70895</v>
+        <v>54</v>
       </c>
       <c r="D212" t="n">
         <v>0</v>
@@ -4693,7 +4693,7 @@
         <v>0</v>
       </c>
       <c r="C213" t="n">
-        <v>3756.6216</v>
+        <v>31</v>
       </c>
       <c r="D213" t="n">
         <v>0</v>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="C214" t="n">
-        <v>6186.127</v>
+        <v>41</v>
       </c>
       <c r="D214" t="n">
         <v>0</v>
@@ -4733,7 +4733,7 @@
         <v>2</v>
       </c>
       <c r="C215" t="n">
-        <v>8968.33</v>
+        <v>48</v>
       </c>
       <c r="D215" t="n">
         <v>1</v>
@@ -4753,7 +4753,7 @@
         <v>0</v>
       </c>
       <c r="C216" t="n">
-        <v>1917.3184</v>
+        <v>21</v>
       </c>
       <c r="D216" t="n">
         <v>1</v>
@@ -4773,7 +4773,7 @@
         <v>0</v>
       </c>
       <c r="C217" t="n">
-        <v>1977.815</v>
+        <v>24</v>
       </c>
       <c r="D217" t="n">
         <v>1</v>
@@ -4793,7 +4793,7 @@
         <v>3</v>
       </c>
       <c r="C218" t="n">
-        <v>4466.6214</v>
+        <v>23</v>
       </c>
       <c r="D218" t="n">
         <v>0</v>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="C219" t="n">
-        <v>2136.88225</v>
+        <v>19</v>
       </c>
       <c r="D219" t="n">
         <v>0</v>
@@ -4833,7 +4833,7 @@
         <v>0</v>
       </c>
       <c r="C220" t="n">
-        <v>2727.3951</v>
+        <v>25</v>
       </c>
       <c r="D220" t="n">
         <v>1</v>
@@ -4853,7 +4853,7 @@
         <v>3</v>
       </c>
       <c r="C221" t="n">
-        <v>24915.22085</v>
+        <v>47</v>
       </c>
       <c r="D221" t="n">
         <v>1</v>
@@ -4873,7 +4873,7 @@
         <v>0</v>
       </c>
       <c r="C222" t="n">
-        <v>12797.20962</v>
+        <v>44</v>
       </c>
       <c r="D222" t="n">
         <v>0</v>
@@ -4893,7 +4893,7 @@
         <v>4</v>
       </c>
       <c r="C223" t="n">
-        <v>40182.246</v>
+        <v>37</v>
       </c>
       <c r="D223" t="n">
         <v>1</v>
@@ -4913,7 +4913,7 @@
         <v>0</v>
       </c>
       <c r="C224" t="n">
-        <v>33907.548</v>
+        <v>22</v>
       </c>
       <c r="D224" t="n">
         <v>0</v>
@@ -4933,7 +4933,7 @@
         <v>0</v>
       </c>
       <c r="C225" t="n">
-        <v>12574.049</v>
+        <v>61</v>
       </c>
       <c r="D225" t="n">
         <v>1</v>
@@ -4953,7 +4953,7 @@
         <v>0</v>
       </c>
       <c r="C226" t="n">
-        <v>24227.33724</v>
+        <v>58</v>
       </c>
       <c r="D226" t="n">
         <v>0</v>
@@ -4973,7 +4973,7 @@
         <v>2</v>
       </c>
       <c r="C227" t="n">
-        <v>4433.3877</v>
+        <v>29</v>
       </c>
       <c r="D227" t="n">
         <v>1</v>
@@ -4993,7 +4993,7 @@
         <v>1</v>
       </c>
       <c r="C228" t="n">
-        <v>10579.711</v>
+        <v>53</v>
       </c>
       <c r="D228" t="n">
         <v>0</v>
@@ -5013,7 +5013,7 @@
         <v>2</v>
       </c>
       <c r="C229" t="n">
-        <v>7160.094</v>
+        <v>42</v>
       </c>
       <c r="D229" t="n">
         <v>1</v>
@@ -5033,7 +5033,7 @@
         <v>2</v>
       </c>
       <c r="C230" t="n">
-        <v>11187.6567</v>
+        <v>52</v>
       </c>
       <c r="D230" t="n">
         <v>0</v>
@@ -5053,7 +5053,7 @@
         <v>2</v>
       </c>
       <c r="C231" t="n">
-        <v>14235.072</v>
+        <v>61</v>
       </c>
       <c r="D231" t="n">
         <v>0</v>
@@ -5073,7 +5073,7 @@
         <v>0</v>
       </c>
       <c r="C232" t="n">
-        <v>10072.05505</v>
+        <v>53</v>
       </c>
       <c r="D232" t="n">
         <v>1</v>
@@ -5093,7 +5093,7 @@
         <v>1</v>
       </c>
       <c r="C233" t="n">
-        <v>6389.37785</v>
+        <v>40</v>
       </c>
       <c r="D233" t="n">
         <v>1</v>
@@ -5113,7 +5113,7 @@
         <v>0</v>
       </c>
       <c r="C234" t="n">
-        <v>9875.680399999999</v>
+        <v>51</v>
       </c>
       <c r="D234" t="n">
         <v>0</v>
@@ -5133,7 +5133,7 @@
         <v>4</v>
       </c>
       <c r="C235" t="n">
-        <v>8162.71625</v>
+        <v>40</v>
       </c>
       <c r="D235" t="n">
         <v>1</v>
@@ -5153,7 +5153,7 @@
         <v>0</v>
       </c>
       <c r="C236" t="n">
-        <v>1826.843</v>
+        <v>23</v>
       </c>
       <c r="D236" t="n">
         <v>1</v>
@@ -5173,7 +5173,7 @@
         <v>1</v>
       </c>
       <c r="C237" t="n">
-        <v>10085.846</v>
+        <v>53</v>
       </c>
       <c r="D237" t="n">
         <v>1</v>
@@ -5193,7 +5193,7 @@
         <v>0</v>
       </c>
       <c r="C238" t="n">
-        <v>4571.41305</v>
+        <v>33</v>
       </c>
       <c r="D238" t="n">
         <v>0</v>
@@ -5213,7 +5213,7 @@
         <v>1</v>
       </c>
       <c r="C239" t="n">
-        <v>9249.495199999999</v>
+        <v>48</v>
       </c>
       <c r="D239" t="n">
         <v>0</v>
@@ -5233,7 +5233,7 @@
         <v>1</v>
       </c>
       <c r="C240" t="n">
-        <v>31620.00106</v>
+        <v>62</v>
       </c>
       <c r="D240" t="n">
         <v>0</v>
@@ -5253,7 +5253,7 @@
         <v>0</v>
       </c>
       <c r="C241" t="n">
-        <v>1708.0014</v>
+        <v>18</v>
       </c>
       <c r="D241" t="n">
         <v>1</v>
@@ -5273,7 +5273,7 @@
         <v>0</v>
       </c>
       <c r="C242" t="n">
-        <v>9487.644200000001</v>
+        <v>53</v>
       </c>
       <c r="D242" t="n">
         <v>1</v>
@@ -5293,7 +5293,7 @@
         <v>3</v>
       </c>
       <c r="C243" t="n">
-        <v>18223.4512</v>
+        <v>18</v>
       </c>
       <c r="D243" t="n">
         <v>0</v>
@@ -5313,7 +5313,7 @@
         <v>0</v>
       </c>
       <c r="C244" t="n">
-        <v>12523.6048</v>
+        <v>60</v>
       </c>
       <c r="D244" t="n">
         <v>1</v>
@@ -5333,7 +5333,7 @@
         <v>1</v>
       </c>
       <c r="C245" t="n">
-        <v>48970.2476</v>
+        <v>59</v>
       </c>
       <c r="D245" t="n">
         <v>1</v>
@@ -5353,7 +5353,7 @@
         <v>0</v>
       </c>
       <c r="C246" t="n">
-        <v>40419.0191</v>
+        <v>37</v>
       </c>
       <c r="D246" t="n">
         <v>0</v>
@@ -5373,7 +5373,7 @@
         <v>1</v>
       </c>
       <c r="C247" t="n">
-        <v>8342.908750000001</v>
+        <v>46</v>
       </c>
       <c r="D247" t="n">
         <v>1</v>
@@ -5393,7 +5393,7 @@
         <v>1</v>
       </c>
       <c r="C248" t="n">
-        <v>5116.5004</v>
+        <v>35</v>
       </c>
       <c r="D248" t="n">
         <v>1</v>
@@ -5413,7 +5413,7 @@
         <v>2</v>
       </c>
       <c r="C249" t="n">
-        <v>36021.0112</v>
+        <v>23</v>
       </c>
       <c r="D249" t="n">
         <v>0</v>
@@ -5433,7 +5433,7 @@
         <v>0</v>
       </c>
       <c r="C250" t="n">
-        <v>1241.565</v>
+        <v>19</v>
       </c>
       <c r="D250" t="n">
         <v>1</v>
@@ -5453,7 +5453,7 @@
         <v>0</v>
       </c>
       <c r="C251" t="n">
-        <v>38792.6856</v>
+        <v>18</v>
       </c>
       <c r="D251" t="n">
         <v>0</v>
@@ -5473,7 +5473,7 @@
         <v>1</v>
       </c>
       <c r="C252" t="n">
-        <v>9617.66245</v>
+        <v>50</v>
       </c>
       <c r="D252" t="n">
         <v>1</v>
@@ -5493,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="C253" t="n">
-        <v>3206.49135</v>
+        <v>25</v>
       </c>
       <c r="D253" t="n">
         <v>0</v>
@@ -5513,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="C254" t="n">
-        <v>13844.506</v>
+        <v>19</v>
       </c>
       <c r="D254" t="n">
         <v>0</v>
@@ -5533,7 +5533,7 @@
         <v>3</v>
       </c>
       <c r="C255" t="n">
-        <v>4449.462</v>
+        <v>28</v>
       </c>
       <c r="D255" t="n">
         <v>1</v>
@@ -5553,7 +5553,7 @@
         <v>1</v>
       </c>
       <c r="C256" t="n">
-        <v>8240.589599999999</v>
+        <v>46</v>
       </c>
       <c r="D256" t="n">
         <v>0</v>
@@ -5573,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="C257" t="n">
-        <v>1737.376</v>
+        <v>19</v>
       </c>
       <c r="D257" t="n">
         <v>0</v>
@@ -5593,7 +5593,7 @@
         <v>4</v>
       </c>
       <c r="C258" t="n">
-        <v>17128.42608</v>
+        <v>24</v>
       </c>
       <c r="D258" t="n">
         <v>1</v>
@@ -5613,7 +5613,7 @@
         <v>3</v>
       </c>
       <c r="C259" t="n">
-        <v>5425.02335</v>
+        <v>31</v>
       </c>
       <c r="D259" t="n">
         <v>1</v>
@@ -5633,7 +5633,7 @@
         <v>2</v>
       </c>
       <c r="C260" t="n">
-        <v>7371.772</v>
+        <v>41</v>
       </c>
       <c r="D260" t="n">
         <v>0</v>
@@ -5653,7 +5653,7 @@
         <v>0</v>
       </c>
       <c r="C261" t="n">
-        <v>3213.62205</v>
+        <v>25</v>
       </c>
       <c r="D261" t="n">
         <v>0</v>
@@ -5673,7 +5673,7 @@
         <v>2</v>
       </c>
       <c r="C262" t="n">
-        <v>12268.63225</v>
+        <v>55</v>
       </c>
       <c r="D262" t="n">
         <v>0</v>
@@ -5693,7 +5693,7 @@
         <v>0</v>
       </c>
       <c r="C263" t="n">
-        <v>17929.30337</v>
+        <v>45</v>
       </c>
       <c r="D263" t="n">
         <v>0</v>
@@ -5713,7 +5713,7 @@
         <v>1</v>
       </c>
       <c r="C264" t="n">
-        <v>21677.28345</v>
+        <v>46</v>
       </c>
       <c r="D264" t="n">
         <v>0</v>
@@ -5733,7 +5733,7 @@
         <v>0</v>
       </c>
       <c r="C265" t="n">
-        <v>13635.6379</v>
+        <v>61</v>
       </c>
       <c r="D265" t="n">
         <v>0</v>
@@ -5753,7 +5753,7 @@
         <v>0</v>
       </c>
       <c r="C266" t="n">
-        <v>5966.8874</v>
+        <v>42</v>
       </c>
       <c r="D266" t="n">
         <v>1</v>
@@ -5773,7 +5773,7 @@
         <v>2</v>
       </c>
       <c r="C267" t="n">
-        <v>5257.50795</v>
+        <v>33</v>
       </c>
       <c r="D267" t="n">
         <v>1</v>
@@ -5793,7 +5793,7 @@
         <v>2</v>
       </c>
       <c r="C268" t="n">
-        <v>10156.7832</v>
+        <v>49</v>
       </c>
       <c r="D268" t="n">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>0</v>
       </c>
       <c r="C269" t="n">
-        <v>43921.1837</v>
+        <v>56</v>
       </c>
       <c r="D269" t="n">
         <v>1</v>
@@ -5833,7 +5833,7 @@
         <v>3</v>
       </c>
       <c r="C270" t="n">
-        <v>14001.1338</v>
+        <v>59</v>
       </c>
       <c r="D270" t="n">
         <v>0</v>
@@ -5853,7 +5853,7 @@
         <v>0</v>
       </c>
       <c r="C271" t="n">
-        <v>12142.5786</v>
+        <v>60</v>
       </c>
       <c r="D271" t="n">
         <v>1</v>
@@ -5873,7 +5873,7 @@
         <v>0</v>
       </c>
       <c r="C272" t="n">
-        <v>3556.9223</v>
+        <v>28</v>
       </c>
       <c r="D272" t="n">
         <v>0</v>
@@ -5893,7 +5893,7 @@
         <v>1</v>
       </c>
       <c r="C273" t="n">
-        <v>2331.519</v>
+        <v>19</v>
       </c>
       <c r="D273" t="n">
         <v>0</v>
@@ -5913,7 +5913,7 @@
         <v>3</v>
       </c>
       <c r="C274" t="n">
-        <v>8615.299999999999</v>
+        <v>45</v>
       </c>
       <c r="D274" t="n">
         <v>1</v>
@@ -5933,7 +5933,7 @@
         <v>2</v>
       </c>
       <c r="C275" t="n">
-        <v>47496.49445</v>
+        <v>58</v>
       </c>
       <c r="D275" t="n">
         <v>1</v>
@@ -5953,7 +5953,7 @@
         <v>0</v>
       </c>
       <c r="C276" t="n">
-        <v>12430.95335</v>
+        <v>58</v>
       </c>
       <c r="D276" t="n">
         <v>0</v>
@@ -5973,7 +5973,7 @@
         <v>1</v>
       </c>
       <c r="C277" t="n">
-        <v>5002.7827</v>
+        <v>34</v>
       </c>
       <c r="D277" t="n">
         <v>0</v>
@@ -5993,7 +5993,7 @@
         <v>2</v>
       </c>
       <c r="C278" t="n">
-        <v>7740.337</v>
+        <v>44</v>
       </c>
       <c r="D278" t="n">
         <v>1</v>
@@ -6013,7 +6013,7 @@
         <v>1</v>
       </c>
       <c r="C279" t="n">
-        <v>40273.6455</v>
+        <v>41</v>
       </c>
       <c r="D279" t="n">
         <v>1</v>
@@ -6033,7 +6033,7 @@
         <v>0</v>
       </c>
       <c r="C280" t="n">
-        <v>1135.9407</v>
+        <v>18</v>
       </c>
       <c r="D280" t="n">
         <v>1</v>
@@ -6053,7 +6053,7 @@
         <v>3</v>
       </c>
       <c r="C281" t="n">
-        <v>11741.726</v>
+        <v>53</v>
       </c>
       <c r="D281" t="n">
         <v>0</v>
@@ -6073,7 +6073,7 @@
         <v>0</v>
       </c>
       <c r="C282" t="n">
-        <v>11365.952</v>
+        <v>58</v>
       </c>
       <c r="D282" t="n">
         <v>1</v>
@@ -6093,7 +6093,7 @@
         <v>3</v>
       </c>
       <c r="C283" t="n">
-        <v>9704.66805</v>
+        <v>45</v>
       </c>
       <c r="D283" t="n">
         <v>0</v>
@@ -6113,7 +6113,7 @@
         <v>0</v>
       </c>
       <c r="C284" t="n">
-        <v>20630.28351</v>
+        <v>55</v>
       </c>
       <c r="D284" t="n">
         <v>1</v>
@@ -6133,7 +6133,7 @@
         <v>0</v>
       </c>
       <c r="C285" t="n">
-        <v>16115.3045</v>
+        <v>29</v>
       </c>
       <c r="D285" t="n">
         <v>0</v>
@@ -6153,7 +6153,7 @@
         <v>0</v>
       </c>
       <c r="C286" t="n">
-        <v>5397.6167</v>
+        <v>38</v>
       </c>
       <c r="D286" t="n">
         <v>0</v>
@@ -6173,7 +6173,7 @@
         <v>2</v>
       </c>
       <c r="C287" t="n">
-        <v>2304.0022</v>
+        <v>18</v>
       </c>
       <c r="D287" t="n">
         <v>1</v>
@@ -6193,7 +6193,7 @@
         <v>0</v>
       </c>
       <c r="C288" t="n">
-        <v>10959.33</v>
+        <v>57</v>
       </c>
       <c r="D288" t="n">
         <v>1</v>
@@ -6213,7 +6213,7 @@
         <v>0</v>
       </c>
       <c r="C289" t="n">
-        <v>20149.3229</v>
+        <v>39</v>
       </c>
       <c r="D289" t="n">
         <v>1</v>
@@ -6233,7 +6233,7 @@
         <v>0</v>
       </c>
       <c r="C290" t="n">
-        <v>19214.70553</v>
+        <v>37</v>
       </c>
       <c r="D290" t="n">
         <v>1</v>
@@ -6253,7 +6253,7 @@
         <v>1</v>
       </c>
       <c r="C291" t="n">
-        <v>19521.9682</v>
+        <v>30</v>
       </c>
       <c r="D291" t="n">
         <v>0</v>
@@ -6273,7 +6273,7 @@
         <v>2</v>
       </c>
       <c r="C292" t="n">
-        <v>44641.1974</v>
+        <v>51</v>
       </c>
       <c r="D292" t="n">
         <v>0</v>
@@ -6293,7 +6293,7 @@
         <v>2</v>
       </c>
       <c r="C293" t="n">
-        <v>9630.397000000001</v>
+        <v>50</v>
       </c>
       <c r="D293" t="n">
         <v>1</v>
@@ -6313,7 +6313,7 @@
         <v>1</v>
       </c>
       <c r="C294" t="n">
-        <v>6112.35295</v>
+        <v>37</v>
       </c>
       <c r="D294" t="n">
         <v>0</v>
@@ -6333,7 +6333,7 @@
         <v>3</v>
       </c>
       <c r="C295" t="n">
-        <v>8606.2174</v>
+        <v>43</v>
       </c>
       <c r="D295" t="n">
         <v>1</v>
@@ -6353,7 +6353,7 @@
         <v>3</v>
       </c>
       <c r="C296" t="n">
-        <v>30184.9367</v>
+        <v>59</v>
       </c>
       <c r="D296" t="n">
         <v>1</v>
@@ -6373,7 +6373,7 @@
         <v>0</v>
       </c>
       <c r="C297" t="n">
-        <v>52590.82939</v>
+        <v>60</v>
       </c>
       <c r="D297" t="n">
         <v>1</v>
@@ -6393,7 +6393,7 @@
         <v>0</v>
       </c>
       <c r="C298" t="n">
-        <v>1137.4697</v>
+        <v>18</v>
       </c>
       <c r="D298" t="n">
         <v>1</v>
@@ -6413,7 +6413,7 @@
         <v>1</v>
       </c>
       <c r="C299" t="n">
-        <v>22331.5668</v>
+        <v>40</v>
       </c>
       <c r="D299" t="n">
         <v>0</v>
@@ -6433,7 +6433,7 @@
         <v>0</v>
       </c>
       <c r="C300" t="n">
-        <v>1607.5101</v>
+        <v>18</v>
       </c>
       <c r="D300" t="n">
         <v>0</v>
@@ -6453,7 +6453,7 @@
         <v>0</v>
       </c>
       <c r="C301" t="n">
-        <v>3857.75925</v>
+        <v>31</v>
       </c>
       <c r="D301" t="n">
         <v>1</v>
@@ -6473,7 +6473,7 @@
         <v>0</v>
       </c>
       <c r="C302" t="n">
-        <v>44423.803</v>
+        <v>55</v>
       </c>
       <c r="D302" t="n">
         <v>0</v>
@@ -6493,7 +6493,7 @@
         <v>1</v>
       </c>
       <c r="C303" t="n">
-        <v>8627.5411</v>
+        <v>47</v>
       </c>
       <c r="D303" t="n">
         <v>1</v>
@@ -6513,7 +6513,7 @@
         <v>3</v>
       </c>
       <c r="C304" t="n">
-        <v>4005.4225</v>
+        <v>22</v>
       </c>
       <c r="D304" t="n">
         <v>1</v>
@@ -6533,7 +6533,7 @@
         <v>1</v>
       </c>
       <c r="C305" t="n">
-        <v>10825.2537</v>
+        <v>54</v>
       </c>
       <c r="D305" t="n">
         <v>1</v>
@@ -6553,7 +6553,7 @@
         <v>2</v>
       </c>
       <c r="C306" t="n">
-        <v>10493.9458</v>
+        <v>50</v>
       </c>
       <c r="D306" t="n">
         <v>0</v>
@@ -6573,7 +6573,7 @@
         <v>1</v>
       </c>
       <c r="C307" t="n">
-        <v>4718.20355</v>
+        <v>30</v>
       </c>
       <c r="D307" t="n">
         <v>0</v>
@@ -6593,7 +6593,7 @@
         <v>0</v>
       </c>
       <c r="C308" t="n">
-        <v>7147.105</v>
+        <v>46</v>
       </c>
       <c r="D308" t="n">
         <v>1</v>
@@ -6613,7 +6613,7 @@
         <v>0</v>
       </c>
       <c r="C309" t="n">
-        <v>10338.9316</v>
+        <v>54</v>
       </c>
       <c r="D309" t="n">
         <v>0</v>
@@ -6633,7 +6633,7 @@
         <v>2</v>
       </c>
       <c r="C310" t="n">
-        <v>4438.2634</v>
+        <v>28</v>
       </c>
       <c r="D310" t="n">
         <v>1</v>
@@ -6653,7 +6653,7 @@
         <v>2</v>
       </c>
       <c r="C311" t="n">
-        <v>23807.2406</v>
+        <v>49</v>
       </c>
       <c r="D311" t="n">
         <v>1</v>
@@ -6673,7 +6673,7 @@
         <v>1</v>
       </c>
       <c r="C312" t="n">
-        <v>3471.4096</v>
+        <v>29</v>
       </c>
       <c r="D312" t="n">
         <v>1</v>
@@ -6693,7 +6693,7 @@
         <v>2</v>
       </c>
       <c r="C313" t="n">
-        <v>10848.1343</v>
+        <v>51</v>
       </c>
       <c r="D313" t="n">
         <v>0</v>
@@ -6713,7 +6713,7 @@
         <v>2</v>
       </c>
       <c r="C314" t="n">
-        <v>10107.2206</v>
+        <v>50</v>
       </c>
       <c r="D314" t="n">
         <v>0</v>
@@ -6733,7 +6733,7 @@
         <v>0</v>
       </c>
       <c r="C315" t="n">
-        <v>17496.306</v>
+        <v>32</v>
       </c>
       <c r="D315" t="n">
         <v>0</v>
@@ -6753,7 +6753,7 @@
         <v>0</v>
       </c>
       <c r="C316" t="n">
-        <v>7419.4779</v>
+        <v>44</v>
       </c>
       <c r="D316" t="n">
         <v>0</v>
@@ -6773,7 +6773,7 @@
         <v>0</v>
       </c>
       <c r="C317" t="n">
-        <v>2045.68525</v>
+        <v>22</v>
       </c>
       <c r="D317" t="n">
         <v>1</v>
@@ -6793,7 +6793,7 @@
         <v>1</v>
       </c>
       <c r="C318" t="n">
-        <v>8765.249</v>
+        <v>48</v>
       </c>
       <c r="D318" t="n">
         <v>1</v>
@@ -6813,7 +6813,7 @@
         <v>1</v>
       </c>
       <c r="C319" t="n">
-        <v>4441.21315</v>
+        <v>31</v>
       </c>
       <c r="D319" t="n">
         <v>1</v>
@@ -6833,7 +6833,7 @@
         <v>1</v>
       </c>
       <c r="C320" t="n">
-        <v>9748.910599999999</v>
+        <v>52</v>
       </c>
       <c r="D320" t="n">
         <v>1</v>
@@ -6853,7 +6853,7 @@
         <v>1</v>
       </c>
       <c r="C321" t="n">
-        <v>7624.63</v>
+        <v>44</v>
       </c>
       <c r="D321" t="n">
         <v>0</v>
@@ -6873,7 +6873,7 @@
         <v>2</v>
       </c>
       <c r="C322" t="n">
-        <v>3056.3881</v>
+        <v>20</v>
       </c>
       <c r="D322" t="n">
         <v>0</v>
@@ -6893,7 +6893,7 @@
         <v>2</v>
       </c>
       <c r="C323" t="n">
-        <v>7640.3092</v>
+        <v>42</v>
       </c>
       <c r="D323" t="n">
         <v>0</v>
@@ -6913,7 +6913,7 @@
         <v>3</v>
       </c>
       <c r="C324" t="n">
-        <v>15555.18875</v>
+        <v>63</v>
       </c>
       <c r="D324" t="n">
         <v>1</v>
@@ -6933,7 +6933,7 @@
         <v>4</v>
       </c>
       <c r="C325" t="n">
-        <v>10407.08585</v>
+        <v>47</v>
       </c>
       <c r="D325" t="n">
         <v>1</v>
@@ -6953,7 +6953,7 @@
         <v>1</v>
       </c>
       <c r="C326" t="n">
-        <v>1832.094</v>
+        <v>19</v>
       </c>
       <c r="D326" t="n">
         <v>1</v>
@@ -6973,7 +6973,7 @@
         <v>1</v>
       </c>
       <c r="C327" t="n">
-        <v>4151.0287</v>
+        <v>30</v>
       </c>
       <c r="D327" t="n">
         <v>0</v>
@@ -6993,7 +6993,7 @@
         <v>0</v>
       </c>
       <c r="C328" t="n">
-        <v>6358.77645</v>
+        <v>42</v>
       </c>
       <c r="D328" t="n">
         <v>1</v>
@@ -7013,7 +7013,7 @@
         <v>3</v>
       </c>
       <c r="C329" t="n">
-        <v>7151.092</v>
+        <v>38</v>
       </c>
       <c r="D329" t="n">
         <v>0</v>
@@ -7033,7 +7033,7 @@
         <v>2</v>
       </c>
       <c r="C330" t="n">
-        <v>19144.57652</v>
+        <v>43</v>
       </c>
       <c r="D330" t="n">
         <v>0</v>
@@ -7053,7 +7053,7 @@
         <v>0</v>
       </c>
       <c r="C331" t="n">
-        <v>10226.2842</v>
+        <v>55</v>
       </c>
       <c r="D331" t="n">
         <v>1</v>
@@ -7073,7 +7073,7 @@
         <v>2</v>
       </c>
       <c r="C332" t="n">
-        <v>38998.546</v>
+        <v>44</v>
       </c>
       <c r="D332" t="n">
         <v>1</v>
@@ -7093,7 +7093,7 @@
         <v>0</v>
       </c>
       <c r="C333" t="n">
-        <v>1634.5734</v>
+        <v>18</v>
       </c>
       <c r="D333" t="n">
         <v>0</v>
@@ -7113,7 +7113,7 @@
         <v>0</v>
       </c>
       <c r="C334" t="n">
-        <v>34472.841</v>
+        <v>24</v>
       </c>
       <c r="D334" t="n">
         <v>1</v>
@@ -7133,7 +7133,7 @@
         <v>0</v>
       </c>
       <c r="C335" t="n">
-        <v>1121.8739</v>
+        <v>18</v>
       </c>
       <c r="D335" t="n">
         <v>1</v>
@@ -7153,7 +7153,7 @@
         <v>0</v>
       </c>
       <c r="C336" t="n">
-        <v>42111.6647</v>
+        <v>46</v>
       </c>
       <c r="D336" t="n">
         <v>0</v>
@@ -7173,7 +7173,7 @@
         <v>0</v>
       </c>
       <c r="C337" t="n">
-        <v>33307.5508</v>
+        <v>19</v>
       </c>
       <c r="D337" t="n">
         <v>0</v>
@@ -7193,7 +7193,7 @@
         <v>1</v>
       </c>
       <c r="C338" t="n">
-        <v>8930.93455</v>
+        <v>47</v>
       </c>
       <c r="D338" t="n">
         <v>0</v>
@@ -7213,7 +7213,7 @@
         <v>2</v>
       </c>
       <c r="C339" t="n">
-        <v>10806.839</v>
+        <v>52</v>
       </c>
       <c r="D339" t="n">
         <v>0</v>
@@ -7233,7 +7233,7 @@
         <v>2</v>
       </c>
       <c r="C340" t="n">
-        <v>12265.5069</v>
+        <v>56</v>
       </c>
       <c r="D340" t="n">
         <v>0</v>
@@ -7253,7 +7253,7 @@
         <v>1</v>
       </c>
       <c r="C341" t="n">
-        <v>3227.1211</v>
+        <v>25</v>
       </c>
       <c r="D341" t="n">
         <v>0</v>
@@ -7273,7 +7273,7 @@
         <v>0</v>
       </c>
       <c r="C342" t="n">
-        <v>3176.8159</v>
+        <v>26</v>
       </c>
       <c r="D342" t="n">
         <v>0</v>
@@ -7293,7 +7293,7 @@
         <v>2</v>
       </c>
       <c r="C343" t="n">
-        <v>19444.2658</v>
+        <v>40</v>
       </c>
       <c r="D343" t="n">
         <v>0</v>
@@ -7313,7 +7313,7 @@
         <v>0</v>
       </c>
       <c r="C344" t="n">
-        <v>8671.19125</v>
+        <v>48</v>
       </c>
       <c r="D344" t="n">
         <v>0</v>
@@ -7333,7 +7333,7 @@
         <v>3</v>
       </c>
       <c r="C345" t="n">
-        <v>7418.522</v>
+        <v>39</v>
       </c>
       <c r="D345" t="n">
         <v>0</v>
@@ -7353,7 +7353,7 @@
         <v>2</v>
       </c>
       <c r="C346" t="n">
-        <v>19442.3535</v>
+        <v>29</v>
       </c>
       <c r="D346" t="n">
         <v>1</v>
@@ -7373,7 +7373,7 @@
         <v>1</v>
       </c>
       <c r="C347" t="n">
-        <v>41034.2214</v>
+        <v>43</v>
       </c>
       <c r="D347" t="n">
         <v>1</v>
@@ -7393,7 +7393,7 @@
         <v>0</v>
       </c>
       <c r="C348" t="n">
-        <v>11353.2276</v>
+        <v>57</v>
       </c>
       <c r="D348" t="n">
         <v>1</v>
@@ -7413,7 +7413,7 @@
         <v>1</v>
       </c>
       <c r="C349" t="n">
-        <v>4040.55825</v>
+        <v>29</v>
       </c>
       <c r="D349" t="n">
         <v>1</v>
@@ -7433,7 +7433,7 @@
         <v>0</v>
       </c>
       <c r="C350" t="n">
-        <v>2217.46915</v>
+        <v>18</v>
       </c>
       <c r="D350" t="n">
         <v>0</v>
@@ -7453,7 +7453,7 @@
         <v>0</v>
       </c>
       <c r="C351" t="n">
-        <v>6250.435</v>
+        <v>43</v>
       </c>
       <c r="D351" t="n">
         <v>1</v>
@@ -7473,7 +7473,7 @@
         <v>5</v>
       </c>
       <c r="C352" t="n">
-        <v>6799.458</v>
+        <v>31</v>
       </c>
       <c r="D352" t="n">
         <v>1</v>
@@ -7493,7 +7493,7 @@
         <v>2</v>
       </c>
       <c r="C353" t="n">
-        <v>47291.055</v>
+        <v>64</v>
       </c>
       <c r="D353" t="n">
         <v>0</v>
@@ -7513,7 +7513,7 @@
         <v>3</v>
       </c>
       <c r="C354" t="n">
-        <v>46130.5265</v>
+        <v>60</v>
       </c>
       <c r="D354" t="n">
         <v>1</v>
@@ -7533,7 +7533,7 @@
         <v>0</v>
       </c>
       <c r="C355" t="n">
-        <v>13770.0979</v>
+        <v>63</v>
       </c>
       <c r="D355" t="n">
         <v>1</v>
@@ -7553,7 +7553,7 @@
         <v>1</v>
       </c>
       <c r="C356" t="n">
-        <v>47403.88</v>
+        <v>61</v>
       </c>
       <c r="D356" t="n">
         <v>1</v>
@@ -7573,7 +7573,7 @@
         <v>0</v>
       </c>
       <c r="C357" t="n">
-        <v>5910.944</v>
+        <v>40</v>
       </c>
       <c r="D357" t="n">
         <v>0</v>
@@ -7593,7 +7593,7 @@
         <v>0</v>
       </c>
       <c r="C358" t="n">
-        <v>7345.084</v>
+        <v>45</v>
       </c>
       <c r="D358" t="n">
         <v>0</v>
@@ -7613,7 +7613,7 @@
         <v>1</v>
       </c>
       <c r="C359" t="n">
-        <v>22462.04375</v>
+        <v>39</v>
       </c>
       <c r="D359" t="n">
         <v>1</v>
@@ -7633,7 +7633,7 @@
         <v>1</v>
       </c>
       <c r="C360" t="n">
-        <v>10106.13425</v>
+        <v>50</v>
       </c>
       <c r="D360" t="n">
         <v>0</v>
@@ -7653,7 +7653,7 @@
         <v>0</v>
       </c>
       <c r="C361" t="n">
-        <v>27533.9129</v>
+        <v>57</v>
       </c>
       <c r="D361" t="n">
         <v>0</v>
@@ -7673,7 +7673,7 @@
         <v>0</v>
       </c>
       <c r="C362" t="n">
-        <v>1532.4697</v>
+        <v>21</v>
       </c>
       <c r="D362" t="n">
         <v>1</v>
@@ -7693,7 +7693,7 @@
         <v>2</v>
       </c>
       <c r="C363" t="n">
-        <v>39836.519</v>
+        <v>37</v>
       </c>
       <c r="D363" t="n">
         <v>0</v>
@@ -7713,7 +7713,7 @@
         <v>0</v>
       </c>
       <c r="C364" t="n">
-        <v>45710.20785</v>
+        <v>62</v>
       </c>
       <c r="D364" t="n">
         <v>1</v>
@@ -7733,7 +7733,7 @@
         <v>1</v>
       </c>
       <c r="C365" t="n">
-        <v>37165.1638</v>
+        <v>22</v>
       </c>
       <c r="D365" t="n">
         <v>1</v>
@@ -7753,7 +7753,7 @@
         <v>0</v>
       </c>
       <c r="C366" t="n">
-        <v>11840.77505</v>
+        <v>57</v>
       </c>
       <c r="D366" t="n">
         <v>0</v>
@@ -7773,7 +7773,7 @@
         <v>2</v>
       </c>
       <c r="C367" t="n">
-        <v>7201.70085</v>
+        <v>39</v>
       </c>
       <c r="D367" t="n">
         <v>0</v>
@@ -7793,7 +7793,7 @@
         <v>0</v>
       </c>
       <c r="C368" t="n">
-        <v>13041.921</v>
+        <v>61</v>
       </c>
       <c r="D368" t="n">
         <v>0</v>
@@ -7813,7 +7813,7 @@
         <v>0</v>
       </c>
       <c r="C369" t="n">
-        <v>2254.7967</v>
+        <v>22</v>
       </c>
       <c r="D369" t="n">
         <v>1</v>
@@ -7833,7 +7833,7 @@
         <v>1</v>
       </c>
       <c r="C370" t="n">
-        <v>16657.71745</v>
+        <v>29</v>
       </c>
       <c r="D370" t="n">
         <v>0</v>
@@ -7853,7 +7853,7 @@
         <v>1</v>
       </c>
       <c r="C371" t="n">
-        <v>39871.7043</v>
+        <v>37</v>
       </c>
       <c r="D371" t="n">
         <v>1</v>
@@ -7873,7 +7873,7 @@
         <v>0</v>
       </c>
       <c r="C372" t="n">
-        <v>3260.199</v>
+        <v>31</v>
       </c>
       <c r="D372" t="n">
         <v>1</v>
@@ -7893,7 +7893,7 @@
         <v>2</v>
       </c>
       <c r="C373" t="n">
-        <v>4670.64</v>
+        <v>32</v>
       </c>
       <c r="D373" t="n">
         <v>1</v>
@@ -7913,7 +7913,7 @@
         <v>2</v>
       </c>
       <c r="C374" t="n">
-        <v>38344.566</v>
+        <v>20</v>
       </c>
       <c r="D374" t="n">
         <v>1</v>
@@ -7933,7 +7933,7 @@
         <v>0</v>
       </c>
       <c r="C375" t="n">
-        <v>17904.52705</v>
+        <v>33</v>
       </c>
       <c r="D375" t="n">
         <v>1</v>
@@ -7953,7 +7953,7 @@
         <v>1</v>
       </c>
       <c r="C376" t="n">
-        <v>5003.853</v>
+        <v>34</v>
       </c>
       <c r="D376" t="n">
         <v>0</v>
@@ -7973,7 +7973,7 @@
         <v>2</v>
       </c>
       <c r="C377" t="n">
-        <v>39241.442</v>
+        <v>30</v>
       </c>
       <c r="D377" t="n">
         <v>1</v>
@@ -7993,7 +7993,7 @@
         <v>1</v>
       </c>
       <c r="C378" t="n">
-        <v>8703.456</v>
+        <v>49</v>
       </c>
       <c r="D378" t="n">
         <v>1</v>
@@ -8013,7 +8013,7 @@
         <v>1</v>
       </c>
       <c r="C379" t="n">
-        <v>9964.059999999999</v>
+        <v>51</v>
       </c>
       <c r="D379" t="n">
         <v>1</v>
@@ -8033,7 +8033,7 @@
         <v>1</v>
       </c>
       <c r="C380" t="n">
-        <v>30166.61817</v>
+        <v>64</v>
       </c>
       <c r="D380" t="n">
         <v>1</v>
@@ -8053,7 +8053,7 @@
         <v>3</v>
       </c>
       <c r="C381" t="n">
-        <v>48549.17835</v>
+        <v>54</v>
       </c>
       <c r="D381" t="n">
         <v>1</v>
@@ -8073,7 +8073,7 @@
         <v>0</v>
       </c>
       <c r="C382" t="n">
-        <v>2842.76075</v>
+        <v>24</v>
       </c>
       <c r="D382" t="n">
         <v>0</v>
@@ -8093,7 +8093,7 @@
         <v>0</v>
       </c>
       <c r="C383" t="n">
-        <v>17352.6803</v>
+        <v>19</v>
       </c>
       <c r="D383" t="n">
         <v>1</v>
@@ -8113,7 +8113,7 @@
         <v>0</v>
       </c>
       <c r="C384" t="n">
-        <v>34779.615</v>
+        <v>19</v>
       </c>
       <c r="D384" t="n">
         <v>1</v>
@@ -8133,7 +8133,7 @@
         <v>3</v>
       </c>
       <c r="C385" t="n">
-        <v>5138.2567</v>
+        <v>29</v>
       </c>
       <c r="D385" t="n">
         <v>0</v>
@@ -8153,7 +8153,7 @@
         <v>0</v>
       </c>
       <c r="C386" t="n">
-        <v>18648.4217</v>
+        <v>24</v>
       </c>
       <c r="D386" t="n">
         <v>1</v>
@@ -8173,7 +8173,7 @@
         <v>2</v>
       </c>
       <c r="C387" t="n">
-        <v>36085.219</v>
+        <v>26</v>
       </c>
       <c r="D387" t="n">
         <v>1</v>
@@ -8193,7 +8193,7 @@
         <v>0</v>
       </c>
       <c r="C388" t="n">
-        <v>8601.329299999999</v>
+        <v>49</v>
       </c>
       <c r="D388" t="n">
         <v>0</v>
@@ -8213,7 +8213,7 @@
         <v>2</v>
       </c>
       <c r="C389" t="n">
-        <v>18767.7377</v>
+        <v>43</v>
       </c>
       <c r="D389" t="n">
         <v>1</v>
@@ -8233,7 +8233,7 @@
         <v>2</v>
       </c>
       <c r="C390" t="n">
-        <v>12829.4551</v>
+        <v>18</v>
       </c>
       <c r="D390" t="n">
         <v>1</v>
@@ -8253,7 +8253,7 @@
         <v>1</v>
       </c>
       <c r="C391" t="n">
-        <v>7147.4728</v>
+        <v>44</v>
       </c>
       <c r="D391" t="n">
         <v>1</v>
@@ -8273,7 +8273,7 @@
         <v>0</v>
       </c>
       <c r="C392" t="n">
-        <v>28923.13692</v>
+        <v>60</v>
       </c>
       <c r="D392" t="n">
         <v>0</v>
@@ -8293,7 +8293,7 @@
         <v>1</v>
       </c>
       <c r="C393" t="n">
-        <v>4762.329</v>
+        <v>35</v>
       </c>
       <c r="D393" t="n">
         <v>1</v>
@@ -8313,7 +8313,7 @@
         <v>3</v>
       </c>
       <c r="C394" t="n">
-        <v>13047.33235</v>
+        <v>55</v>
       </c>
       <c r="D394" t="n">
         <v>0</v>
@@ -8333,7 +8333,7 @@
         <v>1</v>
       </c>
       <c r="C395" t="n">
-        <v>15359.1045</v>
+        <v>21</v>
       </c>
       <c r="D395" t="n">
         <v>0</v>
@@ -8353,7 +8353,7 @@
         <v>3</v>
       </c>
       <c r="C396" t="n">
-        <v>4618.0799</v>
+        <v>24</v>
       </c>
       <c r="D396" t="n">
         <v>0</v>
@@ -8373,7 +8373,7 @@
         <v>2</v>
       </c>
       <c r="C397" t="n">
-        <v>11150.78</v>
+        <v>53</v>
       </c>
       <c r="D397" t="n">
         <v>0</v>
@@ -8393,7 +8393,7 @@
         <v>0</v>
       </c>
       <c r="C398" t="n">
-        <v>10982.5013</v>
+        <v>57</v>
       </c>
       <c r="D398" t="n">
         <v>1</v>
@@ -8413,7 +8413,7 @@
         <v>0</v>
       </c>
       <c r="C399" t="n">
-        <v>3935.1799</v>
+        <v>34</v>
       </c>
       <c r="D399" t="n">
         <v>1</v>
@@ -8433,7 +8433,7 @@
         <v>3</v>
       </c>
       <c r="C400" t="n">
-        <v>10381.4787</v>
+        <v>49</v>
       </c>
       <c r="D400" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>2</v>
       </c>
       <c r="C401" t="n">
-        <v>8515.7587</v>
+        <v>45</v>
       </c>
       <c r="D401" t="n">
         <v>0</v>
@@ -8473,7 +8473,7 @@
         <v>3</v>
       </c>
       <c r="C402" t="n">
-        <v>20745.9891</v>
+        <v>30</v>
       </c>
       <c r="D402" t="n">
         <v>1</v>
@@ -8493,7 +8493,7 @@
         <v>0</v>
       </c>
       <c r="C403" t="n">
-        <v>6837.3687</v>
+        <v>43</v>
       </c>
       <c r="D403" t="n">
         <v>1</v>
@@ -8513,7 +8513,7 @@
         <v>0</v>
       </c>
       <c r="C404" t="n">
-        <v>12224.35085</v>
+        <v>58</v>
       </c>
       <c r="D404" t="n">
         <v>0</v>
@@ -8533,7 +8533,7 @@
         <v>0</v>
       </c>
       <c r="C405" t="n">
-        <v>27346.04207</v>
+        <v>53</v>
       </c>
       <c r="D405" t="n">
         <v>1</v>
@@ -8553,7 +8553,7 @@
         <v>1</v>
       </c>
       <c r="C406" t="n">
-        <v>10436.096</v>
+        <v>54</v>
       </c>
       <c r="D406" t="n">
         <v>1</v>
@@ -8573,7 +8573,7 @@
         <v>0</v>
       </c>
       <c r="C407" t="n">
-        <v>34828.654</v>
+        <v>19</v>
       </c>
       <c r="D407" t="n">
         <v>1</v>
@@ -8593,7 +8593,7 @@
         <v>3</v>
       </c>
       <c r="C408" t="n">
-        <v>7985.815</v>
+        <v>39</v>
       </c>
       <c r="D408" t="n">
         <v>0</v>
@@ -8613,7 +8613,7 @@
         <v>0</v>
       </c>
       <c r="C409" t="n">
-        <v>8782.468999999999</v>
+        <v>51</v>
       </c>
       <c r="D409" t="n">
         <v>1</v>
@@ -8633,7 +8633,7 @@
         <v>3</v>
       </c>
       <c r="C410" t="n">
-        <v>19933.458</v>
+        <v>25</v>
       </c>
       <c r="D410" t="n">
         <v>1</v>
@@ -8653,7 +8653,7 @@
         <v>0</v>
       </c>
       <c r="C411" t="n">
-        <v>12979.358</v>
+        <v>62</v>
       </c>
       <c r="D411" t="n">
         <v>1</v>
@@ -8673,7 +8673,7 @@
         <v>0</v>
       </c>
       <c r="C412" t="n">
-        <v>10795.93733</v>
+        <v>23</v>
       </c>
       <c r="D412" t="n">
         <v>0</v>
@@ -8693,7 +8693,7 @@
         <v>3</v>
       </c>
       <c r="C413" t="n">
-        <v>7281.5056</v>
+        <v>37</v>
       </c>
       <c r="D413" t="n">
         <v>0</v>
@@ -8713,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="C414" t="n">
-        <v>27218.43725</v>
+        <v>57</v>
       </c>
       <c r="D414" t="n">
         <v>1</v>
@@ -8733,7 +8733,7 @@
         <v>2</v>
       </c>
       <c r="C415" t="n">
-        <v>40003.33225</v>
+        <v>40</v>
       </c>
       <c r="D415" t="n">
         <v>0</v>
@@ -8753,7 +8753,7 @@
         <v>0</v>
       </c>
       <c r="C416" t="n">
-        <v>1704.70015</v>
+        <v>18</v>
       </c>
       <c r="D416" t="n">
         <v>1</v>
@@ -8773,7 +8773,7 @@
         <v>3</v>
       </c>
       <c r="C417" t="n">
-        <v>9620.3307</v>
+        <v>47</v>
       </c>
       <c r="D417" t="n">
         <v>1</v>
@@ -8793,7 +8793,7 @@
         <v>0</v>
       </c>
       <c r="C418" t="n">
-        <v>9144.565000000001</v>
+        <v>52</v>
       </c>
       <c r="D418" t="n">
         <v>1</v>
@@ -8813,7 +8813,7 @@
         <v>1</v>
       </c>
       <c r="C419" t="n">
-        <v>6849.026</v>
+        <v>43</v>
       </c>
       <c r="D419" t="n">
         <v>1</v>
@@ -8833,7 +8833,7 @@
         <v>2</v>
       </c>
       <c r="C420" t="n">
-        <v>6877.9801</v>
+        <v>37</v>
       </c>
       <c r="D420" t="n">
         <v>0</v>
@@ -8853,7 +8853,7 @@
         <v>1</v>
       </c>
       <c r="C421" t="n">
-        <v>9549.5651</v>
+        <v>50</v>
       </c>
       <c r="D421" t="n">
         <v>0</v>
@@ -8873,7 +8873,7 @@
         <v>4</v>
       </c>
       <c r="C422" t="n">
-        <v>11520.09985</v>
+        <v>51</v>
       </c>
       <c r="D422" t="n">
         <v>1</v>
@@ -8893,7 +8893,7 @@
         <v>0</v>
       </c>
       <c r="C423" t="n">
-        <v>3353.4703</v>
+        <v>27</v>
       </c>
       <c r="D423" t="n">
         <v>0</v>
@@ -8913,7 +8913,7 @@
         <v>1</v>
       </c>
       <c r="C424" t="n">
-        <v>7639.41745</v>
+        <v>42</v>
       </c>
       <c r="D424" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>3</v>
       </c>
       <c r="C425" t="n">
-        <v>9500.573050000001</v>
+        <v>46</v>
       </c>
       <c r="D425" t="n">
         <v>1</v>
@@ -8953,7 +8953,7 @@
         <v>0</v>
       </c>
       <c r="C426" t="n">
-        <v>3757.8448</v>
+        <v>31</v>
       </c>
       <c r="D426" t="n">
         <v>0</v>
@@ -8973,7 +8973,7 @@
         <v>2</v>
       </c>
       <c r="C427" t="n">
-        <v>18972.495</v>
+        <v>34</v>
       </c>
       <c r="D427" t="n">
         <v>1</v>
@@ -8993,7 +8993,7 @@
         <v>0</v>
       </c>
       <c r="C428" t="n">
-        <v>11482.63485</v>
+        <v>18</v>
       </c>
       <c r="D428" t="n">
         <v>0</v>
@@ -9013,7 +9013,7 @@
         <v>2</v>
       </c>
       <c r="C429" t="n">
-        <v>10325.206</v>
+        <v>52</v>
       </c>
       <c r="D429" t="n">
         <v>1</v>
@@ -9033,7 +9033,7 @@
         <v>2</v>
       </c>
       <c r="C430" t="n">
-        <v>11013.7119</v>
+        <v>54</v>
       </c>
       <c r="D430" t="n">
         <v>1</v>
@@ -9053,7 +9053,7 @@
         <v>2</v>
       </c>
       <c r="C431" t="n">
-        <v>4673.3922</v>
+        <v>32</v>
       </c>
       <c r="D431" t="n">
         <v>1</v>
@@ -9073,7 +9073,7 @@
         <v>1</v>
       </c>
       <c r="C432" t="n">
-        <v>4747.0529</v>
+        <v>35</v>
       </c>
       <c r="D432" t="n">
         <v>1</v>
@@ -9093,7 +9093,7 @@
         <v>1</v>
       </c>
       <c r="C433" t="n">
-        <v>4738.2682</v>
+        <v>31</v>
       </c>
       <c r="D433" t="n">
         <v>0</v>
@@ -9113,7 +9113,7 @@
         <v>0</v>
       </c>
       <c r="C434" t="n">
-        <v>14043.4767</v>
+        <v>62</v>
       </c>
       <c r="D434" t="n">
         <v>0</v>
@@ -9133,7 +9133,7 @@
         <v>1</v>
       </c>
       <c r="C435" t="n">
-        <v>7518.02535</v>
+        <v>44</v>
       </c>
       <c r="D435" t="n">
         <v>1</v>
@@ -9153,7 +9153,7 @@
         <v>0</v>
       </c>
       <c r="C436" t="n">
-        <v>2689.4954</v>
+        <v>28</v>
       </c>
       <c r="D436" t="n">
         <v>1</v>
@@ -9173,7 +9173,7 @@
         <v>0</v>
       </c>
       <c r="C437" t="n">
-        <v>45008.9555</v>
+        <v>60</v>
       </c>
       <c r="D437" t="n">
         <v>0</v>
@@ -9193,7 +9193,7 @@
         <v>1</v>
       </c>
       <c r="C438" t="n">
-        <v>7358.17565</v>
+        <v>41</v>
       </c>
       <c r="D438" t="n">
         <v>0</v>
@@ -9213,7 +9213,7 @@
         <v>5</v>
       </c>
       <c r="C439" t="n">
-        <v>5615.369</v>
+        <v>28</v>
       </c>
       <c r="D439" t="n">
         <v>1</v>
@@ -9233,7 +9233,7 @@
         <v>2</v>
       </c>
       <c r="C440" t="n">
-        <v>3537.703</v>
+        <v>24</v>
       </c>
       <c r="D440" t="n">
         <v>1</v>
@@ -9253,7 +9253,7 @@
         <v>0</v>
       </c>
       <c r="C441" t="n">
-        <v>6571.02435</v>
+        <v>41</v>
       </c>
       <c r="D441" t="n">
         <v>0</v>
@@ -9273,7 +9273,7 @@
         <v>1</v>
       </c>
       <c r="C442" t="n">
-        <v>10959.6947</v>
+        <v>53</v>
       </c>
       <c r="D442" t="n">
         <v>0</v>
@@ -9293,7 +9293,7 @@
         <v>0</v>
       </c>
       <c r="C443" t="n">
-        <v>33475.81715</v>
+        <v>20</v>
       </c>
       <c r="D443" t="n">
         <v>1</v>
@@ -9313,7 +9313,7 @@
         <v>0</v>
       </c>
       <c r="C444" t="n">
-        <v>3943.5954</v>
+        <v>29</v>
       </c>
       <c r="D444" t="n">
         <v>0</v>
@@ -9333,7 +9333,7 @@
         <v>2</v>
       </c>
       <c r="C445" t="n">
-        <v>37484.4493</v>
+        <v>22</v>
       </c>
       <c r="D445" t="n">
         <v>1</v>
@@ -9353,7 +9353,7 @@
         <v>3</v>
       </c>
       <c r="C446" t="n">
-        <v>6551.7501</v>
+        <v>33</v>
       </c>
       <c r="D446" t="n">
         <v>0</v>
@@ -9373,7 +9373,7 @@
         <v>0</v>
       </c>
       <c r="C447" t="n">
-        <v>5227.98875</v>
+        <v>35</v>
       </c>
       <c r="D447" t="n">
         <v>0</v>
@@ -9393,7 +9393,7 @@
         <v>0</v>
       </c>
       <c r="C448" t="n">
-        <v>1632.56445</v>
+        <v>19</v>
       </c>
       <c r="D448" t="n">
         <v>1</v>
@@ -9413,7 +9413,7 @@
         <v>3</v>
       </c>
       <c r="C449" t="n">
-        <v>37465.34375</v>
+        <v>20</v>
       </c>
       <c r="D449" t="n">
         <v>1</v>
@@ -9433,7 +9433,7 @@
         <v>3</v>
       </c>
       <c r="C450" t="n">
-        <v>6652.5288</v>
+        <v>38</v>
       </c>
       <c r="D450" t="n">
         <v>1</v>
@@ -9453,7 +9453,7 @@
         <v>0</v>
       </c>
       <c r="C451" t="n">
-        <v>2480.9791</v>
+        <v>24</v>
       </c>
       <c r="D451" t="n">
         <v>0</v>
@@ -9473,7 +9473,7 @@
         <v>2</v>
       </c>
       <c r="C452" t="n">
-        <v>3077.0955</v>
+        <v>21</v>
       </c>
       <c r="D452" t="n">
         <v>1</v>
@@ -9493,7 +9493,7 @@
         <v>1</v>
       </c>
       <c r="C453" t="n">
-        <v>14349.8544</v>
+        <v>63</v>
       </c>
       <c r="D453" t="n">
         <v>1</v>
@@ -9513,7 +9513,7 @@
         <v>1</v>
       </c>
       <c r="C454" t="n">
-        <v>5974.3847</v>
+        <v>38</v>
       </c>
       <c r="D454" t="n">
         <v>0</v>
@@ -9533,7 +9533,7 @@
         <v>0</v>
       </c>
       <c r="C455" t="n">
-        <v>2585.85065</v>
+        <v>21</v>
       </c>
       <c r="D455" t="n">
         <v>0</v>
@@ -9553,7 +9553,7 @@
         <v>1</v>
       </c>
       <c r="C456" t="n">
-        <v>8334.457549999999</v>
+        <v>46</v>
       </c>
       <c r="D456" t="n">
         <v>1</v>
@@ -9573,7 +9573,7 @@
         <v>0</v>
       </c>
       <c r="C457" t="n">
-        <v>11856.4115</v>
+        <v>58</v>
       </c>
       <c r="D457" t="n">
         <v>0</v>
@@ -9593,7 +9593,7 @@
         <v>0</v>
       </c>
       <c r="C458" t="n">
-        <v>16884.924</v>
+        <v>19</v>
       </c>
       <c r="D458" t="n">
         <v>0</v>
@@ -9613,7 +9613,7 @@
         <v>2</v>
       </c>
       <c r="C459" t="n">
-        <v>10043.249</v>
+        <v>48</v>
       </c>
       <c r="D459" t="n">
         <v>0</v>
@@ -9633,7 +9633,7 @@
         <v>0</v>
       </c>
       <c r="C460" t="n">
-        <v>10704.47</v>
+        <v>55</v>
       </c>
       <c r="D460" t="n">
         <v>0</v>
@@ -9653,7 +9653,7 @@
         <v>1</v>
       </c>
       <c r="C461" t="n">
-        <v>28868.6639</v>
+        <v>61</v>
       </c>
       <c r="D461" t="n">
         <v>1</v>
@@ -9673,7 +9673,7 @@
         <v>0</v>
       </c>
       <c r="C462" t="n">
-        <v>2203.73595</v>
+        <v>18</v>
       </c>
       <c r="D462" t="n">
         <v>0</v>
@@ -9693,7 +9693,7 @@
         <v>1</v>
       </c>
       <c r="C463" t="n">
-        <v>4746.344</v>
+        <v>35</v>
       </c>
       <c r="D463" t="n">
         <v>1</v>
@@ -9713,7 +9713,7 @@
         <v>1</v>
       </c>
       <c r="C464" t="n">
-        <v>4454.40265</v>
+        <v>32</v>
       </c>
       <c r="D464" t="n">
         <v>1</v>
@@ -9733,7 +9733,7 @@
         <v>2</v>
       </c>
       <c r="C465" t="n">
-        <v>32108.66282</v>
+        <v>44</v>
       </c>
       <c r="D465" t="n">
         <v>1</v>
@@ -9753,7 +9753,7 @@
         <v>1</v>
       </c>
       <c r="C466" t="n">
-        <v>7050.642</v>
+        <v>42</v>
       </c>
       <c r="D466" t="n">
         <v>0</v>
@@ -9773,7 +9773,7 @@
         <v>0</v>
       </c>
       <c r="C467" t="n">
-        <v>1694.7964</v>
+        <v>18</v>
       </c>
       <c r="D467" t="n">
         <v>1</v>
@@ -9793,7 +9793,7 @@
         <v>4</v>
       </c>
       <c r="C468" t="n">
-        <v>7512.267</v>
+        <v>39</v>
       </c>
       <c r="D468" t="n">
         <v>1</v>
@@ -9813,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="C469" t="n">
-        <v>3385.39915</v>
+        <v>26</v>
       </c>
       <c r="D469" t="n">
         <v>0</v>
@@ -9833,7 +9833,7 @@
         <v>3</v>
       </c>
       <c r="C470" t="n">
-        <v>10702.6424</v>
+        <v>50</v>
       </c>
       <c r="D470" t="n">
         <v>0</v>
@@ -9853,7 +9853,7 @@
         <v>1</v>
       </c>
       <c r="C471" t="n">
-        <v>48675.5177</v>
+        <v>57</v>
       </c>
       <c r="D471" t="n">
         <v>1</v>
@@ -9873,7 +9873,7 @@
         <v>0</v>
       </c>
       <c r="C472" t="n">
-        <v>1984.4533</v>
+        <v>20</v>
       </c>
       <c r="D472" t="n">
         <v>1</v>
@@ -9893,7 +9893,7 @@
         <v>0</v>
       </c>
       <c r="C473" t="n">
-        <v>2026.9741</v>
+        <v>21</v>
       </c>
       <c r="D473" t="n">
         <v>0</v>
@@ -9913,7 +9913,7 @@
         <v>0</v>
       </c>
       <c r="C474" t="n">
-        <v>1629.8335</v>
+        <v>18</v>
       </c>
       <c r="D474" t="n">
         <v>0</v>
@@ -9933,7 +9933,7 @@
         <v>0</v>
       </c>
       <c r="C475" t="n">
-        <v>1631.8212</v>
+        <v>18</v>
       </c>
       <c r="D475" t="n">
         <v>0</v>
@@ -9953,7 +9953,7 @@
         <v>2</v>
       </c>
       <c r="C476" t="n">
-        <v>4428.88785</v>
+        <v>28</v>
       </c>
       <c r="D476" t="n">
         <v>1</v>
@@ -9973,7 +9973,7 @@
         <v>0</v>
       </c>
       <c r="C477" t="n">
-        <v>2134.9015</v>
+        <v>19</v>
       </c>
       <c r="D477" t="n">
         <v>0</v>
@@ -9993,7 +9993,7 @@
         <v>2</v>
       </c>
       <c r="C478" t="n">
-        <v>47305.305</v>
+        <v>63</v>
       </c>
       <c r="D478" t="n">
         <v>0</v>
@@ -10013,7 +10013,7 @@
         <v>3</v>
       </c>
       <c r="C479" t="n">
-        <v>17663.1442</v>
+        <v>28</v>
       </c>
       <c r="D479" t="n">
         <v>1</v>
@@ -10033,7 +10033,7 @@
         <v>0</v>
       </c>
       <c r="C480" t="n">
-        <v>13616.3586</v>
+        <v>61</v>
       </c>
       <c r="D480" t="n">
         <v>0</v>
@@ -10053,7 +10053,7 @@
         <v>3</v>
       </c>
       <c r="C481" t="n">
-        <v>6746.7425</v>
+        <v>36</v>
       </c>
       <c r="D481" t="n">
         <v>1</v>
@@ -10073,7 +10073,7 @@
         <v>2</v>
       </c>
       <c r="C482" t="n">
-        <v>43813.8661</v>
+        <v>56</v>
       </c>
       <c r="D482" t="n">
         <v>1</v>
@@ -10093,7 +10093,7 @@
         <v>1</v>
       </c>
       <c r="C483" t="n">
-        <v>3561.8889</v>
+        <v>27</v>
       </c>
       <c r="D483" t="n">
         <v>0</v>
@@ -10113,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="C484" t="n">
-        <v>33900.653</v>
+        <v>25</v>
       </c>
       <c r="D484" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>3</v>
       </c>
       <c r="C485" t="n">
-        <v>19199.944</v>
+        <v>31</v>
       </c>
       <c r="D485" t="n">
         <v>1</v>
@@ -10153,7 +10153,7 @@
         <v>0</v>
       </c>
       <c r="C486" t="n">
-        <v>13470.86</v>
+        <v>62</v>
       </c>
       <c r="D486" t="n">
         <v>0</v>
@@ -10173,7 +10173,7 @@
         <v>1</v>
       </c>
       <c r="C487" t="n">
-        <v>7445.918</v>
+        <v>45</v>
       </c>
       <c r="D487" t="n">
         <v>1</v>
@@ -10193,7 +10193,7 @@
         <v>2</v>
       </c>
       <c r="C488" t="n">
-        <v>3180.5101</v>
+        <v>21</v>
       </c>
       <c r="D488" t="n">
         <v>0</v>
@@ -10213,7 +10213,7 @@
         <v>0</v>
       </c>
       <c r="C489" t="n">
-        <v>1967.0227</v>
+        <v>20</v>
       </c>
       <c r="D489" t="n">
         <v>1</v>
@@ -10233,7 +10233,7 @@
         <v>4</v>
       </c>
       <c r="C490" t="n">
-        <v>6059.173</v>
+        <v>33</v>
       </c>
       <c r="D490" t="n">
         <v>1</v>
@@ -10253,7 +10253,7 @@
         <v>1</v>
       </c>
       <c r="C491" t="n">
-        <v>41919.097</v>
+        <v>50</v>
       </c>
       <c r="D491" t="n">
         <v>1</v>
@@ -10273,7 +10273,7 @@
         <v>0</v>
       </c>
       <c r="C492" t="n">
-        <v>46599.1084</v>
+        <v>61</v>
       </c>
       <c r="D492" t="n">
         <v>1</v>
@@ -10293,7 +10293,7 @@
         <v>0</v>
       </c>
       <c r="C493" t="n">
-        <v>5028.1466</v>
+        <v>37</v>
       </c>
       <c r="D493" t="n">
         <v>1</v>
@@ -10313,7 +10313,7 @@
         <v>1</v>
       </c>
       <c r="C494" t="n">
-        <v>2775.19215</v>
+        <v>23</v>
       </c>
       <c r="D494" t="n">
         <v>1</v>
@@ -10333,7 +10333,7 @@
         <v>1</v>
       </c>
       <c r="C495" t="n">
-        <v>27724.28875</v>
+        <v>20</v>
       </c>
       <c r="D495" t="n">
         <v>1</v>
@@ -10353,7 +10353,7 @@
         <v>1</v>
       </c>
       <c r="C496" t="n">
-        <v>12044.342</v>
+        <v>56</v>
       </c>
       <c r="D496" t="n">
         <v>0</v>
@@ -10373,7 +10373,7 @@
         <v>1</v>
       </c>
       <c r="C497" t="n">
-        <v>24520.264</v>
+        <v>50</v>
       </c>
       <c r="D497" t="n">
         <v>0</v>
@@ -10393,7 +10393,7 @@
         <v>2</v>
       </c>
       <c r="C498" t="n">
-        <v>3279.86855</v>
+        <v>21</v>
       </c>
       <c r="D498" t="n">
         <v>1</v>
@@ -10413,7 +10413,7 @@
         <v>3</v>
       </c>
       <c r="C499" t="n">
-        <v>4827.90495</v>
+        <v>27</v>
       </c>
       <c r="D499" t="n">
         <v>1</v>
@@ -10433,7 +10433,7 @@
         <v>2</v>
       </c>
       <c r="C500" t="n">
-        <v>6311.952</v>
+        <v>37</v>
       </c>
       <c r="D500" t="n">
         <v>0</v>
@@ -10453,7 +10453,7 @@
         <v>0</v>
       </c>
       <c r="C501" t="n">
-        <v>8280.6227</v>
+        <v>48</v>
       </c>
       <c r="D501" t="n">
         <v>0</v>
@@ -10473,7 +10473,7 @@
         <v>1</v>
       </c>
       <c r="C502" t="n">
-        <v>5246.047</v>
+        <v>35</v>
       </c>
       <c r="D502" t="n">
         <v>0</v>
@@ -10493,7 +10493,7 @@
         <v>1</v>
       </c>
       <c r="C503" t="n">
-        <v>5240.765</v>
+        <v>35</v>
       </c>
       <c r="D503" t="n">
         <v>0</v>
@@ -10513,7 +10513,7 @@
         <v>0</v>
       </c>
       <c r="C504" t="n">
-        <v>10577.087</v>
+        <v>56</v>
       </c>
       <c r="D504" t="n">
         <v>1</v>
@@ -10533,7 +10533,7 @@
         <v>0</v>
       </c>
       <c r="C505" t="n">
-        <v>5415.6612</v>
+        <v>40</v>
       </c>
       <c r="D505" t="n">
         <v>1</v>
@@ -10553,7 +10553,7 @@
         <v>0</v>
       </c>
       <c r="C506" t="n">
-        <v>24513.09126</v>
+        <v>61</v>
       </c>
       <c r="D506" t="n">
         <v>0</v>
@@ -10573,7 +10573,7 @@
         <v>1</v>
       </c>
       <c r="C507" t="n">
-        <v>11946.6259</v>
+        <v>58</v>
       </c>
       <c r="D507" t="n">
         <v>1</v>
@@ -10593,7 +10593,7 @@
         <v>2</v>
       </c>
       <c r="C508" t="n">
-        <v>8347.1643</v>
+        <v>46</v>
       </c>
       <c r="D508" t="n">
         <v>1</v>
@@ -10613,7 +10613,7 @@
         <v>1</v>
       </c>
       <c r="C509" t="n">
-        <v>43943.8761</v>
+        <v>34</v>
       </c>
       <c r="D509" t="n">
         <v>0</v>
@@ -10633,7 +10633,7 @@
         <v>1</v>
       </c>
       <c r="C510" t="n">
-        <v>14474.675</v>
+        <v>63</v>
       </c>
       <c r="D510" t="n">
         <v>0</v>
@@ -10653,7 +10653,7 @@
         <v>2</v>
       </c>
       <c r="C511" t="n">
-        <v>4058.71245</v>
+        <v>27</v>
       </c>
       <c r="D511" t="n">
         <v>1</v>
@@ -10673,7 +10673,7 @@
         <v>2</v>
       </c>
       <c r="C512" t="n">
-        <v>6710.1919</v>
+        <v>39</v>
       </c>
       <c r="D512" t="n">
         <v>1</v>
@@ -10693,7 +10693,7 @@
         <v>3</v>
       </c>
       <c r="C513" t="n">
-        <v>4234.927</v>
+        <v>24</v>
       </c>
       <c r="D513" t="n">
         <v>0</v>
@@ -10713,7 +10713,7 @@
         <v>2</v>
       </c>
       <c r="C514" t="n">
-        <v>8520.026</v>
+        <v>45</v>
       </c>
       <c r="D514" t="n">
         <v>0</v>
@@ -10733,7 +10733,7 @@
         <v>1</v>
       </c>
       <c r="C515" t="n">
-        <v>10450.552</v>
+        <v>54</v>
       </c>
       <c r="D515" t="n">
         <v>1</v>
@@ -10753,7 +10753,7 @@
         <v>2</v>
       </c>
       <c r="C516" t="n">
-        <v>11163.568</v>
+        <v>53</v>
       </c>
       <c r="D516" t="n">
         <v>0</v>
@@ -10773,7 +10773,7 @@
         <v>2</v>
       </c>
       <c r="C517" t="n">
-        <v>26467.09737</v>
+        <v>52</v>
       </c>
       <c r="D517" t="n">
         <v>1</v>
@@ -10793,7 +10793,7 @@
         <v>1</v>
       </c>
       <c r="C518" t="n">
-        <v>2639.0429</v>
+        <v>22</v>
       </c>
       <c r="D518" t="n">
         <v>1</v>
@@ -10813,7 +10813,7 @@
         <v>3</v>
       </c>
       <c r="C519" t="n">
-        <v>11253.421</v>
+        <v>53</v>
       </c>
       <c r="D519" t="n">
         <v>1</v>
@@ -10833,7 +10833,7 @@
         <v>3</v>
       </c>
       <c r="C520" t="n">
-        <v>43753.33705</v>
+        <v>36</v>
       </c>
       <c r="D520" t="n">
         <v>1</v>
@@ -10853,7 +10853,7 @@
         <v>2</v>
       </c>
       <c r="C521" t="n">
-        <v>4949.7587</v>
+        <v>31</v>
       </c>
       <c r="D521" t="n">
         <v>0</v>
@@ -10873,7 +10873,7 @@
         <v>1</v>
       </c>
       <c r="C522" t="n">
-        <v>2362.22905</v>
+        <v>20</v>
       </c>
       <c r="D522" t="n">
         <v>1</v>
@@ -10893,7 +10893,7 @@
         <v>0</v>
       </c>
       <c r="C523" t="n">
-        <v>2867.1196</v>
+        <v>29</v>
       </c>
       <c r="D523" t="n">
         <v>1</v>
@@ -10913,7 +10913,7 @@
         <v>1</v>
       </c>
       <c r="C524" t="n">
-        <v>39774.2763</v>
+        <v>35</v>
       </c>
       <c r="D524" t="n">
         <v>1</v>
@@ -10933,7 +10933,7 @@
         <v>5</v>
       </c>
       <c r="C525" t="n">
-        <v>11552.904</v>
+        <v>49</v>
       </c>
       <c r="D525" t="n">
         <v>0</v>
@@ -10953,7 +10953,7 @@
         <v>3</v>
       </c>
       <c r="C526" t="n">
-        <v>14382.70905</v>
+        <v>59</v>
       </c>
       <c r="D526" t="n">
         <v>0</v>
@@ -10973,7 +10973,7 @@
         <v>0</v>
       </c>
       <c r="C527" t="n">
-        <v>19673.33573</v>
+        <v>28</v>
       </c>
       <c r="D527" t="n">
         <v>1</v>
@@ -10993,7 +10993,7 @@
         <v>1</v>
       </c>
       <c r="C528" t="n">
-        <v>5472.449</v>
+        <v>36</v>
       </c>
       <c r="D528" t="n">
         <v>0</v>
@@ -11013,7 +11013,7 @@
         <v>1</v>
       </c>
       <c r="C529" t="n">
-        <v>9880.067999999999</v>
+        <v>51</v>
       </c>
       <c r="D529" t="n">
         <v>0</v>
@@ -11033,7 +11033,7 @@
         <v>1</v>
       </c>
       <c r="C530" t="n">
-        <v>23288.9284</v>
+        <v>28</v>
       </c>
       <c r="D530" t="n">
         <v>0</v>
@@ -11053,7 +11053,7 @@
         <v>2</v>
       </c>
       <c r="C531" t="n">
-        <v>6203.90175</v>
+        <v>37</v>
       </c>
       <c r="D531" t="n">
         <v>1</v>
@@ -11073,7 +11073,7 @@
         <v>2</v>
       </c>
       <c r="C532" t="n">
-        <v>5584.3057</v>
+        <v>36</v>
       </c>
       <c r="D532" t="n">
         <v>1</v>
@@ -11093,7 +11093,7 @@
         <v>0</v>
       </c>
       <c r="C533" t="n">
-        <v>12622.1795</v>
+        <v>59</v>
       </c>
       <c r="D533" t="n">
         <v>0</v>
@@ -11113,7 +11113,7 @@
         <v>0</v>
       </c>
       <c r="C534" t="n">
-        <v>13887.9685</v>
+        <v>63</v>
       </c>
       <c r="D534" t="n">
         <v>0</v>
@@ -11133,7 +11133,7 @@
         <v>0</v>
       </c>
       <c r="C535" t="n">
-        <v>20709.02034</v>
+        <v>57</v>
       </c>
       <c r="D535" t="n">
         <v>1</v>
@@ -11153,7 +11153,7 @@
         <v>3</v>
       </c>
       <c r="C536" t="n">
-        <v>13430.265</v>
+        <v>56</v>
       </c>
       <c r="D536" t="n">
         <v>0</v>
@@ -11173,7 +11173,7 @@
         <v>3</v>
       </c>
       <c r="C537" t="n">
-        <v>6796.86325</v>
+        <v>37</v>
       </c>
       <c r="D537" t="n">
         <v>1</v>
@@ -11193,7 +11193,7 @@
         <v>0</v>
       </c>
       <c r="C538" t="n">
-        <v>2899.48935</v>
+        <v>23</v>
       </c>
       <c r="D538" t="n">
         <v>0</v>
@@ -11213,7 +11213,7 @@
         <v>2</v>
       </c>
       <c r="C539" t="n">
-        <v>5846.9176</v>
+        <v>35</v>
       </c>
       <c r="D539" t="n">
         <v>0</v>
@@ -11233,7 +11233,7 @@
         <v>3</v>
       </c>
       <c r="C540" t="n">
-        <v>14007.222</v>
+        <v>59</v>
       </c>
       <c r="D540" t="n">
         <v>0</v>
@@ -11253,7 +11253,7 @@
         <v>1</v>
       </c>
       <c r="C541" t="n">
-        <v>13112.6048</v>
+        <v>60</v>
       </c>
       <c r="D541" t="n">
         <v>1</v>
@@ -11273,7 +11273,7 @@
         <v>1</v>
       </c>
       <c r="C542" t="n">
-        <v>13725.47184</v>
+        <v>41</v>
       </c>
       <c r="D542" t="n">
         <v>0</v>
@@ -11293,7 +11293,7 @@
         <v>2</v>
       </c>
       <c r="C543" t="n">
-        <v>4686.3887</v>
+        <v>32</v>
       </c>
       <c r="D543" t="n">
         <v>1</v>
@@ -11313,7 +11313,7 @@
         <v>3</v>
       </c>
       <c r="C544" t="n">
-        <v>20462.99766</v>
+        <v>53</v>
       </c>
       <c r="D544" t="n">
         <v>0</v>
@@ -11333,7 +11333,7 @@
         <v>0</v>
       </c>
       <c r="C545" t="n">
-        <v>1628.4709</v>
+        <v>19</v>
       </c>
       <c r="D545" t="n">
         <v>1</v>
@@ -11353,7 +11353,7 @@
         <v>0</v>
       </c>
       <c r="C546" t="n">
-        <v>1727.785</v>
+        <v>19</v>
       </c>
       <c r="D546" t="n">
         <v>0</v>
@@ -11373,7 +11373,7 @@
         <v>1</v>
       </c>
       <c r="C547" t="n">
-        <v>26109.32905</v>
+        <v>56</v>
       </c>
       <c r="D547" t="n">
         <v>1</v>
@@ -11393,7 +11393,7 @@
         <v>0</v>
       </c>
       <c r="C548" t="n">
-        <v>7526.70645</v>
+        <v>46</v>
       </c>
       <c r="D548" t="n">
         <v>1</v>
@@ -11413,7 +11413,7 @@
         <v>0</v>
       </c>
       <c r="C549" t="n">
-        <v>4320.41085</v>
+        <v>34</v>
       </c>
       <c r="D549" t="n">
         <v>1</v>
@@ -11433,7 +11433,7 @@
         <v>2</v>
       </c>
       <c r="C550" t="n">
-        <v>6455.86265</v>
+        <v>38</v>
       </c>
       <c r="D550" t="n">
         <v>1</v>
@@ -11453,7 +11453,7 @@
         <v>0</v>
       </c>
       <c r="C551" t="n">
-        <v>10602.385</v>
+        <v>56</v>
       </c>
       <c r="D551" t="n">
         <v>1</v>
@@ -11473,7 +11473,7 @@
         <v>2</v>
       </c>
       <c r="C552" t="n">
-        <v>4433.9159</v>
+        <v>29</v>
       </c>
       <c r="D552" t="n">
         <v>1</v>
@@ -11493,7 +11493,7 @@
         <v>3</v>
       </c>
       <c r="C553" t="n">
-        <v>8891.139499999999</v>
+        <v>44</v>
       </c>
       <c r="D553" t="n">
         <v>1</v>
@@ -11513,7 +11513,7 @@
         <v>3</v>
       </c>
       <c r="C554" t="n">
-        <v>12495.29085</v>
+        <v>54</v>
       </c>
       <c r="D554" t="n">
         <v>0</v>
@@ -11533,7 +11533,7 @@
         <v>2</v>
       </c>
       <c r="C555" t="n">
-        <v>6600.361</v>
+        <v>40</v>
       </c>
       <c r="D555" t="n">
         <v>1</v>
@@ -11553,7 +11553,7 @@
         <v>1</v>
       </c>
       <c r="C556" t="n">
-        <v>8823.98575</v>
+        <v>46</v>
       </c>
       <c r="D556" t="n">
         <v>0</v>
@@ -11573,7 +11573,7 @@
         <v>4</v>
       </c>
       <c r="C557" t="n">
-        <v>4504.6624</v>
+        <v>25</v>
       </c>
       <c r="D557" t="n">
         <v>1</v>
@@ -11593,7 +11593,7 @@
         <v>2</v>
       </c>
       <c r="C558" t="n">
-        <v>7265.7025</v>
+        <v>41</v>
       </c>
       <c r="D558" t="n">
         <v>1</v>
@@ -11613,7 +11613,7 @@
         <v>2</v>
       </c>
       <c r="C559" t="n">
-        <v>15019.76005</v>
+        <v>62</v>
       </c>
       <c r="D559" t="n">
         <v>0</v>
@@ -11633,7 +11633,7 @@
         <v>3</v>
       </c>
       <c r="C560" t="n">
-        <v>30063.58055</v>
+        <v>55</v>
       </c>
       <c r="D560" t="n">
         <v>1</v>
@@ -11653,7 +11653,7 @@
         <v>2</v>
       </c>
       <c r="C561" t="n">
-        <v>12928.7911</v>
+        <v>59</v>
       </c>
       <c r="D561" t="n">
         <v>1</v>
@@ -11673,7 +11673,7 @@
         <v>0</v>
       </c>
       <c r="C562" t="n">
-        <v>20234.85475</v>
+        <v>35</v>
       </c>
       <c r="D562" t="n">
         <v>0</v>
@@ -11693,7 +11693,7 @@
         <v>1</v>
       </c>
       <c r="C563" t="n">
-        <v>3577.999</v>
+        <v>27</v>
       </c>
       <c r="D563" t="n">
         <v>0</v>
@@ -11713,7 +11713,7 @@
         <v>2</v>
       </c>
       <c r="C564" t="n">
-        <v>8116.26885</v>
+        <v>44</v>
       </c>
       <c r="D564" t="n">
         <v>1</v>
@@ -11733,7 +11733,7 @@
         <v>0</v>
       </c>
       <c r="C565" t="n">
-        <v>11345.519</v>
+        <v>58</v>
       </c>
       <c r="D565" t="n">
         <v>1</v>
@@ -11753,7 +11753,7 @@
         <v>3</v>
       </c>
       <c r="C566" t="n">
-        <v>15612.19335</v>
+        <v>62</v>
       </c>
       <c r="D566" t="n">
         <v>0</v>
@@ -11773,7 +11773,7 @@
         <v>1</v>
       </c>
       <c r="C567" t="n">
-        <v>9583.8933</v>
+        <v>49</v>
       </c>
       <c r="D567" t="n">
         <v>0</v>
@@ -11793,7 +11793,7 @@
         <v>1</v>
       </c>
       <c r="C568" t="n">
-        <v>1711.0268</v>
+        <v>18</v>
       </c>
       <c r="D568" t="n">
         <v>1</v>
@@ -11813,7 +11813,7 @@
         <v>1</v>
       </c>
       <c r="C569" t="n">
-        <v>5148.5526</v>
+        <v>32</v>
       </c>
       <c r="D569" t="n">
         <v>0</v>
@@ -11833,7 +11833,7 @@
         <v>2</v>
       </c>
       <c r="C570" t="n">
-        <v>23563.01618</v>
+        <v>39</v>
       </c>
       <c r="D570" t="n">
         <v>1</v>
@@ -11853,7 +11853,7 @@
         <v>0</v>
       </c>
       <c r="C571" t="n">
-        <v>26125.67477</v>
+        <v>20</v>
       </c>
       <c r="D571" t="n">
         <v>0</v>
@@ -11873,7 +11873,7 @@
         <v>2</v>
       </c>
       <c r="C572" t="n">
-        <v>11538.421</v>
+        <v>54</v>
       </c>
       <c r="D572" t="n">
         <v>0</v>
@@ -11893,7 +11893,7 @@
         <v>3</v>
       </c>
       <c r="C573" t="n">
-        <v>60021.39897</v>
+        <v>52</v>
       </c>
       <c r="D573" t="n">
         <v>1</v>
@@ -11913,7 +11913,7 @@
         <v>1</v>
       </c>
       <c r="C574" t="n">
-        <v>26236.57997</v>
+        <v>47</v>
       </c>
       <c r="D574" t="n">
         <v>0</v>
@@ -11933,7 +11933,7 @@
         <v>3</v>
       </c>
       <c r="C575" t="n">
-        <v>36189.1017</v>
+        <v>23</v>
       </c>
       <c r="D575" t="n">
         <v>1</v>
@@ -11953,7 +11953,7 @@
         <v>0</v>
       </c>
       <c r="C576" t="n">
-        <v>4883.866</v>
+        <v>36</v>
       </c>
       <c r="D576" t="n">
         <v>0</v>
@@ -11973,7 +11973,7 @@
         <v>2</v>
       </c>
       <c r="C577" t="n">
-        <v>11881.9696</v>
+        <v>55</v>
       </c>
       <c r="D577" t="n">
         <v>0</v>
@@ -11993,7 +11993,7 @@
         <v>1</v>
       </c>
       <c r="C578" t="n">
-        <v>9290.139499999999</v>
+        <v>49</v>
       </c>
       <c r="D578" t="n">
         <v>1</v>
@@ -12013,7 +12013,7 @@
         <v>0</v>
       </c>
       <c r="C579" t="n">
-        <v>7222.78625</v>
+        <v>45</v>
       </c>
       <c r="D579" t="n">
         <v>1</v>
@@ -12033,7 +12033,7 @@
         <v>2</v>
       </c>
       <c r="C580" t="n">
-        <v>3925.7582</v>
+        <v>22</v>
       </c>
       <c r="D580" t="n">
         <v>0</v>
@@ -12053,7 +12053,7 @@
         <v>0</v>
       </c>
       <c r="C581" t="n">
-        <v>1163.4627</v>
+        <v>18</v>
       </c>
       <c r="D581" t="n">
         <v>1</v>
@@ -12073,7 +12073,7 @@
         <v>0</v>
       </c>
       <c r="C582" t="n">
-        <v>2217.6012</v>
+        <v>18</v>
       </c>
       <c r="D582" t="n">
         <v>0</v>
@@ -12093,7 +12093,7 @@
         <v>0</v>
       </c>
       <c r="C583" t="n">
-        <v>28950.4692</v>
+        <v>63</v>
       </c>
       <c r="D583" t="n">
         <v>0</v>
@@ -12113,7 +12113,7 @@
         <v>0</v>
       </c>
       <c r="C584" t="n">
-        <v>18033.9679</v>
+        <v>23</v>
       </c>
       <c r="D584" t="n">
         <v>0</v>
@@ -12133,7 +12133,7 @@
         <v>2</v>
       </c>
       <c r="C585" t="n">
-        <v>14455.64405</v>
+        <v>26</v>
       </c>
       <c r="D585" t="n">
         <v>0</v>
@@ -12153,7 +12153,7 @@
         <v>2</v>
       </c>
       <c r="C586" t="n">
-        <v>7726.854</v>
+        <v>44</v>
       </c>
       <c r="D586" t="n">
         <v>1</v>
@@ -12173,7 +12173,7 @@
         <v>0</v>
       </c>
       <c r="C587" t="n">
-        <v>4415.1588</v>
+        <v>34</v>
       </c>
       <c r="D587" t="n">
         <v>0</v>
@@ -12193,7 +12193,7 @@
         <v>2</v>
       </c>
       <c r="C588" t="n">
-        <v>5327.40025</v>
+        <v>31</v>
       </c>
       <c r="D588" t="n">
         <v>0</v>
@@ -12213,7 +12213,7 @@
         <v>0</v>
       </c>
       <c r="C589" t="n">
-        <v>36197.699</v>
+        <v>29</v>
       </c>
       <c r="D589" t="n">
         <v>1</v>
@@ -12233,7 +12233,7 @@
         <v>2</v>
       </c>
       <c r="C590" t="n">
-        <v>16069.08475</v>
+        <v>64</v>
       </c>
       <c r="D590" t="n">
         <v>0</v>
@@ -12253,7 +12253,7 @@
         <v>2</v>
       </c>
       <c r="C591" t="n">
-        <v>17361.7661</v>
+        <v>30</v>
       </c>
       <c r="D591" t="n">
         <v>1</v>
@@ -12273,7 +12273,7 @@
         <v>0</v>
       </c>
       <c r="C592" t="n">
-        <v>11658.11505</v>
+        <v>56</v>
       </c>
       <c r="D592" t="n">
         <v>0</v>
@@ -12293,7 +12293,7 @@
         <v>3</v>
       </c>
       <c r="C593" t="n">
-        <v>11488.31695</v>
+        <v>52</v>
       </c>
       <c r="D593" t="n">
         <v>1</v>
@@ -12313,7 +12313,7 @@
         <v>2</v>
       </c>
       <c r="C594" t="n">
-        <v>18608.262</v>
+        <v>36</v>
       </c>
       <c r="D594" t="n">
         <v>0</v>
@@ -12333,7 +12333,7 @@
         <v>0</v>
       </c>
       <c r="C595" t="n">
-        <v>9174.13565</v>
+        <v>51</v>
       </c>
       <c r="D595" t="n">
         <v>1</v>
@@ -12353,7 +12353,7 @@
         <v>0</v>
       </c>
       <c r="C596" t="n">
-        <v>17468.9839</v>
+        <v>19</v>
       </c>
       <c r="D596" t="n">
         <v>0</v>
@@ -12373,7 +12373,7 @@
         <v>0</v>
       </c>
       <c r="C597" t="n">
-        <v>14283.4594</v>
+        <v>18</v>
       </c>
       <c r="D597" t="n">
         <v>0</v>
@@ -12393,7 +12393,7 @@
         <v>0</v>
       </c>
       <c r="C598" t="n">
-        <v>11082.5772</v>
+        <v>55</v>
       </c>
       <c r="D598" t="n">
         <v>0</v>
@@ -12413,7 +12413,7 @@
         <v>0</v>
       </c>
       <c r="C599" t="n">
-        <v>2974.126</v>
+        <v>27</v>
       </c>
       <c r="D599" t="n">
         <v>0</v>
@@ -12433,7 +12433,7 @@
         <v>0</v>
       </c>
       <c r="C600" t="n">
-        <v>21595.38229</v>
+        <v>23</v>
       </c>
       <c r="D600" t="n">
         <v>1</v>
@@ -12453,7 +12453,7 @@
         <v>2</v>
       </c>
       <c r="C601" t="n">
-        <v>24535.69855</v>
+        <v>47</v>
       </c>
       <c r="D601" t="n">
         <v>0</v>
@@ -12473,7 +12473,7 @@
         <v>0</v>
       </c>
       <c r="C602" t="n">
-        <v>11833.7823</v>
+        <v>58</v>
       </c>
       <c r="D602" t="n">
         <v>0</v>
@@ -12493,7 +12493,7 @@
         <v>2</v>
       </c>
       <c r="C603" t="n">
-        <v>8211.100200000001</v>
+        <v>44</v>
       </c>
       <c r="D603" t="n">
         <v>0</v>
@@ -12513,7 +12513,7 @@
         <v>2</v>
       </c>
       <c r="C604" t="n">
-        <v>6198.7518</v>
+        <v>37</v>
       </c>
       <c r="D604" t="n">
         <v>1</v>
@@ -12533,7 +12533,7 @@
         <v>1</v>
       </c>
       <c r="C605" t="n">
-        <v>7045.499</v>
+        <v>42</v>
       </c>
       <c r="D605" t="n">
         <v>0</v>
@@ -12553,7 +12553,7 @@
         <v>3</v>
       </c>
       <c r="C606" t="n">
-        <v>6548.19505</v>
+        <v>36</v>
       </c>
       <c r="D606" t="n">
         <v>1</v>
@@ -12573,7 +12573,7 @@
         <v>0</v>
       </c>
       <c r="C607" t="n">
-        <v>27808.7251</v>
+        <v>62</v>
       </c>
       <c r="D607" t="n">
         <v>0</v>
@@ -12593,7 +12593,7 @@
         <v>3</v>
       </c>
       <c r="C608" t="n">
-        <v>8522.003000000001</v>
+        <v>43</v>
       </c>
       <c r="D608" t="n">
         <v>0</v>
@@ -12613,7 +12613,7 @@
         <v>5</v>
       </c>
       <c r="C609" t="n">
-        <v>8965.795749999999</v>
+        <v>39</v>
       </c>
       <c r="D609" t="n">
         <v>0</v>
@@ -12633,7 +12633,7 @@
         <v>2</v>
       </c>
       <c r="C610" t="n">
-        <v>3847.674</v>
+        <v>28</v>
       </c>
       <c r="D610" t="n">
         <v>1</v>
@@ -12653,7 +12653,7 @@
         <v>1</v>
       </c>
       <c r="C611" t="n">
-        <v>6272.4772</v>
+        <v>41</v>
       </c>
       <c r="D611" t="n">
         <v>1</v>
@@ -12673,7 +12673,7 @@
         <v>0</v>
       </c>
       <c r="C612" t="n">
-        <v>12323.936</v>
+        <v>59</v>
       </c>
       <c r="D612" t="n">
         <v>1</v>
@@ -12693,7 +12693,7 @@
         <v>3</v>
       </c>
       <c r="C613" t="n">
-        <v>6128.79745</v>
+        <v>32</v>
       </c>
       <c r="D613" t="n">
         <v>0</v>
@@ -12713,7 +12713,7 @@
         <v>0</v>
       </c>
       <c r="C614" t="n">
-        <v>9140.950999999999</v>
+        <v>52</v>
       </c>
       <c r="D614" t="n">
         <v>1</v>
@@ -12733,7 +12733,7 @@
         <v>0</v>
       </c>
       <c r="C615" t="n">
-        <v>1664.9996</v>
+        <v>22</v>
       </c>
       <c r="D615" t="n">
         <v>1</v>
@@ -12753,7 +12753,7 @@
         <v>1</v>
       </c>
       <c r="C616" t="n">
-        <v>5377.4578</v>
+        <v>36</v>
       </c>
       <c r="D616" t="n">
         <v>1</v>
@@ -12773,7 +12773,7 @@
         <v>3</v>
       </c>
       <c r="C617" t="n">
-        <v>14590.63205</v>
+        <v>59</v>
       </c>
       <c r="D617" t="n">
         <v>0</v>
@@ -12793,7 +12793,7 @@
         <v>1</v>
       </c>
       <c r="C618" t="n">
-        <v>9957.721600000001</v>
+        <v>51</v>
       </c>
       <c r="D618" t="n">
         <v>1</v>
@@ -12813,7 +12813,7 @@
         <v>1</v>
       </c>
       <c r="C619" t="n">
-        <v>6555.07035</v>
+        <v>38</v>
       </c>
       <c r="D619" t="n">
         <v>0</v>
@@ -12833,7 +12833,7 @@
         <v>0</v>
       </c>
       <c r="C620" t="n">
-        <v>2104.1134</v>
+        <v>21</v>
       </c>
       <c r="D620" t="n">
         <v>1</v>
@@ -12853,7 +12853,7 @@
         <v>0</v>
       </c>
       <c r="C621" t="n">
-        <v>10231.4999</v>
+        <v>54</v>
       </c>
       <c r="D621" t="n">
         <v>1</v>
@@ -12873,7 +12873,7 @@
         <v>0</v>
       </c>
       <c r="C622" t="n">
-        <v>6474.013</v>
+        <v>42</v>
       </c>
       <c r="D622" t="n">
         <v>0</v>
@@ -12893,7 +12893,7 @@
         <v>2</v>
       </c>
       <c r="C623" t="n">
-        <v>46200.9851</v>
+        <v>44</v>
       </c>
       <c r="D623" t="n">
         <v>0</v>
@@ -12913,7 +12913,7 @@
         <v>1</v>
       </c>
       <c r="C624" t="n">
-        <v>34806.4677</v>
+        <v>27</v>
       </c>
       <c r="D624" t="n">
         <v>1</v>
@@ -12933,7 +12933,7 @@
         <v>0</v>
       </c>
       <c r="C625" t="n">
-        <v>2850.68375</v>
+        <v>24</v>
       </c>
       <c r="D625" t="n">
         <v>0</v>
@@ -12953,7 +12953,7 @@
         <v>2</v>
       </c>
       <c r="C626" t="n">
-        <v>14119.62</v>
+        <v>61</v>
       </c>
       <c r="D626" t="n">
         <v>1</v>
@@ -12973,7 +12973,7 @@
         <v>1</v>
       </c>
       <c r="C627" t="n">
-        <v>6940.90985</v>
+        <v>42</v>
       </c>
       <c r="D627" t="n">
         <v>1</v>
@@ -12993,7 +12993,7 @@
         <v>3</v>
       </c>
       <c r="C628" t="n">
-        <v>19749.38338</v>
+        <v>50</v>
       </c>
       <c r="D628" t="n">
         <v>0</v>
@@ -13013,7 +13013,7 @@
         <v>0</v>
       </c>
       <c r="C629" t="n">
-        <v>13063.883</v>
+        <v>61</v>
       </c>
       <c r="D629" t="n">
         <v>0</v>
@@ -13033,7 +13033,7 @@
         <v>2</v>
       </c>
       <c r="C630" t="n">
-        <v>8978.185100000001</v>
+        <v>48</v>
       </c>
       <c r="D630" t="n">
         <v>1</v>
@@ -13053,7 +13053,7 @@
         <v>0</v>
       </c>
       <c r="C631" t="n">
-        <v>5400.9805</v>
+        <v>38</v>
       </c>
       <c r="D631" t="n">
         <v>0</v>
@@ -13073,7 +13073,7 @@
         <v>3</v>
       </c>
       <c r="C632" t="n">
-        <v>11411.685</v>
+        <v>52</v>
       </c>
       <c r="D632" t="n">
         <v>0</v>
@@ -13093,7 +13093,7 @@
         <v>0</v>
       </c>
       <c r="C633" t="n">
-        <v>13822.803</v>
+        <v>64</v>
       </c>
       <c r="D633" t="n">
         <v>1</v>
@@ -13113,7 +13113,7 @@
         <v>0</v>
       </c>
       <c r="C634" t="n">
-        <v>10197.7722</v>
+        <v>52</v>
       </c>
       <c r="D634" t="n">
         <v>0</v>
@@ -13133,7 +13133,7 @@
         <v>1</v>
       </c>
       <c r="C635" t="n">
-        <v>1837.237</v>
+        <v>19</v>
       </c>
       <c r="D635" t="n">
         <v>1</v>
@@ -13153,7 +13153,7 @@
         <v>0</v>
       </c>
       <c r="C636" t="n">
-        <v>11362.755</v>
+        <v>58</v>
       </c>
       <c r="D636" t="n">
         <v>1</v>
@@ -13173,7 +13173,7 @@
         <v>0</v>
       </c>
       <c r="C637" t="n">
-        <v>2866.091</v>
+        <v>29</v>
       </c>
       <c r="D637" t="n">
         <v>1</v>
@@ -13193,7 +13193,7 @@
         <v>0</v>
       </c>
       <c r="C638" t="n">
-        <v>14319.031</v>
+        <v>64</v>
       </c>
       <c r="D638" t="n">
         <v>0</v>
@@ -13213,7 +13213,7 @@
         <v>0</v>
       </c>
       <c r="C639" t="n">
-        <v>25678.77845</v>
+        <v>59</v>
       </c>
       <c r="D639" t="n">
         <v>0</v>
@@ -13233,7 +13233,7 @@
         <v>0</v>
       </c>
       <c r="C640" t="n">
-        <v>19350.3689</v>
+        <v>31</v>
       </c>
       <c r="D640" t="n">
         <v>1</v>
@@ -13253,7 +13253,7 @@
         <v>1</v>
       </c>
       <c r="C641" t="n">
-        <v>16796.41194</v>
+        <v>27</v>
       </c>
       <c r="D641" t="n">
         <v>0</v>
@@ -13273,7 +13273,7 @@
         <v>0</v>
       </c>
       <c r="C642" t="n">
-        <v>35069.37452</v>
+        <v>45</v>
       </c>
       <c r="D642" t="n">
         <v>1</v>
@@ -13293,7 +13293,7 @@
         <v>2</v>
       </c>
       <c r="C643" t="n">
-        <v>4564.19145</v>
+        <v>26</v>
       </c>
       <c r="D643" t="n">
         <v>0</v>
@@ -13313,7 +13313,7 @@
         <v>3</v>
       </c>
       <c r="C644" t="n">
-        <v>5253.524</v>
+        <v>32</v>
       </c>
       <c r="D644" t="n">
         <v>1</v>
@@ -13333,7 +13333,7 @@
         <v>3</v>
       </c>
       <c r="C645" t="n">
-        <v>8538.28845</v>
+        <v>41</v>
       </c>
       <c r="D645" t="n">
         <v>0</v>
@@ -13353,7 +13353,7 @@
         <v>0</v>
       </c>
       <c r="C646" t="n">
-        <v>39727.614</v>
+        <v>49</v>
       </c>
       <c r="D646" t="n">
         <v>1</v>
@@ -13373,7 +13373,7 @@
         <v>0</v>
       </c>
       <c r="C647" t="n">
-        <v>15820.699</v>
+        <v>38</v>
       </c>
       <c r="D647" t="n">
         <v>1</v>
@@ -13393,7 +13393,7 @@
         <v>0</v>
       </c>
       <c r="C648" t="n">
-        <v>4402.233</v>
+        <v>36</v>
       </c>
       <c r="D648" t="n">
         <v>1</v>
@@ -13413,7 +13413,7 @@
         <v>0</v>
       </c>
       <c r="C649" t="n">
-        <v>23065.4207</v>
+        <v>47</v>
       </c>
       <c r="D649" t="n">
         <v>0</v>
@@ -13433,7 +13433,7 @@
         <v>0</v>
       </c>
       <c r="C650" t="n">
-        <v>3994.1778</v>
+        <v>32</v>
       </c>
       <c r="D650" t="n">
         <v>0</v>
@@ -13453,7 +13453,7 @@
         <v>1</v>
       </c>
       <c r="C651" t="n">
-        <v>2416.955</v>
+        <v>23</v>
       </c>
       <c r="D651" t="n">
         <v>1</v>
@@ -13473,7 +13473,7 @@
         <v>0</v>
       </c>
       <c r="C652" t="n">
-        <v>1137.011</v>
+        <v>18</v>
       </c>
       <c r="D652" t="n">
         <v>1</v>
@@ -13493,7 +13493,7 @@
         <v>3</v>
       </c>
       <c r="C653" t="n">
-        <v>8944.115100000001</v>
+        <v>46</v>
       </c>
       <c r="D653" t="n">
         <v>1</v>
@@ -13513,7 +13513,7 @@
         <v>1</v>
       </c>
       <c r="C654" t="n">
-        <v>9447.25035</v>
+        <v>48</v>
       </c>
       <c r="D654" t="n">
         <v>0</v>
@@ -13533,7 +13533,7 @@
         <v>3</v>
       </c>
       <c r="C655" t="n">
-        <v>24180.9335</v>
+        <v>48</v>
       </c>
       <c r="D655" t="n">
         <v>0</v>
@@ -13553,7 +13553,7 @@
         <v>2</v>
       </c>
       <c r="C656" t="n">
-        <v>49577.6624</v>
+        <v>64</v>
       </c>
       <c r="D656" t="n">
         <v>1</v>
@@ -13573,7 +13573,7 @@
         <v>2</v>
       </c>
       <c r="C657" t="n">
-        <v>6571.544</v>
+        <v>38</v>
       </c>
       <c r="D657" t="n">
         <v>0</v>
@@ -13593,7 +13593,7 @@
         <v>0</v>
       </c>
       <c r="C658" t="n">
-        <v>36898.73308</v>
+        <v>19</v>
       </c>
       <c r="D658" t="n">
         <v>0</v>
@@ -13613,7 +13613,7 @@
         <v>0</v>
       </c>
       <c r="C659" t="n">
-        <v>18955.22017</v>
+        <v>24</v>
       </c>
       <c r="D659" t="n">
         <v>0</v>
@@ -13633,7 +13633,7 @@
         <v>2</v>
       </c>
       <c r="C660" t="n">
-        <v>4906.40965</v>
+        <v>29</v>
       </c>
       <c r="D660" t="n">
         <v>0</v>
@@ -13653,7 +13653,7 @@
         <v>0</v>
       </c>
       <c r="C661" t="n">
-        <v>1759.338</v>
+        <v>19</v>
       </c>
       <c r="D661" t="n">
         <v>0</v>
@@ -13673,7 +13673,7 @@
         <v>0</v>
       </c>
       <c r="C662" t="n">
-        <v>2483.736</v>
+        <v>27</v>
       </c>
       <c r="D662" t="n">
         <v>1</v>
@@ -13693,7 +13693,7 @@
         <v>0</v>
       </c>
       <c r="C663" t="n">
-        <v>33732.6867</v>
+        <v>18</v>
       </c>
       <c r="D663" t="n">
         <v>1</v>
@@ -13713,7 +13713,7 @@
         <v>0</v>
       </c>
       <c r="C664" t="n">
-        <v>37133.8982</v>
+        <v>27</v>
       </c>
       <c r="D664" t="n">
         <v>0</v>
@@ -13733,7 +13733,7 @@
         <v>2</v>
       </c>
       <c r="C665" t="n">
-        <v>11884.04858</v>
+        <v>18</v>
       </c>
       <c r="D665" t="n">
         <v>1</v>
@@ -13753,7 +13753,7 @@
         <v>0</v>
       </c>
       <c r="C666" t="n">
-        <v>11286.5387</v>
+        <v>55</v>
       </c>
       <c r="D666" t="n">
         <v>0</v>
@@ -13773,7 +13773,7 @@
         <v>2</v>
       </c>
       <c r="C667" t="n">
-        <v>5729.0053</v>
+        <v>35</v>
       </c>
       <c r="D667" t="n">
         <v>1</v>
@@ -13793,7 +13793,7 @@
         <v>3</v>
       </c>
       <c r="C668" t="n">
-        <v>16420.49455</v>
+        <v>27</v>
       </c>
       <c r="D668" t="n">
         <v>0</v>
@@ -13813,7 +13813,7 @@
         <v>0</v>
       </c>
       <c r="C669" t="n">
-        <v>5920.1041</v>
+        <v>40</v>
       </c>
       <c r="D669" t="n">
         <v>0</v>
@@ -13833,7 +13833,7 @@
         <v>1</v>
       </c>
       <c r="C670" t="n">
-        <v>17178.6824</v>
+        <v>18</v>
       </c>
       <c r="D670" t="n">
         <v>1</v>
@@ -13853,7 +13853,7 @@
         <v>0</v>
       </c>
       <c r="C671" t="n">
-        <v>9625.92</v>
+        <v>52</v>
       </c>
       <c r="D671" t="n">
         <v>0</v>
@@ -13873,7 +13873,7 @@
         <v>2</v>
       </c>
       <c r="C672" t="n">
-        <v>29186.48236</v>
+        <v>53</v>
       </c>
       <c r="D672" t="n">
         <v>0</v>
@@ -13893,7 +13893,7 @@
         <v>2</v>
       </c>
       <c r="C673" t="n">
-        <v>21098.55405</v>
+        <v>45</v>
       </c>
       <c r="D673" t="n">
         <v>1</v>
@@ -13913,7 +13913,7 @@
         <v>1</v>
       </c>
       <c r="C674" t="n">
-        <v>4243.59005</v>
+        <v>31</v>
       </c>
       <c r="D674" t="n">
         <v>1</v>
@@ -13933,7 +13933,7 @@
         <v>0</v>
       </c>
       <c r="C675" t="n">
-        <v>14571.8908</v>
+        <v>24</v>
       </c>
       <c r="D675" t="n">
         <v>0</v>
@@ -13953,7 +13953,7 @@
         <v>0</v>
       </c>
       <c r="C676" t="n">
-        <v>19964.7463</v>
+        <v>42</v>
       </c>
       <c r="D676" t="n">
         <v>0</v>
@@ -13973,7 +13973,7 @@
         <v>0</v>
       </c>
       <c r="C677" t="n">
-        <v>11356.6609</v>
+        <v>57</v>
       </c>
       <c r="D677" t="n">
         <v>1</v>
@@ -13993,7 +13993,7 @@
         <v>1</v>
       </c>
       <c r="C678" t="n">
-        <v>7153.5539</v>
+        <v>41</v>
       </c>
       <c r="D678" t="n">
         <v>0</v>
@@ -14013,7 +14013,7 @@
         <v>0</v>
       </c>
       <c r="C679" t="n">
-        <v>2007.945</v>
+        <v>21</v>
       </c>
       <c r="D679" t="n">
         <v>0</v>
@@ -14033,7 +14033,7 @@
         <v>0</v>
       </c>
       <c r="C680" t="n">
-        <v>13457.9608</v>
+        <v>62</v>
       </c>
       <c r="D680" t="n">
         <v>0</v>
@@ -14053,7 +14053,7 @@
         <v>1</v>
       </c>
       <c r="C681" t="n">
-        <v>12913.9924</v>
+        <v>59</v>
       </c>
       <c r="D681" t="n">
         <v>1</v>
@@ -14073,7 +14073,7 @@
         <v>0</v>
       </c>
       <c r="C682" t="n">
-        <v>12730.9996</v>
+        <v>60</v>
       </c>
       <c r="D682" t="n">
         <v>1</v>
@@ -14093,7 +14093,7 @@
         <v>1</v>
       </c>
       <c r="C683" t="n">
-        <v>5385.3379</v>
+        <v>34</v>
       </c>
       <c r="D683" t="n">
         <v>0</v>
@@ -14113,7 +14113,7 @@
         <v>1</v>
       </c>
       <c r="C684" t="n">
-        <v>6775.961</v>
+        <v>41</v>
       </c>
       <c r="D684" t="n">
         <v>0</v>
@@ -14133,7 +14133,7 @@
         <v>2</v>
       </c>
       <c r="C685" t="n">
-        <v>42856.838</v>
+        <v>50</v>
       </c>
       <c r="D685" t="n">
         <v>1</v>
@@ -14153,7 +14153,7 @@
         <v>0</v>
       </c>
       <c r="C686" t="n">
-        <v>29141.3603</v>
+        <v>61</v>
       </c>
       <c r="D686" t="n">
         <v>0</v>
@@ -14173,7 +14173,7 @@
         <v>4</v>
       </c>
       <c r="C687" t="n">
-        <v>4877.98105</v>
+        <v>25</v>
       </c>
       <c r="D687" t="n">
         <v>1</v>
@@ -14193,7 +14193,7 @@
         <v>0</v>
       </c>
       <c r="C688" t="n">
-        <v>1615.7667</v>
+        <v>18</v>
       </c>
       <c r="D688" t="n">
         <v>0</v>
@@ -14213,7 +14213,7 @@
         <v>0</v>
       </c>
       <c r="C689" t="n">
-        <v>1253.936</v>
+        <v>19</v>
       </c>
       <c r="D689" t="n">
         <v>1</v>
@@ -14233,7 +14233,7 @@
         <v>0</v>
       </c>
       <c r="C690" t="n">
-        <v>1515.3449</v>
+        <v>21</v>
       </c>
       <c r="D690" t="n">
         <v>1</v>
@@ -14253,7 +14253,7 @@
         <v>0</v>
       </c>
       <c r="C691" t="n">
-        <v>1646.4297</v>
+        <v>19</v>
       </c>
       <c r="D691" t="n">
         <v>1</v>
@@ -14273,7 +14273,7 @@
         <v>1</v>
       </c>
       <c r="C692" t="n">
-        <v>19107.7796</v>
+        <v>29</v>
       </c>
       <c r="D692" t="n">
         <v>0</v>
@@ -14293,7 +14293,7 @@
         <v>2</v>
       </c>
       <c r="C693" t="n">
-        <v>24915.04626</v>
+        <v>35</v>
       </c>
       <c r="D693" t="n">
         <v>0</v>
@@ -14313,7 +14313,7 @@
         <v>2</v>
       </c>
       <c r="C694" t="n">
-        <v>36910.60803</v>
+        <v>59</v>
       </c>
       <c r="D694" t="n">
         <v>0</v>
@@ -14333,7 +14333,7 @@
         <v>0</v>
       </c>
       <c r="C695" t="n">
-        <v>14313.8463</v>
+        <v>64</v>
       </c>
       <c r="D695" t="n">
         <v>0</v>
@@ -14353,7 +14353,7 @@
         <v>0</v>
       </c>
       <c r="C696" t="n">
-        <v>19539.243</v>
+        <v>37</v>
       </c>
       <c r="D696" t="n">
         <v>0</v>
@@ -14373,7 +14373,7 @@
         <v>0</v>
       </c>
       <c r="C697" t="n">
-        <v>9361.326800000001</v>
+        <v>51</v>
       </c>
       <c r="D697" t="n">
         <v>1</v>
@@ -14393,7 +14393,7 @@
         <v>2</v>
       </c>
       <c r="C698" t="n">
-        <v>7173.35995</v>
+        <v>40</v>
       </c>
       <c r="D698" t="n">
         <v>1</v>
@@ -14413,7 +14413,7 @@
         <v>1</v>
       </c>
       <c r="C699" t="n">
-        <v>2902.9065</v>
+        <v>26</v>
       </c>
       <c r="D699" t="n">
         <v>1</v>
@@ -14433,7 +14433,7 @@
         <v>1</v>
       </c>
       <c r="C700" t="n">
-        <v>6496.886</v>
+        <v>40</v>
       </c>
       <c r="D700" t="n">
         <v>0</v>
@@ -14453,7 +14453,7 @@
         <v>1</v>
       </c>
       <c r="C701" t="n">
-        <v>7633.7206</v>
+        <v>44</v>
       </c>
       <c r="D701" t="n">
         <v>0</v>
@@ -14473,7 +14473,7 @@
         <v>1</v>
       </c>
       <c r="C702" t="n">
-        <v>3956.07145</v>
+        <v>27</v>
       </c>
       <c r="D702" t="n">
         <v>0</v>
@@ -14493,7 +14493,7 @@
         <v>0</v>
       </c>
       <c r="C703" t="n">
-        <v>17081.08</v>
+        <v>19</v>
       </c>
       <c r="D703" t="n">
         <v>0</v>
@@ -14513,7 +14513,7 @@
         <v>0</v>
       </c>
       <c r="C704" t="n">
-        <v>5662.225</v>
+        <v>39</v>
       </c>
       <c r="D704" t="n">
         <v>0</v>
@@ -14533,7 +14533,7 @@
         <v>1</v>
       </c>
       <c r="C705" t="n">
-        <v>6117.4945</v>
+        <v>39</v>
       </c>
       <c r="D705" t="n">
         <v>1</v>
@@ -14553,7 +14553,7 @@
         <v>0</v>
       </c>
       <c r="C706" t="n">
-        <v>11381.3254</v>
+        <v>58</v>
       </c>
       <c r="D706" t="n">
         <v>1</v>
@@ -14573,7 +14573,7 @@
         <v>0</v>
       </c>
       <c r="C707" t="n">
-        <v>20878.78443</v>
+        <v>47</v>
       </c>
       <c r="D707" t="n">
         <v>0</v>
@@ -14593,7 +14593,7 @@
         <v>2</v>
       </c>
       <c r="C708" t="n">
-        <v>8604.48365</v>
+        <v>45</v>
       </c>
       <c r="D708" t="n">
         <v>1</v>
@@ -14613,7 +14613,7 @@
         <v>2</v>
       </c>
       <c r="C709" t="n">
-        <v>3693.428</v>
+        <v>27</v>
       </c>
       <c r="D709" t="n">
         <v>1</v>
@@ -14633,7 +14633,7 @@
         <v>0</v>
       </c>
       <c r="C710" t="n">
-        <v>11534.87265</v>
+        <v>57</v>
       </c>
       <c r="D710" t="n">
         <v>1</v>
@@ -14653,7 +14653,7 @@
         <v>2</v>
       </c>
       <c r="C711" t="n">
-        <v>34303.1672</v>
+        <v>18</v>
       </c>
       <c r="D711" t="n">
         <v>1</v>
@@ -14673,7 +14673,7 @@
         <v>3</v>
       </c>
       <c r="C712" t="n">
-        <v>16085.1275</v>
+        <v>64</v>
       </c>
       <c r="D712" t="n">
         <v>0</v>
@@ -14693,7 +14693,7 @@
         <v>0</v>
       </c>
       <c r="C713" t="n">
-        <v>12741.16745</v>
+        <v>60</v>
       </c>
       <c r="D713" t="n">
         <v>1</v>
@@ -14713,7 +14713,7 @@
         <v>0</v>
       </c>
       <c r="C714" t="n">
-        <v>13393.756</v>
+        <v>63</v>
       </c>
       <c r="D714" t="n">
         <v>1</v>
@@ -14733,7 +14733,7 @@
         <v>2</v>
       </c>
       <c r="C715" t="n">
-        <v>6686.4313</v>
+        <v>37</v>
       </c>
       <c r="D715" t="n">
         <v>0</v>
@@ -14753,7 +14753,7 @@
         <v>1</v>
       </c>
       <c r="C716" t="n">
-        <v>3410.324</v>
+        <v>26</v>
       </c>
       <c r="D716" t="n">
         <v>0</v>
@@ -14773,7 +14773,7 @@
         <v>0</v>
       </c>
       <c r="C717" t="n">
-        <v>2102.2647</v>
+        <v>21</v>
       </c>
       <c r="D717" t="n">
         <v>1</v>
@@ -14793,7 +14793,7 @@
         <v>1</v>
       </c>
       <c r="C718" t="n">
-        <v>6500.2359</v>
+        <v>40</v>
       </c>
       <c r="D718" t="n">
         <v>0</v>
@@ -14813,7 +14813,7 @@
         <v>1</v>
       </c>
       <c r="C719" t="n">
-        <v>17560.37975</v>
+        <v>20</v>
       </c>
       <c r="D719" t="n">
         <v>1</v>
@@ -14833,7 +14833,7 @@
         <v>0</v>
       </c>
       <c r="C720" t="n">
-        <v>14410.9321</v>
+        <v>64</v>
       </c>
       <c r="D720" t="n">
         <v>1</v>
@@ -14853,7 +14853,7 @@
         <v>3</v>
       </c>
       <c r="C721" t="n">
-        <v>3481.868</v>
+        <v>18</v>
       </c>
       <c r="D721" t="n">
         <v>1</v>
@@ -14873,7 +14873,7 @@
         <v>1</v>
       </c>
       <c r="C722" t="n">
-        <v>7441.053</v>
+        <v>45</v>
       </c>
       <c r="D722" t="n">
         <v>1</v>
@@ -14893,7 +14893,7 @@
         <v>2</v>
       </c>
       <c r="C723" t="n">
-        <v>24667.419</v>
+        <v>52</v>
       </c>
       <c r="D723" t="n">
         <v>0</v>
@@ -14913,7 +14913,7 @@
         <v>0</v>
       </c>
       <c r="C724" t="n">
-        <v>55135.40209</v>
+        <v>33</v>
       </c>
       <c r="D724" t="n">
         <v>0</v>
@@ -14933,7 +14933,7 @@
         <v>0</v>
       </c>
       <c r="C725" t="n">
-        <v>12233.828</v>
+        <v>59</v>
       </c>
       <c r="D725" t="n">
         <v>0</v>
@@ -14953,7 +14953,7 @@
         <v>0</v>
       </c>
       <c r="C726" t="n">
-        <v>1621.8827</v>
+        <v>18</v>
       </c>
       <c r="D726" t="n">
         <v>0</v>
@@ -14973,7 +14973,7 @@
         <v>0</v>
       </c>
       <c r="C727" t="n">
-        <v>1141.4451</v>
+        <v>18</v>
       </c>
       <c r="D727" t="n">
         <v>1</v>
@@ -14993,7 +14993,7 @@
         <v>2</v>
       </c>
       <c r="C728" t="n">
-        <v>3393.35635</v>
+        <v>18</v>
       </c>
       <c r="D728" t="n">
         <v>0</v>
@@ -15013,7 +15013,7 @@
         <v>0</v>
       </c>
       <c r="C729" t="n">
-        <v>1635.73365</v>
+        <v>19</v>
       </c>
       <c r="D729" t="n">
         <v>1</v>
@@ -15033,7 +15033,7 @@
         <v>0</v>
       </c>
       <c r="C730" t="n">
-        <v>39722.7462</v>
+        <v>19</v>
       </c>
       <c r="D730" t="n">
         <v>1</v>
@@ -15053,7 +15053,7 @@
         <v>2</v>
       </c>
       <c r="C731" t="n">
-        <v>7144.86265</v>
+        <v>38</v>
       </c>
       <c r="D731" t="n">
         <v>0</v>
@@ -15073,7 +15073,7 @@
         <v>1</v>
       </c>
       <c r="C732" t="n">
-        <v>26140.3603</v>
+        <v>49</v>
       </c>
       <c r="D732" t="n">
         <v>0</v>
@@ -15093,7 +15093,7 @@
         <v>0</v>
       </c>
       <c r="C733" t="n">
-        <v>17748.5062</v>
+        <v>19</v>
       </c>
       <c r="D733" t="n">
         <v>0</v>
@@ -15113,7 +15113,7 @@
         <v>0</v>
       </c>
       <c r="C734" t="n">
-        <v>1639.5631</v>
+        <v>19</v>
       </c>
       <c r="D734" t="n">
         <v>1</v>
@@ -15133,7 +15133,7 @@
         <v>0</v>
       </c>
       <c r="C735" t="n">
-        <v>21344.8467</v>
+        <v>18</v>
       </c>
       <c r="D735" t="n">
         <v>0</v>
@@ -15153,7 +15153,7 @@
         <v>0</v>
       </c>
       <c r="C736" t="n">
-        <v>3866.8552</v>
+        <v>32</v>
       </c>
       <c r="D736" t="n">
         <v>1</v>
@@ -15173,7 +15173,7 @@
         <v>0</v>
       </c>
       <c r="C737" t="n">
-        <v>10713.644</v>
+        <v>55</v>
       </c>
       <c r="D737" t="n">
         <v>0</v>
@@ -15193,7 +15193,7 @@
         <v>0</v>
       </c>
       <c r="C738" t="n">
-        <v>21232.18226</v>
+        <v>48</v>
       </c>
       <c r="D738" t="n">
         <v>1</v>
@@ -15213,7 +15213,7 @@
         <v>1</v>
       </c>
       <c r="C739" t="n">
-        <v>2219.4451</v>
+        <v>18</v>
       </c>
       <c r="D739" t="n">
         <v>0</v>
@@ -15233,7 +15233,7 @@
         <v>1</v>
       </c>
       <c r="C740" t="n">
-        <v>23568.272</v>
+        <v>48</v>
       </c>
       <c r="D740" t="n">
         <v>1</v>
@@ -15253,7 +15253,7 @@
         <v>0</v>
       </c>
       <c r="C741" t="n">
-        <v>36219.40545</v>
+        <v>19</v>
       </c>
       <c r="D741" t="n">
         <v>1</v>
@@ -15273,7 +15273,7 @@
         <v>1</v>
       </c>
       <c r="C742" t="n">
-        <v>11554.2236</v>
+        <v>57</v>
       </c>
       <c r="D742" t="n">
         <v>1</v>
@@ -15293,7 +15293,7 @@
         <v>0</v>
       </c>
       <c r="C743" t="n">
-        <v>8442.666999999999</v>
+        <v>50</v>
       </c>
       <c r="D743" t="n">
         <v>1</v>
@@ -15313,7 +15313,7 @@
         <v>1</v>
       </c>
       <c r="C744" t="n">
-        <v>28287.89766</v>
+        <v>59</v>
       </c>
       <c r="D744" t="n">
         <v>0</v>
@@ -15333,7 +15333,7 @@
         <v>0</v>
       </c>
       <c r="C745" t="n">
-        <v>1972.95</v>
+        <v>24</v>
       </c>
       <c r="D745" t="n">
         <v>1</v>
@@ -15353,7 +15353,7 @@
         <v>5</v>
       </c>
       <c r="C746" t="n">
-        <v>9222.402599999999</v>
+        <v>41</v>
       </c>
       <c r="D746" t="n">
         <v>1</v>
@@ -15373,7 +15373,7 @@
         <v>1</v>
       </c>
       <c r="C747" t="n">
-        <v>9386.1613</v>
+        <v>51</v>
       </c>
       <c r="D747" t="n">
         <v>1</v>
@@ -15393,7 +15393,7 @@
         <v>0</v>
       </c>
       <c r="C748" t="n">
-        <v>11657.7189</v>
+        <v>56</v>
       </c>
       <c r="D748" t="n">
         <v>0</v>
@@ -15413,7 +15413,7 @@
         <v>3</v>
       </c>
       <c r="C749" t="n">
-        <v>18838.70366</v>
+        <v>19</v>
       </c>
       <c r="D749" t="n">
         <v>0</v>
@@ -15433,7 +15433,7 @@
         <v>1</v>
       </c>
       <c r="C750" t="n">
-        <v>8068.185</v>
+        <v>47</v>
       </c>
       <c r="D750" t="n">
         <v>1</v>
@@ -15453,7 +15453,7 @@
         <v>2</v>
       </c>
       <c r="C751" t="n">
-        <v>12646.207</v>
+        <v>57</v>
       </c>
       <c r="D751" t="n">
         <v>0</v>
@@ -15473,7 +15473,7 @@
         <v>0</v>
       </c>
       <c r="C752" t="n">
-        <v>13352.0998</v>
+        <v>62</v>
       </c>
       <c r="D752" t="n">
         <v>1</v>
@@ -15493,7 +15493,7 @@
         <v>3</v>
       </c>
       <c r="C753" t="n">
-        <v>25309.489</v>
+        <v>47</v>
       </c>
       <c r="D753" t="n">
         <v>1</v>
@@ -15513,7 +15513,7 @@
         <v>0</v>
       </c>
       <c r="C754" t="n">
-        <v>8124.4084</v>
+        <v>49</v>
       </c>
       <c r="D754" t="n">
         <v>1</v>
@@ -15533,7 +15533,7 @@
         <v>1</v>
       </c>
       <c r="C755" t="n">
-        <v>1842.519</v>
+        <v>19</v>
       </c>
       <c r="D755" t="n">
         <v>1</v>
@@ -15553,7 +15553,7 @@
         <v>3</v>
       </c>
       <c r="C756" t="n">
-        <v>10115.00885</v>
+        <v>47</v>
       </c>
       <c r="D756" t="n">
         <v>0</v>
@@ -15573,7 +15573,7 @@
         <v>0</v>
       </c>
       <c r="C757" t="n">
-        <v>13126.67745</v>
+        <v>23</v>
       </c>
       <c r="D757" t="n">
         <v>0</v>
@@ -15593,7 +15593,7 @@
         <v>2</v>
       </c>
       <c r="C758" t="n">
-        <v>13224.05705</v>
+        <v>57</v>
       </c>
       <c r="D758" t="n">
         <v>0</v>
@@ -15613,7 +15613,7 @@
         <v>0</v>
       </c>
       <c r="C759" t="n">
-        <v>2211.13075</v>
+        <v>18</v>
       </c>
       <c r="D759" t="n">
         <v>0</v>
@@ -15633,7 +15633,7 @@
         <v>1</v>
       </c>
       <c r="C760" t="n">
-        <v>8023.13545</v>
+        <v>44</v>
       </c>
       <c r="D760" t="n">
         <v>0</v>
@@ -15653,7 +15653,7 @@
         <v>1</v>
       </c>
       <c r="C761" t="n">
-        <v>6664.68595</v>
+        <v>41</v>
       </c>
       <c r="D761" t="n">
         <v>1</v>
@@ -15673,7 +15673,7 @@
         <v>0</v>
       </c>
       <c r="C762" t="n">
-        <v>11743.9341</v>
+        <v>58</v>
       </c>
       <c r="D762" t="n">
         <v>1</v>
@@ -15693,7 +15693,7 @@
         <v>0</v>
       </c>
       <c r="C763" t="n">
-        <v>2497.0383</v>
+        <v>27</v>
       </c>
       <c r="D763" t="n">
         <v>1</v>
@@ -15713,7 +15713,7 @@
         <v>0</v>
       </c>
       <c r="C764" t="n">
-        <v>4992.3764</v>
+        <v>34</v>
       </c>
       <c r="D764" t="n">
         <v>0</v>
@@ -15733,7 +15733,7 @@
         <v>2</v>
       </c>
       <c r="C765" t="n">
-        <v>8527.531999999999</v>
+        <v>45</v>
       </c>
       <c r="D765" t="n">
         <v>0</v>
@@ -15753,7 +15753,7 @@
         <v>0</v>
       </c>
       <c r="C766" t="n">
-        <v>1631.6683</v>
+        <v>18</v>
       </c>
       <c r="D766" t="n">
         <v>0</v>
@@ -15773,7 +15773,7 @@
         <v>0</v>
       </c>
       <c r="C767" t="n">
-        <v>2498.4144</v>
+        <v>27</v>
       </c>
       <c r="D767" t="n">
         <v>1</v>
@@ -15793,7 +15793,7 @@
         <v>1</v>
       </c>
       <c r="C768" t="n">
-        <v>4894.7533</v>
+        <v>34</v>
       </c>
       <c r="D768" t="n">
         <v>1</v>
@@ -15813,7 +15813,7 @@
         <v>0</v>
       </c>
       <c r="C769" t="n">
-        <v>36837.467</v>
+        <v>30</v>
       </c>
       <c r="D769" t="n">
         <v>1</v>
@@ -15833,7 +15833,7 @@
         <v>1</v>
       </c>
       <c r="C770" t="n">
-        <v>4766.022</v>
+        <v>33</v>
       </c>
       <c r="D770" t="n">
         <v>0</v>
@@ -15853,7 +15853,7 @@
         <v>0</v>
       </c>
       <c r="C771" t="n">
-        <v>1625.43375</v>
+        <v>19</v>
       </c>
       <c r="D771" t="n">
         <v>1</v>
@@ -15873,7 +15873,7 @@
         <v>3</v>
       </c>
       <c r="C772" t="n">
-        <v>4661.28635</v>
+        <v>26</v>
       </c>
       <c r="D772" t="n">
         <v>1</v>
@@ -15893,7 +15893,7 @@
         <v>1</v>
       </c>
       <c r="C773" t="n">
-        <v>20773.62775</v>
+        <v>36</v>
       </c>
       <c r="D773" t="n">
         <v>1</v>
@@ -15913,7 +15913,7 @@
         <v>2</v>
       </c>
       <c r="C774" t="n">
-        <v>4934.705</v>
+        <v>31</v>
       </c>
       <c r="D774" t="n">
         <v>0</v>
@@ -15933,7 +15933,7 @@
         <v>1</v>
       </c>
       <c r="C775" t="n">
-        <v>8539.671</v>
+        <v>47</v>
       </c>
       <c r="D775" t="n">
         <v>0</v>
@@ -15953,7 +15953,7 @@
         <v>0</v>
       </c>
       <c r="C776" t="n">
-        <v>13451.122</v>
+        <v>62</v>
       </c>
       <c r="D776" t="n">
         <v>0</v>
@@ -15973,7 +15973,7 @@
         <v>2</v>
       </c>
       <c r="C777" t="n">
-        <v>8825.085999999999</v>
+        <v>46</v>
       </c>
       <c r="D777" t="n">
         <v>0</v>
@@ -15993,7 +15993,7 @@
         <v>3</v>
       </c>
       <c r="C778" t="n">
-        <v>5428.7277</v>
+        <v>30</v>
       </c>
       <c r="D778" t="n">
         <v>1</v>
@@ -16013,7 +16013,7 @@
         <v>0</v>
       </c>
       <c r="C779" t="n">
-        <v>24476.47851</v>
+        <v>54</v>
       </c>
       <c r="D779" t="n">
         <v>1</v>
@@ -16033,7 +16033,7 @@
         <v>1</v>
       </c>
       <c r="C780" t="n">
-        <v>4350.5144</v>
+        <v>31</v>
       </c>
       <c r="D780" t="n">
         <v>0</v>
@@ -16053,7 +16053,7 @@
         <v>1</v>
       </c>
       <c r="C781" t="n">
-        <v>10461.9794</v>
+        <v>53</v>
       </c>
       <c r="D781" t="n">
         <v>1</v>
@@ -16073,7 +16073,7 @@
         <v>1</v>
       </c>
       <c r="C782" t="n">
-        <v>7077.1894</v>
+        <v>40</v>
       </c>
       <c r="D782" t="n">
         <v>0</v>
@@ -16093,7 +16093,7 @@
         <v>0</v>
       </c>
       <c r="C783" t="n">
-        <v>3353.284</v>
+        <v>29</v>
       </c>
       <c r="D783" t="n">
         <v>0</v>
@@ -16113,7 +16113,7 @@
         <v>2</v>
       </c>
       <c r="C784" t="n">
-        <v>11729.6795</v>
+        <v>53</v>
       </c>
       <c r="D784" t="n">
         <v>0</v>
@@ -16133,7 +16133,7 @@
         <v>0</v>
       </c>
       <c r="C785" t="n">
-        <v>3736.4647</v>
+        <v>29</v>
       </c>
       <c r="D785" t="n">
         <v>0</v>
@@ -16153,7 +16153,7 @@
         <v>2</v>
       </c>
       <c r="C786" t="n">
-        <v>11244.3769</v>
+        <v>53</v>
       </c>
       <c r="D786" t="n">
         <v>1</v>
@@ -16173,7 +16173,7 @@
         <v>2</v>
       </c>
       <c r="C787" t="n">
-        <v>45702.02235</v>
+        <v>48</v>
       </c>
       <c r="D787" t="n">
         <v>1</v>
@@ -16193,7 +16193,7 @@
         <v>0</v>
       </c>
       <c r="C788" t="n">
-        <v>2741.948</v>
+        <v>22</v>
       </c>
       <c r="D788" t="n">
         <v>0</v>
@@ -16213,7 +16213,7 @@
         <v>0</v>
       </c>
       <c r="C789" t="n">
-        <v>2395.17155</v>
+        <v>23</v>
       </c>
       <c r="D789" t="n">
         <v>1</v>
@@ -16233,7 +16233,7 @@
         <v>0</v>
       </c>
       <c r="C790" t="n">
-        <v>9634.538</v>
+        <v>52</v>
       </c>
       <c r="D790" t="n">
         <v>0</v>
@@ -16253,7 +16253,7 @@
         <v>1</v>
       </c>
       <c r="C791" t="n">
-        <v>12032.326</v>
+        <v>57</v>
       </c>
       <c r="D791" t="n">
         <v>0</v>
@@ -16273,7 +16273,7 @@
         <v>1</v>
       </c>
       <c r="C792" t="n">
-        <v>25517.11363</v>
+        <v>54</v>
       </c>
       <c r="D792" t="n">
         <v>1</v>
@@ -16293,7 +16293,7 @@
         <v>2</v>
       </c>
       <c r="C793" t="n">
-        <v>36397.576</v>
+        <v>19</v>
       </c>
       <c r="D793" t="n">
         <v>0</v>
@@ -16313,7 +16313,7 @@
         <v>0</v>
       </c>
       <c r="C794" t="n">
-        <v>12557.6053</v>
+        <v>61</v>
       </c>
       <c r="D794" t="n">
         <v>1</v>
@@ -16333,7 +16333,7 @@
         <v>2</v>
       </c>
       <c r="C795" t="n">
-        <v>10118.424</v>
+        <v>50</v>
       </c>
       <c r="D795" t="n">
         <v>0</v>
@@ -16353,7 +16353,7 @@
         <v>4</v>
       </c>
       <c r="C796" t="n">
-        <v>21472.4788</v>
+        <v>32</v>
       </c>
       <c r="D796" t="n">
         <v>1</v>
@@ -16373,7 +16373,7 @@
         <v>0</v>
       </c>
       <c r="C797" t="n">
-        <v>3558.62025</v>
+        <v>27</v>
       </c>
       <c r="D797" t="n">
         <v>0</v>
@@ -16393,7 +16393,7 @@
         <v>0</v>
       </c>
       <c r="C798" t="n">
-        <v>11735.87905</v>
+        <v>58</v>
       </c>
       <c r="D798" t="n">
         <v>1</v>
@@ -16413,7 +16413,7 @@
         <v>3</v>
       </c>
       <c r="C799" t="n">
-        <v>24873.3849</v>
+        <v>53</v>
       </c>
       <c r="D799" t="n">
         <v>0</v>
@@ -16433,7 +16433,7 @@
         <v>2</v>
       </c>
       <c r="C800" t="n">
-        <v>4931.647</v>
+        <v>31</v>
       </c>
       <c r="D800" t="n">
         <v>0</v>
@@ -16453,7 +16453,7 @@
         <v>2</v>
       </c>
       <c r="C801" t="n">
-        <v>14426.07385</v>
+        <v>23</v>
       </c>
       <c r="D801" t="n">
         <v>0</v>
@@ -16473,7 +16473,7 @@
         <v>0</v>
       </c>
       <c r="C802" t="n">
-        <v>7050.0213</v>
+        <v>42</v>
       </c>
       <c r="D802" t="n">
         <v>0</v>
@@ -16493,7 +16493,7 @@
         <v>1</v>
       </c>
       <c r="C803" t="n">
-        <v>11512.405</v>
+        <v>54</v>
       </c>
       <c r="D803" t="n">
         <v>0</v>
@@ -16513,7 +16513,7 @@
         <v>2</v>
       </c>
       <c r="C804" t="n">
-        <v>8413.46305</v>
+        <v>45</v>
       </c>
       <c r="D804" t="n">
         <v>1</v>
@@ -16533,7 +16533,7 @@
         <v>1</v>
       </c>
       <c r="C805" t="n">
-        <v>10928.849</v>
+        <v>54</v>
       </c>
       <c r="D805" t="n">
         <v>0</v>
@@ -16553,7 +16553,7 @@
         <v>0</v>
       </c>
       <c r="C806" t="n">
-        <v>35147.52848</v>
+        <v>24</v>
       </c>
       <c r="D806" t="n">
         <v>1</v>
@@ -16573,7 +16573,7 @@
         <v>0</v>
       </c>
       <c r="C807" t="n">
-        <v>15518.18025</v>
+        <v>18</v>
       </c>
       <c r="D807" t="n">
         <v>1</v>
@@ -16593,7 +16593,7 @@
         <v>1</v>
       </c>
       <c r="C808" t="n">
-        <v>10797.3362</v>
+        <v>52</v>
       </c>
       <c r="D808" t="n">
         <v>0</v>
@@ -16613,7 +16613,7 @@
         <v>0</v>
       </c>
       <c r="C809" t="n">
-        <v>1909.52745</v>
+        <v>21</v>
       </c>
       <c r="D809" t="n">
         <v>1</v>
@@ -16633,7 +16633,7 @@
         <v>0</v>
       </c>
       <c r="C810" t="n">
-        <v>3268.84665</v>
+        <v>28</v>
       </c>
       <c r="D810" t="n">
         <v>1</v>
@@ -16653,7 +16653,7 @@
         <v>1</v>
       </c>
       <c r="C811" t="n">
-        <v>26392.26029</v>
+        <v>48</v>
       </c>
       <c r="D811" t="n">
         <v>0</v>
@@ -16673,7 +16673,7 @@
         <v>2</v>
       </c>
       <c r="C812" t="n">
-        <v>16776.30405</v>
+        <v>33</v>
       </c>
       <c r="D812" t="n">
         <v>0</v>
@@ -16693,7 +16693,7 @@
         <v>2</v>
       </c>
       <c r="C813" t="n">
-        <v>26018.95052</v>
+        <v>21</v>
       </c>
       <c r="D813" t="n">
         <v>0</v>
@@ -16713,7 +16713,7 @@
         <v>1</v>
       </c>
       <c r="C814" t="n">
-        <v>40904.1995</v>
+        <v>23</v>
       </c>
       <c r="D814" t="n">
         <v>0</v>
@@ -16733,7 +16733,7 @@
         <v>1</v>
       </c>
       <c r="C815" t="n">
-        <v>28468.91901</v>
+        <v>48</v>
       </c>
       <c r="D815" t="n">
         <v>1</v>
@@ -16753,7 +16753,7 @@
         <v>1</v>
       </c>
       <c r="C816" t="n">
-        <v>3277.161</v>
+        <v>28</v>
       </c>
       <c r="D816" t="n">
         <v>1</v>
@@ -16773,7 +16773,7 @@
         <v>1</v>
       </c>
       <c r="C817" t="n">
-        <v>11879.10405</v>
+        <v>55</v>
       </c>
       <c r="D817" t="n">
         <v>0</v>
@@ -16793,7 +16793,7 @@
         <v>1</v>
       </c>
       <c r="C818" t="n">
-        <v>4719.52405</v>
+        <v>30</v>
       </c>
       <c r="D818" t="n">
         <v>0</v>
@@ -16813,7 +16813,7 @@
         <v>3</v>
       </c>
       <c r="C819" t="n">
-        <v>11987.1682</v>
+        <v>55</v>
       </c>
       <c r="D819" t="n">
         <v>1</v>
@@ -16833,7 +16833,7 @@
         <v>0</v>
       </c>
       <c r="C820" t="n">
-        <v>14451.83515</v>
+        <v>63</v>
       </c>
       <c r="D820" t="n">
         <v>0</v>
@@ -16853,7 +16853,7 @@
         <v>3</v>
       </c>
       <c r="C821" t="n">
-        <v>5926.846</v>
+        <v>35</v>
       </c>
       <c r="D821" t="n">
         <v>1</v>
@@ -16873,7 +16873,7 @@
         <v>3</v>
       </c>
       <c r="C822" t="n">
-        <v>46718.16325</v>
+        <v>62</v>
       </c>
       <c r="D822" t="n">
         <v>1</v>
@@ -16893,7 +16893,7 @@
         <v>2</v>
       </c>
       <c r="C823" t="n">
-        <v>9225.2564</v>
+        <v>47</v>
       </c>
       <c r="D823" t="n">
         <v>1</v>
@@ -16913,7 +16913,7 @@
         <v>0</v>
       </c>
       <c r="C824" t="n">
-        <v>2302.3</v>
+        <v>26</v>
       </c>
       <c r="D824" t="n">
         <v>1</v>
@@ -16933,7 +16933,7 @@
         <v>0</v>
       </c>
       <c r="C825" t="n">
-        <v>3062.50825</v>
+        <v>28</v>
       </c>
       <c r="D825" t="n">
         <v>1</v>
@@ -16953,7 +16953,7 @@
         <v>2</v>
       </c>
       <c r="C826" t="n">
-        <v>21880.82</v>
+        <v>43</v>
       </c>
       <c r="D826" t="n">
         <v>0</v>
@@ -16973,7 +16973,7 @@
         <v>1</v>
       </c>
       <c r="C827" t="n">
-        <v>2201.0971</v>
+        <v>18</v>
       </c>
       <c r="D827" t="n">
         <v>0</v>
@@ -16993,7 +16993,7 @@
         <v>3</v>
       </c>
       <c r="C828" t="n">
-        <v>11289.10925</v>
+        <v>52</v>
       </c>
       <c r="D828" t="n">
         <v>1</v>
@@ -17013,7 +17013,7 @@
         <v>1</v>
       </c>
       <c r="C829" t="n">
-        <v>11272.33139</v>
+        <v>18</v>
       </c>
       <c r="D829" t="n">
         <v>1</v>
@@ -17033,7 +17033,7 @@
         <v>0</v>
       </c>
       <c r="C830" t="n">
-        <v>5438.7491</v>
+        <v>40</v>
       </c>
       <c r="D830" t="n">
         <v>1</v>
@@ -17053,7 +17053,7 @@
         <v>0</v>
       </c>
       <c r="C831" t="n">
-        <v>20167.33603</v>
+        <v>20</v>
       </c>
       <c r="D831" t="n">
         <v>0</v>
@@ -17073,7 +17073,7 @@
         <v>4</v>
       </c>
       <c r="C832" t="n">
-        <v>12949.1554</v>
+        <v>56</v>
       </c>
       <c r="D832" t="n">
         <v>1</v>
@@ -17093,7 +17093,7 @@
         <v>1</v>
       </c>
       <c r="C833" t="n">
-        <v>7727.2532</v>
+        <v>43</v>
       </c>
       <c r="D833" t="n">
         <v>0</v>
@@ -17113,7 +17113,7 @@
         <v>0</v>
       </c>
       <c r="C834" t="n">
-        <v>34166.273</v>
+        <v>23</v>
       </c>
       <c r="D834" t="n">
         <v>0</v>
@@ -17133,7 +17133,7 @@
         <v>2</v>
       </c>
       <c r="C835" t="n">
-        <v>4058.1161</v>
+        <v>29</v>
       </c>
       <c r="D835" t="n">
         <v>1</v>
@@ -17153,7 +17153,7 @@
         <v>1</v>
       </c>
       <c r="C836" t="n">
-        <v>7046.7222</v>
+        <v>42</v>
       </c>
       <c r="D836" t="n">
         <v>0</v>
@@ -17173,7 +17173,7 @@
         <v>0</v>
       </c>
       <c r="C837" t="n">
-        <v>21348.706</v>
+        <v>42</v>
       </c>
       <c r="D837" t="n">
         <v>0</v>
@@ -17193,7 +17193,7 @@
         <v>1</v>
       </c>
       <c r="C838" t="n">
-        <v>41999.52</v>
+        <v>54</v>
       </c>
       <c r="D838" t="n">
         <v>1</v>
@@ -17213,7 +17213,7 @@
         <v>0</v>
       </c>
       <c r="C839" t="n">
-        <v>2680.9493</v>
+        <v>26</v>
       </c>
       <c r="D839" t="n">
         <v>1</v>
@@ -17233,7 +17233,7 @@
         <v>0</v>
       </c>
       <c r="C840" t="n">
-        <v>3704.3545</v>
+        <v>33</v>
       </c>
       <c r="D840" t="n">
         <v>1</v>
@@ -17253,7 +17253,7 @@
         <v>5</v>
       </c>
       <c r="C841" t="n">
-        <v>6653.7886</v>
+        <v>33</v>
       </c>
       <c r="D841" t="n">
         <v>1</v>
@@ -17273,7 +17273,7 @@
         <v>1</v>
       </c>
       <c r="C842" t="n">
-        <v>7626.993</v>
+        <v>44</v>
       </c>
       <c r="D842" t="n">
         <v>0</v>
@@ -17293,7 +17293,7 @@
         <v>3</v>
       </c>
       <c r="C843" t="n">
-        <v>6334.34355</v>
+        <v>32</v>
       </c>
       <c r="D843" t="n">
         <v>0</v>
@@ -17313,7 +17313,7 @@
         <v>2</v>
       </c>
       <c r="C844" t="n">
-        <v>6640.54485</v>
+        <v>38</v>
       </c>
       <c r="D844" t="n">
         <v>1</v>
@@ -17333,7 +17333,7 @@
         <v>0</v>
       </c>
       <c r="C845" t="n">
-        <v>11455.28</v>
+        <v>57</v>
       </c>
       <c r="D845" t="n">
         <v>0</v>
@@ -17353,7 +17353,7 @@
         <v>0</v>
       </c>
       <c r="C846" t="n">
-        <v>14254.6082</v>
+        <v>63</v>
       </c>
       <c r="D846" t="n">
         <v>0</v>
@@ -17373,7 +17373,7 @@
         <v>3</v>
       </c>
       <c r="C847" t="n">
-        <v>30942.1918</v>
+        <v>61</v>
       </c>
       <c r="D847" t="n">
         <v>0</v>
@@ -17393,7 +17393,7 @@
         <v>3</v>
       </c>
       <c r="C848" t="n">
-        <v>3861.20965</v>
+        <v>21</v>
       </c>
       <c r="D848" t="n">
         <v>1</v>
@@ -17413,7 +17413,7 @@
         <v>0</v>
       </c>
       <c r="C849" t="n">
-        <v>13844.7972</v>
+        <v>62</v>
       </c>
       <c r="D849" t="n">
         <v>0</v>
@@ -17433,7 +17433,7 @@
         <v>0</v>
       </c>
       <c r="C850" t="n">
-        <v>37742.5757</v>
+        <v>36</v>
       </c>
       <c r="D850" t="n">
         <v>1</v>
@@ -17453,7 +17453,7 @@
         <v>0</v>
       </c>
       <c r="C851" t="n">
-        <v>7789.635</v>
+        <v>48</v>
       </c>
       <c r="D851" t="n">
         <v>1</v>
@@ -17473,7 +17473,7 @@
         <v>3</v>
       </c>
       <c r="C852" t="n">
-        <v>10269.46</v>
+        <v>49</v>
       </c>
       <c r="D852" t="n">
         <v>1</v>
@@ -17493,7 +17493,7 @@
         <v>2</v>
       </c>
       <c r="C853" t="n">
-        <v>20984.0936</v>
+        <v>35</v>
       </c>
       <c r="D853" t="n">
         <v>1</v>
@@ -17513,7 +17513,7 @@
         <v>0</v>
       </c>
       <c r="C854" t="n">
-        <v>62592.87309</v>
+        <v>45</v>
       </c>
       <c r="D854" t="n">
         <v>1</v>
@@ -17533,7 +17533,7 @@
         <v>2</v>
       </c>
       <c r="C855" t="n">
-        <v>6406.4107</v>
+        <v>37</v>
       </c>
       <c r="D855" t="n">
         <v>1</v>
@@ -17553,7 +17553,7 @@
         <v>0</v>
       </c>
       <c r="C856" t="n">
-        <v>5383.536</v>
+        <v>38</v>
       </c>
       <c r="D856" t="n">
         <v>0</v>
@@ -17573,7 +17573,7 @@
         <v>0</v>
       </c>
       <c r="C857" t="n">
-        <v>1981.5819</v>
+        <v>24</v>
       </c>
       <c r="D857" t="n">
         <v>1</v>
@@ -17593,7 +17593,7 @@
         <v>0</v>
       </c>
       <c r="C858" t="n">
-        <v>1969.614</v>
+        <v>24</v>
       </c>
       <c r="D858" t="n">
         <v>1</v>
@@ -17613,7 +17613,7 @@
         <v>3</v>
       </c>
       <c r="C859" t="n">
-        <v>4260.744</v>
+        <v>27</v>
       </c>
       <c r="D859" t="n">
         <v>1</v>
@@ -17633,7 +17633,7 @@
         <v>2</v>
       </c>
       <c r="C860" t="n">
-        <v>19798.05455</v>
+        <v>43</v>
       </c>
       <c r="D860" t="n">
         <v>0</v>
@@ -17653,7 +17653,7 @@
         <v>0</v>
       </c>
       <c r="C861" t="n">
-        <v>11093.6229</v>
+        <v>56</v>
       </c>
       <c r="D861" t="n">
         <v>0</v>
@@ -17673,7 +17673,7 @@
         <v>3</v>
       </c>
       <c r="C862" t="n">
-        <v>3443.064</v>
+        <v>22</v>
       </c>
       <c r="D862" t="n">
         <v>1</v>
@@ -17693,7 +17693,7 @@
         <v>0</v>
       </c>
       <c r="C863" t="n">
-        <v>26926.5144</v>
+        <v>64</v>
       </c>
       <c r="D863" t="n">
         <v>1</v>
@@ -17713,7 +17713,7 @@
         <v>0</v>
       </c>
       <c r="C864" t="n">
-        <v>34617.84065</v>
+        <v>18</v>
       </c>
       <c r="D864" t="n">
         <v>1</v>
@@ -17733,7 +17733,7 @@
         <v>3</v>
       </c>
       <c r="C865" t="n">
-        <v>6184.2994</v>
+        <v>34</v>
       </c>
       <c r="D865" t="n">
         <v>0</v>
@@ -17753,7 +17753,7 @@
         <v>0</v>
       </c>
       <c r="C866" t="n">
-        <v>1633.9618</v>
+        <v>18</v>
       </c>
       <c r="D866" t="n">
         <v>0</v>
@@ -17773,7 +17773,7 @@
         <v>3</v>
       </c>
       <c r="C867" t="n">
-        <v>24869.8368</v>
+        <v>52</v>
       </c>
       <c r="D867" t="n">
         <v>1</v>
@@ -17793,7 +17793,7 @@
         <v>1</v>
       </c>
       <c r="C868" t="n">
-        <v>5125.2157</v>
+        <v>35</v>
       </c>
       <c r="D868" t="n">
         <v>1</v>
@@ -17813,7 +17813,7 @@
         <v>0</v>
       </c>
       <c r="C869" t="n">
-        <v>1744.465</v>
+        <v>19</v>
       </c>
       <c r="D869" t="n">
         <v>0</v>
@@ -17833,7 +17833,7 @@
         <v>5</v>
       </c>
       <c r="C870" t="n">
-        <v>6666.243</v>
+        <v>33</v>
       </c>
       <c r="D870" t="n">
         <v>1</v>
@@ -17853,7 +17853,7 @@
         <v>0</v>
       </c>
       <c r="C871" t="n">
-        <v>13143.33665</v>
+        <v>61</v>
       </c>
       <c r="D871" t="n">
         <v>1</v>
@@ -17873,7 +17873,7 @@
         <v>1</v>
       </c>
       <c r="C872" t="n">
-        <v>6770.1925</v>
+        <v>41</v>
       </c>
       <c r="D872" t="n">
         <v>0</v>
@@ -17893,7 +17893,7 @@
         <v>0</v>
       </c>
       <c r="C873" t="n">
-        <v>13390.559</v>
+        <v>63</v>
       </c>
       <c r="D873" t="n">
         <v>1</v>
@@ -17913,7 +17913,7 @@
         <v>0</v>
       </c>
       <c r="C874" t="n">
-        <v>13470.8044</v>
+        <v>62</v>
       </c>
       <c r="D874" t="n">
         <v>0</v>
@@ -17933,7 +17933,7 @@
         <v>0</v>
       </c>
       <c r="C875" t="n">
-        <v>48885.13561</v>
+        <v>44</v>
       </c>
       <c r="D875" t="n">
         <v>0</v>
@@ -17953,7 +17953,7 @@
         <v>1</v>
       </c>
       <c r="C876" t="n">
-        <v>5373.36425</v>
+        <v>36</v>
       </c>
       <c r="D876" t="n">
         <v>1</v>
@@ -17973,7 +17973,7 @@
         <v>3</v>
       </c>
       <c r="C877" t="n">
-        <v>40720.55105</v>
+        <v>46</v>
       </c>
       <c r="D877" t="n">
         <v>1</v>
@@ -17993,7 +17993,7 @@
         <v>0</v>
       </c>
       <c r="C878" t="n">
-        <v>14692.66935</v>
+        <v>64</v>
       </c>
       <c r="D878" t="n">
         <v>0</v>
@@ -18013,7 +18013,7 @@
         <v>1</v>
       </c>
       <c r="C879" t="n">
-        <v>20009.63365</v>
+        <v>34</v>
       </c>
       <c r="D879" t="n">
         <v>1</v>
@@ -18033,7 +18033,7 @@
         <v>1</v>
       </c>
       <c r="C880" t="n">
-        <v>11305.93455</v>
+        <v>54</v>
       </c>
       <c r="D880" t="n">
         <v>0</v>
@@ -18053,7 +18053,7 @@
         <v>4</v>
       </c>
       <c r="C881" t="n">
-        <v>14394.39815</v>
+        <v>57</v>
       </c>
       <c r="D881" t="n">
         <v>0</v>
@@ -18073,7 +18073,7 @@
         <v>0</v>
       </c>
       <c r="C882" t="n">
-        <v>11165.41765</v>
+        <v>56</v>
       </c>
       <c r="D882" t="n">
         <v>1</v>
@@ -18093,7 +18093,7 @@
         <v>2</v>
       </c>
       <c r="C883" t="n">
-        <v>3981.9768</v>
+        <v>26</v>
       </c>
       <c r="D883" t="n">
         <v>0</v>
@@ -18113,7 +18113,7 @@
         <v>0</v>
       </c>
       <c r="C884" t="n">
-        <v>2261.5688</v>
+        <v>20</v>
       </c>
       <c r="D884" t="n">
         <v>0</v>
@@ -18133,7 +18133,7 @@
         <v>2</v>
       </c>
       <c r="C885" t="n">
-        <v>4435.0942</v>
+        <v>28</v>
       </c>
       <c r="D885" t="n">
         <v>1</v>
@@ -18153,7 +18153,7 @@
         <v>2</v>
       </c>
       <c r="C886" t="n">
-        <v>18157.876</v>
+        <v>29</v>
       </c>
       <c r="D886" t="n">
         <v>1</v>
@@ -18173,7 +18173,7 @@
         <v>0</v>
       </c>
       <c r="C887" t="n">
-        <v>1906.35825</v>
+        <v>21</v>
       </c>
       <c r="D887" t="n">
         <v>1</v>
@@ -18193,7 +18193,7 @@
         <v>0</v>
       </c>
       <c r="C888" t="n">
-        <v>4500.33925</v>
+        <v>34</v>
       </c>
       <c r="D888" t="n">
         <v>1</v>
@@ -18213,7 +18213,7 @@
         <v>2</v>
       </c>
       <c r="C889" t="n">
-        <v>8516.829</v>
+        <v>45</v>
       </c>
       <c r="D889" t="n">
         <v>0</v>
@@ -18233,7 +18233,7 @@
         <v>3</v>
       </c>
       <c r="C890" t="n">
-        <v>46255.1125</v>
+        <v>51</v>
       </c>
       <c r="D890" t="n">
         <v>0</v>
@@ -18253,7 +18253,7 @@
         <v>1</v>
       </c>
       <c r="C891" t="n">
-        <v>9855.1314</v>
+        <v>51</v>
       </c>
       <c r="D891" t="n">
         <v>0</v>
@@ -18273,7 +18273,7 @@
         <v>0</v>
       </c>
       <c r="C892" t="n">
-        <v>2156.7518</v>
+        <v>22</v>
       </c>
       <c r="D892" t="n">
         <v>0</v>
@@ -18293,7 +18293,7 @@
         <v>1</v>
       </c>
       <c r="C893" t="n">
-        <v>41661.602</v>
+        <v>46</v>
       </c>
       <c r="D893" t="n">
         <v>0</v>
@@ -18313,7 +18313,7 @@
         <v>0</v>
       </c>
       <c r="C894" t="n">
-        <v>9264.797</v>
+        <v>51</v>
       </c>
       <c r="D894" t="n">
         <v>0</v>
@@ -18333,7 +18333,7 @@
         <v>0</v>
       </c>
       <c r="C895" t="n">
-        <v>2257.47525</v>
+        <v>20</v>
       </c>
       <c r="D895" t="n">
         <v>0</v>
@@ -18353,7 +18353,7 @@
         <v>0</v>
       </c>
       <c r="C896" t="n">
-        <v>13012.20865</v>
+        <v>60</v>
       </c>
       <c r="D896" t="n">
         <v>0</v>
@@ -18373,7 +18373,7 @@
         <v>2</v>
       </c>
       <c r="C897" t="n">
-        <v>7160.3303</v>
+        <v>42</v>
       </c>
       <c r="D897" t="n">
         <v>1</v>
@@ -18393,7 +18393,7 @@
         <v>0</v>
       </c>
       <c r="C898" t="n">
-        <v>12648.7034</v>
+        <v>60</v>
       </c>
       <c r="D898" t="n">
         <v>0</v>
@@ -18413,7 +18413,7 @@
         <v>5</v>
       </c>
       <c r="C899" t="n">
-        <v>14478.33015</v>
+        <v>43</v>
       </c>
       <c r="D899" t="n">
         <v>1</v>
@@ -18433,7 +18433,7 @@
         <v>0</v>
       </c>
       <c r="C900" t="n">
-        <v>4544.2348</v>
+        <v>32</v>
       </c>
       <c r="D900" t="n">
         <v>0</v>
@@ -18453,7 +18453,7 @@
         <v>1</v>
       </c>
       <c r="C901" t="n">
-        <v>5630.45785</v>
+        <v>35</v>
       </c>
       <c r="D901" t="n">
         <v>0</v>
@@ -18473,7 +18473,7 @@
         <v>2</v>
       </c>
       <c r="C902" t="n">
-        <v>8302.53565</v>
+        <v>44</v>
       </c>
       <c r="D902" t="n">
         <v>1</v>
@@ -18493,7 +18493,7 @@
         <v>3</v>
       </c>
       <c r="C903" t="n">
-        <v>24106.91255</v>
+        <v>49</v>
       </c>
       <c r="D903" t="n">
         <v>0</v>
@@ -18513,7 +18513,7 @@
         <v>0</v>
       </c>
       <c r="C904" t="n">
-        <v>25081.76784</v>
+        <v>24</v>
       </c>
       <c r="D904" t="n">
         <v>0</v>
@@ -18533,7 +18533,7 @@
         <v>3</v>
       </c>
       <c r="C905" t="n">
-        <v>32787.45859</v>
+        <v>42</v>
       </c>
       <c r="D905" t="n">
         <v>1</v>
@@ -18553,7 +18553,7 @@
         <v>1</v>
       </c>
       <c r="C906" t="n">
-        <v>1725.5523</v>
+        <v>18</v>
       </c>
       <c r="D906" t="n">
         <v>1</v>
@@ -18573,7 +18573,7 @@
         <v>0</v>
       </c>
       <c r="C907" t="n">
-        <v>4646.759</v>
+        <v>37</v>
       </c>
       <c r="D907" t="n">
         <v>1</v>
@@ -18593,7 +18593,7 @@
         <v>0</v>
       </c>
       <c r="C908" t="n">
-        <v>10976.24575</v>
+        <v>56</v>
       </c>
       <c r="D908" t="n">
         <v>1</v>
@@ -18613,7 +18613,7 @@
         <v>2</v>
       </c>
       <c r="C909" t="n">
-        <v>4189.1131</v>
+        <v>25</v>
       </c>
       <c r="D909" t="n">
         <v>0</v>
@@ -18633,7 +18633,7 @@
         <v>2</v>
       </c>
       <c r="C910" t="n">
-        <v>47462.894</v>
+        <v>51</v>
       </c>
       <c r="D910" t="n">
         <v>1</v>
@@ -18653,7 +18653,7 @@
         <v>0</v>
       </c>
       <c r="C911" t="n">
-        <v>16232.847</v>
+        <v>20</v>
       </c>
       <c r="D911" t="n">
         <v>1</v>
@@ -18673,7 +18673,7 @@
         <v>1</v>
       </c>
       <c r="C912" t="n">
-        <v>20296.86345</v>
+        <v>37</v>
       </c>
       <c r="D912" t="n">
         <v>0</v>
@@ -18693,7 +18693,7 @@
         <v>0</v>
       </c>
       <c r="C913" t="n">
-        <v>37079.372</v>
+        <v>33</v>
       </c>
       <c r="D913" t="n">
         <v>0</v>
@@ -18713,7 +18713,7 @@
         <v>1</v>
       </c>
       <c r="C914" t="n">
-        <v>7623.518</v>
+        <v>44</v>
       </c>
       <c r="D914" t="n">
         <v>0</v>
@@ -18733,7 +18733,7 @@
         <v>0</v>
       </c>
       <c r="C915" t="n">
-        <v>1136.3994</v>
+        <v>18</v>
       </c>
       <c r="D915" t="n">
         <v>1</v>
@@ -18753,7 +18753,7 @@
         <v>1</v>
       </c>
       <c r="C916" t="n">
-        <v>4795.6568</v>
+        <v>33</v>
       </c>
       <c r="D916" t="n">
         <v>0</v>
@@ -18773,7 +18773,7 @@
         <v>0</v>
       </c>
       <c r="C917" t="n">
-        <v>10435.06525</v>
+        <v>54</v>
       </c>
       <c r="D917" t="n">
         <v>1</v>
@@ -18793,7 +18793,7 @@
         <v>0</v>
       </c>
       <c r="C918" t="n">
-        <v>1712.227</v>
+        <v>18</v>
       </c>
       <c r="D918" t="n">
         <v>1</v>
@@ -18813,7 +18813,7 @@
         <v>0</v>
       </c>
       <c r="C919" t="n">
-        <v>5469.0066</v>
+        <v>36</v>
       </c>
       <c r="D919" t="n">
         <v>0</v>
@@ -18833,7 +18833,7 @@
         <v>0</v>
       </c>
       <c r="C920" t="n">
-        <v>2527.81865</v>
+        <v>22</v>
       </c>
       <c r="D920" t="n">
         <v>0</v>
@@ -18853,7 +18853,7 @@
         <v>1</v>
       </c>
       <c r="C921" t="n">
-        <v>11326.71487</v>
+        <v>33</v>
       </c>
       <c r="D921" t="n">
         <v>1</v>
@@ -18873,7 +18873,7 @@
         <v>0</v>
       </c>
       <c r="C922" t="n">
-        <v>3366.6697</v>
+        <v>29</v>
       </c>
       <c r="D922" t="n">
         <v>0</v>
@@ -18893,7 +18893,7 @@
         <v>0</v>
       </c>
       <c r="C923" t="n">
-        <v>2464.6188</v>
+        <v>24</v>
       </c>
       <c r="D923" t="n">
         <v>0</v>
@@ -18913,7 +18913,7 @@
         <v>0</v>
       </c>
       <c r="C924" t="n">
-        <v>14449.8544</v>
+        <v>63</v>
       </c>
       <c r="D924" t="n">
         <v>0</v>
@@ -18933,7 +18933,7 @@
         <v>0</v>
       </c>
       <c r="C925" t="n">
-        <v>18310.742</v>
+        <v>27</v>
       </c>
       <c r="D925" t="n">
         <v>1</v>
@@ -18953,7 +18953,7 @@
         <v>3</v>
       </c>
       <c r="C926" t="n">
-        <v>10141.1362</v>
+        <v>48</v>
       </c>
       <c r="D926" t="n">
         <v>1</v>
@@ -18973,7 +18973,7 @@
         <v>4</v>
       </c>
       <c r="C927" t="n">
-        <v>36580.28216</v>
+        <v>61</v>
       </c>
       <c r="D927" t="n">
         <v>0</v>
@@ -18993,7 +18993,7 @@
         <v>1</v>
       </c>
       <c r="C928" t="n">
-        <v>8334.589599999999</v>
+        <v>46</v>
       </c>
       <c r="D928" t="n">
         <v>1</v>
@@ -19013,7 +19013,7 @@
         <v>0</v>
       </c>
       <c r="C929" t="n">
-        <v>1242.26</v>
+        <v>19</v>
       </c>
       <c r="D929" t="n">
         <v>1</v>
@@ -19033,7 +19033,7 @@
         <v>1</v>
       </c>
       <c r="C930" t="n">
-        <v>58571.07448</v>
+        <v>31</v>
       </c>
       <c r="D930" t="n">
         <v>0</v>
@@ -19053,7 +19053,7 @@
         <v>3</v>
       </c>
       <c r="C931" t="n">
-        <v>8605.361500000001</v>
+        <v>45</v>
       </c>
       <c r="D931" t="n">
         <v>1</v>
@@ -19073,7 +19073,7 @@
         <v>1</v>
       </c>
       <c r="C932" t="n">
-        <v>9447.3824</v>
+        <v>48</v>
       </c>
       <c r="D932" t="n">
         <v>0</v>
@@ -19093,7 +19093,7 @@
         <v>1</v>
       </c>
       <c r="C933" t="n">
-        <v>38245.59327</v>
+        <v>42</v>
       </c>
       <c r="D933" t="n">
         <v>1</v>
@@ -19113,7 +19113,7 @@
         <v>1</v>
       </c>
       <c r="C934" t="n">
-        <v>4462.7218</v>
+        <v>32</v>
       </c>
       <c r="D934" t="n">
         <v>1</v>
@@ -19133,7 +19133,7 @@
         <v>3</v>
       </c>
       <c r="C935" t="n">
-        <v>6196.448</v>
+        <v>34</v>
       </c>
       <c r="D935" t="n">
         <v>0</v>
@@ -19153,7 +19153,7 @@
         <v>0</v>
       </c>
       <c r="C936" t="n">
-        <v>4134.08245</v>
+        <v>31</v>
       </c>
       <c r="D936" t="n">
         <v>0</v>
@@ -19173,7 +19173,7 @@
         <v>1</v>
       </c>
       <c r="C937" t="n">
-        <v>8556.906999999999</v>
+        <v>47</v>
       </c>
       <c r="D937" t="n">
         <v>0</v>
@@ -19193,7 +19193,7 @@
         <v>1</v>
       </c>
       <c r="C938" t="n">
-        <v>3238.4357</v>
+        <v>25</v>
       </c>
       <c r="D938" t="n">
         <v>0</v>
@@ -19213,7 +19213,7 @@
         <v>3</v>
       </c>
       <c r="C939" t="n">
-        <v>9563.029</v>
+        <v>48</v>
       </c>
       <c r="D939" t="n">
         <v>1</v>
@@ -19233,7 +19233,7 @@
         <v>1</v>
       </c>
       <c r="C940" t="n">
-        <v>3766.8838</v>
+        <v>28</v>
       </c>
       <c r="D940" t="n">
         <v>0</v>
@@ -19253,7 +19253,7 @@
         <v>0</v>
       </c>
       <c r="C941" t="n">
-        <v>8798.593000000001</v>
+        <v>51</v>
       </c>
       <c r="D941" t="n">
         <v>1</v>
@@ -19273,7 +19273,7 @@
         <v>1</v>
       </c>
       <c r="C942" t="n">
-        <v>9058.730299999999</v>
+        <v>50</v>
       </c>
       <c r="D942" t="n">
         <v>1</v>
@@ -19293,7 +19293,7 @@
         <v>0</v>
       </c>
       <c r="C943" t="n">
-        <v>43254.41795</v>
+        <v>53</v>
       </c>
       <c r="D943" t="n">
         <v>1</v>
@@ -19313,7 +19313,7 @@
         <v>0</v>
       </c>
       <c r="C944" t="n">
-        <v>5458.04645</v>
+        <v>36</v>
       </c>
       <c r="D944" t="n">
         <v>0</v>
@@ -19333,7 +19333,7 @@
         <v>4</v>
       </c>
       <c r="C945" t="n">
-        <v>7243.8136</v>
+        <v>36</v>
       </c>
       <c r="D945" t="n">
         <v>0</v>
@@ -19353,7 +19353,7 @@
         <v>0</v>
       </c>
       <c r="C946" t="n">
-        <v>2250.8352</v>
+        <v>22</v>
       </c>
       <c r="D946" t="n">
         <v>1</v>
@@ -19373,7 +19373,7 @@
         <v>0</v>
       </c>
       <c r="C947" t="n">
-        <v>11743.299</v>
+        <v>59</v>
       </c>
       <c r="D947" t="n">
         <v>1</v>
@@ -19393,7 +19393,7 @@
         <v>1</v>
       </c>
       <c r="C948" t="n">
-        <v>8964.06055</v>
+        <v>48</v>
       </c>
       <c r="D948" t="n">
         <v>1</v>
@@ -19413,7 +19413,7 @@
         <v>2</v>
       </c>
       <c r="C949" t="n">
-        <v>7209.4918</v>
+        <v>39</v>
       </c>
       <c r="D949" t="n">
         <v>0</v>
@@ -19433,7 +19433,7 @@
         <v>0</v>
       </c>
       <c r="C950" t="n">
-        <v>8457.817999999999</v>
+        <v>50</v>
       </c>
       <c r="D950" t="n">
         <v>1</v>
@@ -19453,7 +19453,7 @@
         <v>0</v>
       </c>
       <c r="C951" t="n">
-        <v>16586.49771</v>
+        <v>21</v>
       </c>
       <c r="D951" t="n">
         <v>1</v>
@@ -19473,7 +19473,7 @@
         <v>1</v>
       </c>
       <c r="C952" t="n">
-        <v>8062.764</v>
+        <v>47</v>
       </c>
       <c r="D952" t="n">
         <v>1</v>
@@ -19493,7 +19493,7 @@
         <v>0</v>
       </c>
       <c r="C953" t="n">
-        <v>11938.25595</v>
+        <v>58</v>
       </c>
       <c r="D953" t="n">
         <v>1</v>
@@ -19513,7 +19513,7 @@
         <v>0</v>
       </c>
       <c r="C954" t="n">
-        <v>9850.432000000001</v>
+        <v>54</v>
       </c>
       <c r="D954" t="n">
         <v>1</v>
@@ -19533,7 +19533,7 @@
         <v>0</v>
       </c>
       <c r="C955" t="n">
-        <v>13143.86485</v>
+        <v>61</v>
       </c>
       <c r="D955" t="n">
         <v>1</v>
@@ -19553,7 +19553,7 @@
         <v>0</v>
       </c>
       <c r="C956" t="n">
-        <v>2207.69745</v>
+        <v>18</v>
       </c>
       <c r="D956" t="n">
         <v>0</v>
@@ -19573,7 +19573,7 @@
         <v>1</v>
       </c>
       <c r="C957" t="n">
-        <v>2730.10785</v>
+        <v>19</v>
       </c>
       <c r="D957" t="n">
         <v>0</v>
@@ -19593,7 +19593,7 @@
         <v>3</v>
       </c>
       <c r="C958" t="n">
-        <v>40932.4295</v>
+        <v>30</v>
       </c>
       <c r="D958" t="n">
         <v>0</v>
@@ -19613,7 +19613,7 @@
         <v>0</v>
       </c>
       <c r="C959" t="n">
-        <v>9863.471799999999</v>
+        <v>53</v>
       </c>
       <c r="D959" t="n">
         <v>1</v>
@@ -19633,7 +19633,7 @@
         <v>0</v>
       </c>
       <c r="C960" t="n">
-        <v>22412.6485</v>
+        <v>56</v>
       </c>
       <c r="D960" t="n">
         <v>1</v>
@@ -19653,7 +19653,7 @@
         <v>0</v>
       </c>
       <c r="C961" t="n">
-        <v>1815.8759</v>
+        <v>23</v>
       </c>
       <c r="D961" t="n">
         <v>1</v>
@@ -19673,7 +19673,7 @@
         <v>0</v>
       </c>
       <c r="C962" t="n">
-        <v>4185.0979</v>
+        <v>33</v>
       </c>
       <c r="D962" t="n">
         <v>0</v>
@@ -19693,7 +19693,7 @@
         <v>1</v>
       </c>
       <c r="C963" t="n">
-        <v>22218.1149</v>
+        <v>51</v>
       </c>
       <c r="D963" t="n">
         <v>1</v>
@@ -19713,7 +19713,7 @@
         <v>0</v>
       </c>
       <c r="C964" t="n">
-        <v>13974.45555</v>
+        <v>63</v>
       </c>
       <c r="D964" t="n">
         <v>1</v>
@@ -19733,7 +19733,7 @@
         <v>0</v>
       </c>
       <c r="C965" t="n">
-        <v>8277.522999999999</v>
+        <v>48</v>
       </c>
       <c r="D965" t="n">
         <v>0</v>
@@ -19753,7 +19753,7 @@
         <v>1</v>
       </c>
       <c r="C966" t="n">
-        <v>6289.7549</v>
+        <v>41</v>
       </c>
       <c r="D966" t="n">
         <v>1</v>
@@ -19773,7 +19773,7 @@
         <v>0</v>
       </c>
       <c r="C967" t="n">
-        <v>9869.8102</v>
+        <v>53</v>
       </c>
       <c r="D967" t="n">
         <v>1</v>
@@ -19793,7 +19793,7 @@
         <v>0</v>
       </c>
       <c r="C968" t="n">
-        <v>2130.6759</v>
+        <v>19</v>
       </c>
       <c r="D968" t="n">
         <v>0</v>
@@ -19813,7 +19813,7 @@
         <v>0</v>
       </c>
       <c r="C969" t="n">
-        <v>2457.21115</v>
+        <v>20</v>
       </c>
       <c r="D969" t="n">
         <v>0</v>
@@ -19833,7 +19833,7 @@
         <v>0</v>
       </c>
       <c r="C970" t="n">
-        <v>14394.5579</v>
+        <v>64</v>
       </c>
       <c r="D970" t="n">
         <v>1</v>
@@ -19853,7 +19853,7 @@
         <v>0</v>
       </c>
       <c r="C971" t="n">
-        <v>3046.062</v>
+        <v>24</v>
       </c>
       <c r="D971" t="n">
         <v>0</v>
@@ -19873,7 +19873,7 @@
         <v>2</v>
       </c>
       <c r="C972" t="n">
-        <v>3987.926</v>
+        <v>26</v>
       </c>
       <c r="D972" t="n">
         <v>0</v>
@@ -19893,7 +19893,7 @@
         <v>1</v>
       </c>
       <c r="C973" t="n">
-        <v>7443.64305</v>
+        <v>42</v>
       </c>
       <c r="D973" t="n">
         <v>0</v>
@@ -19913,7 +19913,7 @@
         <v>3</v>
       </c>
       <c r="C974" t="n">
-        <v>16455.70785</v>
+        <v>64</v>
       </c>
       <c r="D974" t="n">
         <v>0</v>
@@ -19933,7 +19933,7 @@
         <v>1</v>
       </c>
       <c r="C975" t="n">
-        <v>47896.79135</v>
+        <v>59</v>
       </c>
       <c r="D975" t="n">
         <v>0</v>
@@ -19953,7 +19953,7 @@
         <v>1</v>
       </c>
       <c r="C976" t="n">
-        <v>14418.2804</v>
+        <v>64</v>
       </c>
       <c r="D976" t="n">
         <v>1</v>
@@ -19973,7 +19973,7 @@
         <v>0</v>
       </c>
       <c r="C977" t="n">
-        <v>2138.0707</v>
+        <v>19</v>
       </c>
       <c r="D977" t="n">
         <v>0</v>
@@ -19993,7 +19993,7 @@
         <v>2</v>
       </c>
       <c r="C978" t="n">
-        <v>2566.4707</v>
+        <v>20</v>
       </c>
       <c r="D978" t="n">
         <v>1</v>
@@ -20013,7 +20013,7 @@
         <v>1</v>
       </c>
       <c r="C979" t="n">
-        <v>18963.17192</v>
+        <v>30</v>
       </c>
       <c r="D979" t="n">
         <v>1</v>
@@ -20033,7 +20033,7 @@
         <v>0</v>
       </c>
       <c r="C980" t="n">
-        <v>10796.35025</v>
+        <v>55</v>
       </c>
       <c r="D980" t="n">
         <v>1</v>
@@ -20053,7 +20053,7 @@
         <v>3</v>
       </c>
       <c r="C981" t="n">
-        <v>8252.284299999999</v>
+        <v>40</v>
       </c>
       <c r="D981" t="n">
         <v>0</v>
@@ -20073,7 +20073,7 @@
         <v>3</v>
       </c>
       <c r="C982" t="n">
-        <v>40941.2854</v>
+        <v>43</v>
       </c>
       <c r="D982" t="n">
         <v>0</v>
@@ -20093,7 +20093,7 @@
         <v>0</v>
       </c>
       <c r="C983" t="n">
-        <v>25656.57526</v>
+        <v>50</v>
       </c>
       <c r="D983" t="n">
         <v>0</v>
@@ -20113,7 +20113,7 @@
         <v>0</v>
       </c>
       <c r="C984" t="n">
-        <v>14711.7438</v>
+        <v>20</v>
       </c>
       <c r="D984" t="n">
         <v>0</v>
@@ -20133,7 +20133,7 @@
         <v>0</v>
       </c>
       <c r="C985" t="n">
-        <v>39611.7577</v>
+        <v>27</v>
       </c>
       <c r="D985" t="n">
         <v>1</v>
@@ -20153,7 +20153,7 @@
         <v>1</v>
       </c>
       <c r="C986" t="n">
-        <v>7650.77375</v>
+        <v>42</v>
       </c>
       <c r="D986" t="n">
         <v>0</v>
@@ -20173,7 +20173,7 @@
         <v>4</v>
       </c>
       <c r="C987" t="n">
-        <v>5708.867</v>
+        <v>29</v>
       </c>
       <c r="D987" t="n">
         <v>0</v>
@@ -20193,7 +20193,7 @@
         <v>0</v>
       </c>
       <c r="C988" t="n">
-        <v>2196.4732</v>
+        <v>18</v>
       </c>
       <c r="D988" t="n">
         <v>0</v>
@@ -20213,7 +20213,7 @@
         <v>1</v>
       </c>
       <c r="C989" t="n">
-        <v>27000.98473</v>
+        <v>62</v>
       </c>
       <c r="D989" t="n">
         <v>1</v>
@@ -20233,7 +20233,7 @@
         <v>3</v>
       </c>
       <c r="C990" t="n">
-        <v>5325.651</v>
+        <v>30</v>
       </c>
       <c r="D990" t="n">
         <v>0</v>
@@ -20253,7 +20253,7 @@
         <v>0</v>
       </c>
       <c r="C991" t="n">
-        <v>3070.8087</v>
+        <v>27</v>
       </c>
       <c r="D991" t="n">
         <v>1</v>
@@ -20273,7 +20273,7 @@
         <v>0</v>
       </c>
       <c r="C992" t="n">
-        <v>10355.641</v>
+        <v>53</v>
       </c>
       <c r="D992" t="n">
         <v>0</v>
@@ -20293,7 +20293,7 @@
         <v>0</v>
       </c>
       <c r="C993" t="n">
-        <v>1252.407</v>
+        <v>19</v>
       </c>
       <c r="D993" t="n">
         <v>1</v>
@@ -20313,7 +20313,7 @@
         <v>1</v>
       </c>
       <c r="C994" t="n">
-        <v>8551.347</v>
+        <v>47</v>
       </c>
       <c r="D994" t="n">
         <v>0</v>
@@ -20333,7 +20333,7 @@
         <v>1</v>
       </c>
       <c r="C995" t="n">
-        <v>6282.235</v>
+        <v>41</v>
       </c>
       <c r="D995" t="n">
         <v>1</v>
@@ -20353,7 +20353,7 @@
         <v>1</v>
       </c>
       <c r="C996" t="n">
-        <v>13937.6665</v>
+        <v>62</v>
       </c>
       <c r="D996" t="n">
         <v>1</v>
@@ -20373,7 +20373,7 @@
         <v>0</v>
       </c>
       <c r="C997" t="n">
-        <v>12231.6136</v>
+        <v>58</v>
       </c>
       <c r="D997" t="n">
         <v>0</v>
@@ -20393,7 +20393,7 @@
         <v>0</v>
       </c>
       <c r="C998" t="n">
-        <v>1704.5681</v>
+        <v>18</v>
       </c>
       <c r="D998" t="n">
         <v>1</v>
@@ -20413,7 +20413,7 @@
         <v>1</v>
       </c>
       <c r="C999" t="n">
-        <v>2709.24395</v>
+        <v>19</v>
       </c>
       <c r="D999" t="n">
         <v>0</v>
@@ -20433,7 +20433,7 @@
         <v>0</v>
       </c>
       <c r="C1000" t="n">
-        <v>21797.0004</v>
+        <v>59</v>
       </c>
       <c r="D1000" t="n">
         <v>1</v>
@@ -20453,7 +20453,7 @@
         <v>0</v>
       </c>
       <c r="C1001" t="n">
-        <v>1877.9294</v>
+        <v>20</v>
       </c>
       <c r="D1001" t="n">
         <v>0</v>
@@ -20473,7 +20473,7 @@
         <v>1</v>
       </c>
       <c r="C1002" t="n">
-        <v>9282.480600000001</v>
+        <v>49</v>
       </c>
       <c r="D1002" t="n">
         <v>1</v>
@@ -20493,7 +20493,7 @@
         <v>3</v>
       </c>
       <c r="C1003" t="n">
-        <v>7986.47525</v>
+        <v>39</v>
       </c>
       <c r="D1003" t="n">
         <v>0</v>
@@ -20513,7 +20513,7 @@
         <v>1</v>
       </c>
       <c r="C1004" t="n">
-        <v>8871.1517</v>
+        <v>48</v>
       </c>
       <c r="D1004" t="n">
         <v>0</v>
@@ -20533,7 +20533,7 @@
         <v>0</v>
       </c>
       <c r="C1005" t="n">
-        <v>36149.4835</v>
+        <v>18</v>
       </c>
       <c r="D1005" t="n">
         <v>0</v>
@@ -20553,7 +20553,7 @@
         <v>1</v>
       </c>
       <c r="C1006" t="n">
-        <v>6781.3542</v>
+        <v>41</v>
       </c>
       <c r="D1006" t="n">
         <v>0</v>
@@ -20573,7 +20573,7 @@
         <v>1</v>
       </c>
       <c r="C1007" t="n">
-        <v>8083.9198</v>
+        <v>47</v>
       </c>
       <c r="D1007" t="n">
         <v>1</v>
@@ -20593,7 +20593,7 @@
         <v>0</v>
       </c>
       <c r="C1008" t="n">
-        <v>9504.310299999999</v>
+        <v>53</v>
       </c>
       <c r="D1008" t="n">
         <v>1</v>
@@ -20613,7 +20613,7 @@
         <v>0</v>
       </c>
       <c r="C1009" t="n">
-        <v>1728.897</v>
+        <v>19</v>
       </c>
       <c r="D1009" t="n">
         <v>0</v>
@@ -20633,7 +20633,7 @@
         <v>0</v>
       </c>
       <c r="C1010" t="n">
-        <v>2128.43105</v>
+        <v>19</v>
       </c>
       <c r="D1010" t="n">
         <v>0</v>
@@ -20653,7 +20653,7 @@
         <v>3</v>
       </c>
       <c r="C1011" t="n">
-        <v>35595.5898</v>
+        <v>22</v>
       </c>
       <c r="D1011" t="n">
         <v>0</v>
@@ -20673,7 +20673,7 @@
         <v>0</v>
       </c>
       <c r="C1012" t="n">
-        <v>2020.177</v>
+        <v>21</v>
       </c>
       <c r="D1012" t="n">
         <v>0</v>
@@ -20693,7 +20693,7 @@
         <v>0</v>
       </c>
       <c r="C1013" t="n">
-        <v>20420.60465</v>
+        <v>37</v>
       </c>
       <c r="D1013" t="n">
         <v>1</v>
@@ -20713,7 +20713,7 @@
         <v>1</v>
       </c>
       <c r="C1014" t="n">
-        <v>4337.7352</v>
+        <v>28</v>
       </c>
       <c r="D1014" t="n">
         <v>0</v>
@@ -20733,7 +20733,7 @@
         <v>1</v>
       </c>
       <c r="C1015" t="n">
-        <v>51194.55914</v>
+        <v>28</v>
       </c>
       <c r="D1015" t="n">
         <v>1</v>
@@ -20753,7 +20753,7 @@
         <v>3</v>
       </c>
       <c r="C1016" t="n">
-        <v>10560.4917</v>
+        <v>51</v>
       </c>
       <c r="D1016" t="n">
         <v>1</v>
@@ -20773,7 +20773,7 @@
         <v>0</v>
       </c>
       <c r="C1017" t="n">
-        <v>3044.2133</v>
+        <v>24</v>
       </c>
       <c r="D1017" t="n">
         <v>0</v>
@@ -20793,7 +20793,7 @@
         <v>4</v>
       </c>
       <c r="C1018" t="n">
-        <v>19496.71917</v>
+        <v>35</v>
       </c>
       <c r="D1018" t="n">
         <v>1</v>
@@ -20813,7 +20813,7 @@
         <v>1</v>
       </c>
       <c r="C1019" t="n">
-        <v>10942.13205</v>
+        <v>53</v>
       </c>
       <c r="D1019" t="n">
         <v>0</v>
@@ -20833,7 +20833,7 @@
         <v>1</v>
       </c>
       <c r="C1020" t="n">
-        <v>2221.56445</v>
+        <v>19</v>
       </c>
       <c r="D1020" t="n">
         <v>1</v>
@@ -20853,7 +20853,7 @@
         <v>2</v>
       </c>
       <c r="C1021" t="n">
-        <v>2801.2588</v>
+        <v>18</v>
       </c>
       <c r="D1021" t="n">
         <v>0</v>
@@ -20873,7 +20873,7 @@
         <v>2</v>
       </c>
       <c r="C1022" t="n">
-        <v>6986.697</v>
+        <v>40</v>
       </c>
       <c r="D1022" t="n">
         <v>1</v>
@@ -20893,7 +20893,7 @@
         <v>1</v>
       </c>
       <c r="C1023" t="n">
-        <v>5354.07465</v>
+        <v>33</v>
       </c>
       <c r="D1023" t="n">
         <v>0</v>
@@ -20913,7 +20913,7 @@
         <v>0</v>
       </c>
       <c r="C1024" t="n">
-        <v>11090.7178</v>
+        <v>56</v>
       </c>
       <c r="D1024" t="n">
         <v>0</v>
@@ -20933,7 +20933,7 @@
         <v>0</v>
       </c>
       <c r="C1025" t="n">
-        <v>9722.7695</v>
+        <v>52</v>
       </c>
       <c r="D1025" t="n">
         <v>1</v>
@@ -20953,7 +20953,7 @@
         <v>0</v>
       </c>
       <c r="C1026" t="n">
-        <v>1633.0444</v>
+        <v>18</v>
       </c>
       <c r="D1026" t="n">
         <v>0</v>
@@ -20973,7 +20973,7 @@
         <v>2</v>
       </c>
       <c r="C1027" t="n">
-        <v>30284.64294</v>
+        <v>50</v>
       </c>
       <c r="D1027" t="n">
         <v>1</v>
@@ -20993,7 +20993,7 @@
         <v>5</v>
       </c>
       <c r="C1028" t="n">
-        <v>4830.63</v>
+        <v>20</v>
       </c>
       <c r="D1028" t="n">
         <v>0</v>
@@ -21013,7 +21013,7 @@
         <v>0</v>
       </c>
       <c r="C1029" t="n">
-        <v>1526.312</v>
+        <v>21</v>
       </c>
       <c r="D1029" t="n">
         <v>1</v>
@@ -21033,7 +21033,7 @@
         <v>0</v>
       </c>
       <c r="C1030" t="n">
-        <v>13228.84695</v>
+        <v>60</v>
       </c>
       <c r="D1030" t="n">
         <v>0</v>
@@ -21053,7 +21053,7 @@
         <v>1</v>
       </c>
       <c r="C1031" t="n">
-        <v>6123.5688</v>
+        <v>39</v>
       </c>
       <c r="D1031" t="n">
         <v>1</v>
@@ -21073,7 +21073,7 @@
         <v>4</v>
       </c>
       <c r="C1032" t="n">
-        <v>11015.1747</v>
+        <v>48</v>
       </c>
       <c r="D1032" t="n">
         <v>0</v>
@@ -21093,7 +21093,7 @@
         <v>0</v>
       </c>
       <c r="C1033" t="n">
-        <v>5266.3656</v>
+        <v>36</v>
       </c>
       <c r="D1033" t="n">
         <v>0</v>
@@ -21113,7 +21113,7 @@
         <v>0</v>
       </c>
       <c r="C1034" t="n">
-        <v>34254.05335</v>
+        <v>24</v>
       </c>
       <c r="D1034" t="n">
         <v>1</v>
@@ -21133,7 +21133,7 @@
         <v>0</v>
       </c>
       <c r="C1035" t="n">
-        <v>2494.022</v>
+        <v>27</v>
       </c>
       <c r="D1035" t="n">
         <v>1</v>
@@ -21153,7 +21153,7 @@
         <v>2</v>
       </c>
       <c r="C1036" t="n">
-        <v>21259.37795</v>
+        <v>42</v>
       </c>
       <c r="D1036" t="n">
         <v>1</v>
@@ -21173,7 +21173,7 @@
         <v>2</v>
       </c>
       <c r="C1037" t="n">
-        <v>7729.64575</v>
+        <v>42</v>
       </c>
       <c r="D1037" t="n">
         <v>1</v>
@@ -21193,7 +21193,7 @@
         <v>1</v>
       </c>
       <c r="C1038" t="n">
-        <v>12609.88702</v>
+        <v>24</v>
       </c>
       <c r="D1038" t="n">
         <v>1</v>
@@ -21213,7 +21213,7 @@
         <v>2</v>
       </c>
       <c r="C1039" t="n">
-        <v>4922.9159</v>
+        <v>29</v>
       </c>
       <c r="D1039" t="n">
         <v>0</v>
@@ -21233,7 +21233,7 @@
         <v>0</v>
       </c>
       <c r="C1040" t="n">
-        <v>16138.76205</v>
+        <v>29</v>
       </c>
       <c r="D1040" t="n">
         <v>1</v>
@@ -21253,7 +21253,7 @@
         <v>2</v>
       </c>
       <c r="C1041" t="n">
-        <v>3500.6123</v>
+        <v>23</v>
       </c>
       <c r="D1041" t="n">
         <v>0</v>
@@ -21273,7 +21273,7 @@
         <v>1</v>
       </c>
       <c r="C1042" t="n">
-        <v>11763.0009</v>
+        <v>56</v>
       </c>
       <c r="D1042" t="n">
         <v>1</v>
@@ -21293,7 +21293,7 @@
         <v>1</v>
       </c>
       <c r="C1043" t="n">
-        <v>5855.9025</v>
+        <v>38</v>
       </c>
       <c r="D1043" t="n">
         <v>1</v>
@@ -21313,7 +21313,7 @@
         <v>3</v>
       </c>
       <c r="C1044" t="n">
-        <v>25382.297</v>
+        <v>54</v>
       </c>
       <c r="D1044" t="n">
         <v>1</v>
@@ -21333,7 +21333,7 @@
         <v>0</v>
       </c>
       <c r="C1045" t="n">
-        <v>40974.1649</v>
+        <v>48</v>
       </c>
       <c r="D1045" t="n">
         <v>0</v>
@@ -21353,7 +21353,7 @@
         <v>0</v>
       </c>
       <c r="C1046" t="n">
-        <v>1627.28245</v>
+        <v>19</v>
       </c>
       <c r="D1046" t="n">
         <v>1</v>
@@ -21373,7 +21373,7 @@
         <v>2</v>
       </c>
       <c r="C1047" t="n">
-        <v>44260.7499</v>
+        <v>54</v>
       </c>
       <c r="D1047" t="n">
         <v>1</v>
@@ -21393,7 +21393,7 @@
         <v>1</v>
       </c>
       <c r="C1048" t="n">
-        <v>4149.736</v>
+        <v>30</v>
       </c>
       <c r="D1048" t="n">
         <v>0</v>
@@ -21413,7 +21413,7 @@
         <v>3</v>
       </c>
       <c r="C1049" t="n">
-        <v>7682.67</v>
+        <v>40</v>
       </c>
       <c r="D1049" t="n">
         <v>0</v>
@@ -21433,7 +21433,7 @@
         <v>1</v>
       </c>
       <c r="C1050" t="n">
-        <v>18328.2381</v>
+        <v>23</v>
       </c>
       <c r="D1050" t="n">
         <v>0</v>
@@ -21453,7 +21453,7 @@
         <v>2</v>
       </c>
       <c r="C1051" t="n">
-        <v>2803.69785</v>
+        <v>19</v>
       </c>
       <c r="D1051" t="n">
         <v>1</v>
@@ -21473,7 +21473,7 @@
         <v>1</v>
       </c>
       <c r="C1052" t="n">
-        <v>3875.7341</v>
+        <v>31</v>
       </c>
       <c r="D1052" t="n">
         <v>1</v>
@@ -21493,7 +21493,7 @@
         <v>0</v>
       </c>
       <c r="C1053" t="n">
-        <v>12890.05765</v>
+        <v>18</v>
       </c>
       <c r="D1053" t="n">
         <v>1</v>
@@ -21513,7 +21513,7 @@
         <v>0</v>
       </c>
       <c r="C1054" t="n">
-        <v>1261.859</v>
+        <v>19</v>
       </c>
       <c r="D1054" t="n">
         <v>1</v>
@@ -21533,7 +21533,7 @@
         <v>0</v>
       </c>
       <c r="C1055" t="n">
-        <v>7731.85785</v>
+        <v>45</v>
       </c>
       <c r="D1055" t="n">
         <v>0</v>
@@ -21553,7 +21553,7 @@
         <v>0</v>
       </c>
       <c r="C1056" t="n">
-        <v>13981.85035</v>
+        <v>63</v>
       </c>
       <c r="D1056" t="n">
         <v>1</v>
@@ -21573,7 +21573,7 @@
         <v>2</v>
       </c>
       <c r="C1057" t="n">
-        <v>6933.24225</v>
+        <v>38</v>
       </c>
       <c r="D1057" t="n">
         <v>0</v>
@@ -21593,7 +21593,7 @@
         <v>0</v>
       </c>
       <c r="C1058" t="n">
-        <v>12815.44495</v>
+        <v>59</v>
       </c>
       <c r="D1058" t="n">
         <v>0</v>
@@ -21613,7 +21613,7 @@
         <v>1</v>
       </c>
       <c r="C1059" t="n">
-        <v>3392.3652</v>
+        <v>26</v>
       </c>
       <c r="D1059" t="n">
         <v>0</v>
@@ -21633,7 +21633,7 @@
         <v>1</v>
       </c>
       <c r="C1060" t="n">
-        <v>18903.49141</v>
+        <v>27</v>
       </c>
       <c r="D1060" t="n">
         <v>0</v>
@@ -21653,7 +21653,7 @@
         <v>0</v>
       </c>
       <c r="C1061" t="n">
-        <v>11073.176</v>
+        <v>56</v>
       </c>
       <c r="D1061" t="n">
         <v>0</v>
@@ -21673,7 +21673,7 @@
         <v>1</v>
       </c>
       <c r="C1062" t="n">
-        <v>48517.56315</v>
+        <v>61</v>
       </c>
       <c r="D1062" t="n">
         <v>0</v>
@@ -21693,7 +21693,7 @@
         <v>3</v>
       </c>
       <c r="C1063" t="n">
-        <v>6985.50695</v>
+        <v>37</v>
       </c>
       <c r="D1063" t="n">
         <v>1</v>
@@ -21713,7 +21713,7 @@
         <v>1</v>
       </c>
       <c r="C1064" t="n">
-        <v>13224.693</v>
+        <v>60</v>
       </c>
       <c r="D1064" t="n">
         <v>0</v>
@@ -21733,7 +21733,7 @@
         <v>0</v>
       </c>
       <c r="C1065" t="n">
-        <v>1705.6245</v>
+        <v>18</v>
       </c>
       <c r="D1065" t="n">
         <v>1</v>
@@ -21753,7 +21753,7 @@
         <v>1</v>
       </c>
       <c r="C1066" t="n">
-        <v>11394.06555</v>
+        <v>55</v>
       </c>
       <c r="D1066" t="n">
         <v>1</v>
@@ -21773,7 +21773,7 @@
         <v>4</v>
       </c>
       <c r="C1067" t="n">
-        <v>4561.1885</v>
+        <v>18</v>
       </c>
       <c r="D1067" t="n">
         <v>0</v>
@@ -21793,7 +21793,7 @@
         <v>5</v>
       </c>
       <c r="C1068" t="n">
-        <v>8582.302299999999</v>
+        <v>39</v>
       </c>
       <c r="D1068" t="n">
         <v>0</v>
@@ -21813,7 +21813,7 @@
         <v>0</v>
       </c>
       <c r="C1069" t="n">
-        <v>11931.12525</v>
+        <v>58</v>
       </c>
       <c r="D1069" t="n">
         <v>1</v>
@@ -21833,7 +21833,7 @@
         <v>2</v>
       </c>
       <c r="C1070" t="n">
-        <v>46113.511</v>
+        <v>37</v>
       </c>
       <c r="D1070" t="n">
         <v>0</v>
@@ -21853,7 +21853,7 @@
         <v>0</v>
       </c>
       <c r="C1071" t="n">
-        <v>10214.636</v>
+        <v>55</v>
       </c>
       <c r="D1071" t="n">
         <v>1</v>
